--- a/database/industries/lastic/petayer/product/monthly_seprated.xlsx
+++ b/database/industries/lastic/petayer/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\petayer\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9ACC18-7EB4-4F40-BA7F-786A32D32630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AC77BD-9B21-40B5-B792-634DB1AE6FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="89">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1501,8 +1501,8 @@
       <c r="Y11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Z11" s="11">
+        <v>0</v>
       </c>
       <c r="AA11" s="11">
         <v>0</v>
@@ -1525,8 +1525,8 @@
       <c r="AG11" s="11">
         <v>0</v>
       </c>
-      <c r="AH11" s="11">
-        <v>0</v>
+      <c r="AH11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI11" s="11" t="s">
         <v>58</v>
@@ -1657,95 +1657,95 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>938</v>
       </c>
       <c r="Z12" s="13">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="AA12" s="13">
-        <v>922</v>
+        <v>822</v>
       </c>
       <c r="AB12" s="13">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="AC12" s="13">
-        <v>809</v>
+        <v>770</v>
       </c>
       <c r="AD12" s="13">
-        <v>770</v>
+        <v>744</v>
       </c>
       <c r="AE12" s="13">
-        <v>744</v>
+        <v>884</v>
       </c>
       <c r="AF12" s="13">
-        <v>884</v>
+        <v>861</v>
       </c>
       <c r="AG12" s="13">
-        <v>861</v>
+        <v>657</v>
       </c>
       <c r="AH12" s="13">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="AI12" s="13">
-        <v>636</v>
+        <v>741</v>
       </c>
       <c r="AJ12" s="13">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="AK12" s="13">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="AL12" s="13">
-        <v>772</v>
+        <v>563</v>
       </c>
       <c r="AM12" s="13">
-        <v>563</v>
+        <v>723</v>
       </c>
       <c r="AN12" s="13">
-        <v>723</v>
+        <v>679</v>
       </c>
       <c r="AO12" s="13">
-        <v>679</v>
+        <v>760</v>
       </c>
       <c r="AP12" s="13">
+        <v>678</v>
+      </c>
+      <c r="AQ12" s="13">
         <v>760</v>
       </c>
-      <c r="AQ12" s="13">
-        <v>678</v>
-      </c>
       <c r="AR12" s="13">
-        <v>760</v>
+        <v>675</v>
       </c>
       <c r="AS12" s="13">
-        <v>675</v>
+        <v>599</v>
       </c>
       <c r="AT12" s="13">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="AU12" s="13">
-        <v>615</v>
+        <v>693</v>
       </c>
       <c r="AV12" s="13">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="AW12" s="13">
-        <v>712</v>
+        <v>673</v>
       </c>
       <c r="AX12" s="13">
-        <v>673</v>
+        <v>477</v>
       </c>
       <c r="AY12" s="13">
-        <v>477</v>
+        <v>297</v>
       </c>
       <c r="AZ12" s="13">
-        <v>297</v>
+        <v>654</v>
       </c>
       <c r="BA12" s="13">
-        <v>654</v>
+        <v>717</v>
       </c>
       <c r="BB12" s="13">
-        <v>717</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1816,95 +1816,95 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>1479</v>
       </c>
       <c r="Z13" s="11">
-        <v>1479</v>
+        <v>1431</v>
       </c>
       <c r="AA13" s="11">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="AB13" s="11">
-        <v>1432</v>
+        <v>1532</v>
       </c>
       <c r="AC13" s="11">
-        <v>1532</v>
+        <v>1494</v>
       </c>
       <c r="AD13" s="11">
-        <v>1494</v>
+        <v>1517</v>
       </c>
       <c r="AE13" s="11">
-        <v>1517</v>
+        <v>1506</v>
       </c>
       <c r="AF13" s="11">
-        <v>1506</v>
+        <v>1540</v>
       </c>
       <c r="AG13" s="11">
-        <v>1540</v>
+        <v>1435</v>
       </c>
       <c r="AH13" s="11">
-        <v>1435</v>
+        <v>1274</v>
       </c>
       <c r="AI13" s="11">
-        <v>1274</v>
+        <v>1502</v>
       </c>
       <c r="AJ13" s="11">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="AK13" s="11">
-        <v>1499</v>
+        <v>1472</v>
       </c>
       <c r="AL13" s="11">
-        <v>1472</v>
+        <v>1056</v>
       </c>
       <c r="AM13" s="11">
-        <v>1056</v>
+        <v>1575</v>
       </c>
       <c r="AN13" s="11">
-        <v>1575</v>
+        <v>1480</v>
       </c>
       <c r="AO13" s="11">
-        <v>1480</v>
+        <v>1637</v>
       </c>
       <c r="AP13" s="11">
+        <v>1641</v>
+      </c>
+      <c r="AQ13" s="11">
         <v>1637</v>
       </c>
-      <c r="AQ13" s="11">
-        <v>1641</v>
-      </c>
       <c r="AR13" s="11">
-        <v>1637</v>
+        <v>1544</v>
       </c>
       <c r="AS13" s="11">
-        <v>1544</v>
+        <v>1458</v>
       </c>
       <c r="AT13" s="11">
-        <v>1458</v>
+        <v>1371</v>
       </c>
       <c r="AU13" s="11">
-        <v>1371</v>
+        <v>1592</v>
       </c>
       <c r="AV13" s="11">
-        <v>1592</v>
+        <v>1732</v>
       </c>
       <c r="AW13" s="11">
-        <v>1732</v>
+        <v>1699</v>
       </c>
       <c r="AX13" s="11">
-        <v>1699</v>
+        <v>1541</v>
       </c>
       <c r="AY13" s="11">
-        <v>1541</v>
+        <v>1749</v>
       </c>
       <c r="AZ13" s="11">
-        <v>1749</v>
+        <v>1621</v>
       </c>
       <c r="BA13" s="11">
-        <v>1621</v>
+        <v>1659</v>
       </c>
       <c r="BB13" s="11">
-        <v>1659</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1975,74 +1975,74 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>19</v>
       </c>
       <c r="Z14" s="13">
+        <v>20</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>17</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>16</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>9</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>15</v>
+      </c>
+      <c r="AE14" s="13">
         <v>19</v>
       </c>
-      <c r="AA14" s="13">
-        <v>20</v>
-      </c>
-      <c r="AB14" s="13">
-        <v>17</v>
-      </c>
-      <c r="AC14" s="13">
-        <v>16</v>
-      </c>
-      <c r="AD14" s="13">
-        <v>9</v>
-      </c>
-      <c r="AE14" s="13">
-        <v>15</v>
-      </c>
       <c r="AF14" s="13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG14" s="13">
         <v>18</v>
       </c>
       <c r="AH14" s="13">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI14" s="13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ14" s="13">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AK14" s="13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AL14" s="13">
         <v>12</v>
       </c>
       <c r="AM14" s="13">
+        <v>8</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>16</v>
+      </c>
+      <c r="AO14" s="13">
         <v>12</v>
       </c>
-      <c r="AN14" s="13">
-        <v>8</v>
-      </c>
-      <c r="AO14" s="13">
-        <v>16</v>
-      </c>
       <c r="AP14" s="13">
+        <v>14</v>
+      </c>
+      <c r="AQ14" s="13">
         <v>12</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>14</v>
       </c>
       <c r="AR14" s="13">
         <v>12</v>
       </c>
       <c r="AS14" s="13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AT14" s="13">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AU14" s="13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV14" s="13">
         <v>11</v>
@@ -2051,19 +2051,19 @@
         <v>11</v>
       </c>
       <c r="AX14" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY14" s="13">
         <v>13</v>
       </c>
       <c r="AZ14" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA14" s="13">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BB14" s="13">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2133,94 +2133,94 @@
         <v>0</v>
       </c>
       <c r="Y15" s="15">
-        <v>0</v>
+        <v>2436</v>
       </c>
       <c r="Z15" s="15">
-        <v>2436</v>
+        <v>2373</v>
       </c>
       <c r="AA15" s="15">
-        <v>2373</v>
+        <v>2271</v>
       </c>
       <c r="AB15" s="15">
-        <v>2271</v>
+        <v>2357</v>
       </c>
       <c r="AC15" s="15">
-        <v>2357</v>
+        <v>2273</v>
       </c>
       <c r="AD15" s="15">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="AE15" s="15">
-        <v>2276</v>
+        <v>2409</v>
       </c>
       <c r="AF15" s="15">
+        <v>2419</v>
+      </c>
+      <c r="AG15" s="15">
+        <v>2110</v>
+      </c>
+      <c r="AH15" s="15">
+        <v>1925</v>
+      </c>
+      <c r="AI15" s="15">
+        <v>2257</v>
+      </c>
+      <c r="AJ15" s="15">
+        <v>2261</v>
+      </c>
+      <c r="AK15" s="15">
+        <v>2256</v>
+      </c>
+      <c r="AL15" s="15">
+        <v>1631</v>
+      </c>
+      <c r="AM15" s="15">
+        <v>2306</v>
+      </c>
+      <c r="AN15" s="15">
+        <v>2175</v>
+      </c>
+      <c r="AO15" s="15">
         <v>2409</v>
       </c>
-      <c r="AG15" s="15">
-        <v>2419</v>
-      </c>
-      <c r="AH15" s="15">
-        <v>2110</v>
-      </c>
-      <c r="AI15" s="15">
-        <v>1925</v>
-      </c>
-      <c r="AJ15" s="15">
-        <v>2257</v>
-      </c>
-      <c r="AK15" s="15">
-        <v>2261</v>
-      </c>
-      <c r="AL15" s="15">
-        <v>2256</v>
-      </c>
-      <c r="AM15" s="15">
-        <v>1631</v>
-      </c>
-      <c r="AN15" s="15">
-        <v>2306</v>
-      </c>
-      <c r="AO15" s="15">
-        <v>2175</v>
-      </c>
       <c r="AP15" s="15">
+        <v>2333</v>
+      </c>
+      <c r="AQ15" s="15">
         <v>2409</v>
       </c>
-      <c r="AQ15" s="15">
-        <v>2333</v>
-      </c>
       <c r="AR15" s="15">
-        <v>2409</v>
+        <v>2231</v>
       </c>
       <c r="AS15" s="15">
-        <v>2231</v>
+        <v>2072</v>
       </c>
       <c r="AT15" s="15">
-        <v>2072</v>
+        <v>1994</v>
       </c>
       <c r="AU15" s="15">
-        <v>1994</v>
+        <v>2296</v>
       </c>
       <c r="AV15" s="15">
-        <v>2296</v>
+        <v>2455</v>
       </c>
       <c r="AW15" s="15">
-        <v>2455</v>
+        <v>2383</v>
       </c>
       <c r="AX15" s="15">
-        <v>2383</v>
+        <v>2031</v>
       </c>
       <c r="AY15" s="15">
-        <v>2031</v>
+        <v>2059</v>
       </c>
       <c r="AZ15" s="15">
-        <v>2059</v>
+        <v>2289</v>
       </c>
       <c r="BA15" s="15">
-        <v>2289</v>
+        <v>2395</v>
       </c>
       <c r="BB15" s="15">
-        <v>2395</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2432,8 +2432,8 @@
       <c r="AZ17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA17" s="11" t="s">
-        <v>58</v>
+      <c r="BA17" s="11">
+        <v>0</v>
       </c>
       <c r="BB17" s="11">
         <v>0</v>
@@ -2510,8 +2510,8 @@
       <c r="Y18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z18" s="13" t="s">
-        <v>58</v>
+      <c r="Z18" s="13">
+        <v>0</v>
       </c>
       <c r="AA18" s="13">
         <v>0</v>
@@ -2534,8 +2534,8 @@
       <c r="AG18" s="13">
         <v>0</v>
       </c>
-      <c r="AH18" s="13">
-        <v>0</v>
+      <c r="AH18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI18" s="13" t="s">
         <v>58</v>
@@ -2726,17 +2726,17 @@
       <c r="AR19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT19" s="11">
+      <c r="AS19" s="11">
         <v>68</v>
       </c>
+      <c r="AT19" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV19" s="11" t="s">
-        <v>58</v>
+      <c r="AV19" s="11">
+        <v>0</v>
       </c>
       <c r="AW19" s="11">
         <v>0</v>
@@ -2885,17 +2885,17 @@
       <c r="AR20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT20" s="13">
+      <c r="AS20" s="13">
         <v>55</v>
       </c>
+      <c r="AT20" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV20" s="13" t="s">
-        <v>58</v>
+      <c r="AV20" s="13">
+        <v>0</v>
       </c>
       <c r="AW20" s="13">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="AS21" s="15">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="AT21" s="15">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="15">
         <v>0</v>
@@ -3201,8 +3201,8 @@
       <c r="Y23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z23" s="11" t="s">
-        <v>58</v>
+      <c r="Z23" s="11">
+        <v>0</v>
       </c>
       <c r="AA23" s="11">
         <v>0</v>
@@ -3225,8 +3225,8 @@
       <c r="AG23" s="11">
         <v>0</v>
       </c>
-      <c r="AH23" s="11">
-        <v>0</v>
+      <c r="AH23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI23" s="11" t="s">
         <v>58</v>
@@ -3355,8 +3355,8 @@
       <c r="X24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y24" s="17" t="s">
-        <v>58</v>
+      <c r="Y24" s="17">
+        <v>0</v>
       </c>
       <c r="Z24" s="17">
         <v>0</v>
@@ -3513,94 +3513,94 @@
         <v>0</v>
       </c>
       <c r="Y25" s="15">
-        <v>0</v>
+        <v>2436</v>
       </c>
       <c r="Z25" s="15">
-        <v>2436</v>
+        <v>2373</v>
       </c>
       <c r="AA25" s="15">
-        <v>2373</v>
+        <v>2271</v>
       </c>
       <c r="AB25" s="15">
-        <v>2271</v>
+        <v>2357</v>
       </c>
       <c r="AC25" s="15">
-        <v>2357</v>
+        <v>2273</v>
       </c>
       <c r="AD25" s="15">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="AE25" s="15">
-        <v>2276</v>
+        <v>2409</v>
       </c>
       <c r="AF25" s="15">
+        <v>2419</v>
+      </c>
+      <c r="AG25" s="15">
+        <v>2110</v>
+      </c>
+      <c r="AH25" s="15">
+        <v>1925</v>
+      </c>
+      <c r="AI25" s="15">
+        <v>2257</v>
+      </c>
+      <c r="AJ25" s="15">
+        <v>2261</v>
+      </c>
+      <c r="AK25" s="15">
+        <v>2256</v>
+      </c>
+      <c r="AL25" s="15">
+        <v>1631</v>
+      </c>
+      <c r="AM25" s="15">
+        <v>2306</v>
+      </c>
+      <c r="AN25" s="15">
+        <v>2175</v>
+      </c>
+      <c r="AO25" s="15">
         <v>2409</v>
       </c>
-      <c r="AG25" s="15">
-        <v>2419</v>
-      </c>
-      <c r="AH25" s="15">
-        <v>2110</v>
-      </c>
-      <c r="AI25" s="15">
-        <v>1925</v>
-      </c>
-      <c r="AJ25" s="15">
-        <v>2257</v>
-      </c>
-      <c r="AK25" s="15">
-        <v>2261</v>
-      </c>
-      <c r="AL25" s="15">
-        <v>2256</v>
-      </c>
-      <c r="AM25" s="15">
-        <v>1631</v>
-      </c>
-      <c r="AN25" s="15">
-        <v>2306</v>
-      </c>
-      <c r="AO25" s="15">
-        <v>2175</v>
-      </c>
       <c r="AP25" s="15">
+        <v>2333</v>
+      </c>
+      <c r="AQ25" s="15">
         <v>2409</v>
       </c>
-      <c r="AQ25" s="15">
-        <v>2333</v>
-      </c>
       <c r="AR25" s="15">
-        <v>2409</v>
+        <v>2231</v>
       </c>
       <c r="AS25" s="15">
-        <v>2231</v>
+        <v>2195</v>
       </c>
       <c r="AT25" s="15">
-        <v>2195</v>
+        <v>1994</v>
       </c>
       <c r="AU25" s="15">
-        <v>1994</v>
+        <v>2296</v>
       </c>
       <c r="AV25" s="15">
-        <v>2296</v>
+        <v>2455</v>
       </c>
       <c r="AW25" s="15">
-        <v>2455</v>
+        <v>2383</v>
       </c>
       <c r="AX25" s="15">
-        <v>2383</v>
+        <v>2031</v>
       </c>
       <c r="AY25" s="15">
-        <v>2031</v>
+        <v>2059</v>
       </c>
       <c r="AZ25" s="15">
-        <v>2059</v>
+        <v>2289</v>
       </c>
       <c r="BA25" s="15">
-        <v>2289</v>
+        <v>2395</v>
       </c>
       <c r="BB25" s="15">
-        <v>2395</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -4108,8 +4108,8 @@
       <c r="Y32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z32" s="11" t="s">
-        <v>58</v>
+      <c r="Z32" s="11">
+        <v>0</v>
       </c>
       <c r="AA32" s="11">
         <v>0</v>
@@ -4132,8 +4132,8 @@
       <c r="AG32" s="11">
         <v>0</v>
       </c>
-      <c r="AH32" s="11">
-        <v>0</v>
+      <c r="AH32" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI32" s="11" t="s">
         <v>58</v>
@@ -4264,95 +4264,95 @@
       <c r="X33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" s="13" t="s">
-        <v>58</v>
+      <c r="Y33" s="13">
+        <v>856</v>
       </c>
       <c r="Z33" s="13">
-        <v>856</v>
+        <v>909</v>
       </c>
       <c r="AA33" s="13">
-        <v>909</v>
+        <v>1061</v>
       </c>
       <c r="AB33" s="13">
-        <v>1061</v>
+        <v>997</v>
       </c>
       <c r="AC33" s="13">
-        <v>997</v>
+        <v>703</v>
       </c>
       <c r="AD33" s="13">
-        <v>703</v>
+        <v>456</v>
       </c>
       <c r="AE33" s="13">
-        <v>456</v>
+        <v>1120</v>
       </c>
       <c r="AF33" s="13">
-        <v>1120</v>
+        <v>753</v>
       </c>
       <c r="AG33" s="13">
-        <v>753</v>
+        <v>796</v>
       </c>
       <c r="AH33" s="13">
-        <v>796</v>
+        <v>515</v>
       </c>
       <c r="AI33" s="13">
-        <v>515</v>
+        <v>812</v>
       </c>
       <c r="AJ33" s="13">
-        <v>812</v>
+        <v>589</v>
       </c>
       <c r="AK33" s="13">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="AL33" s="13">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="AM33" s="13">
-        <v>578</v>
+        <v>900</v>
       </c>
       <c r="AN33" s="13">
-        <v>900</v>
+        <v>707</v>
       </c>
       <c r="AO33" s="13">
-        <v>707</v>
+        <v>530</v>
       </c>
       <c r="AP33" s="13">
-        <v>530</v>
+        <v>839</v>
       </c>
       <c r="AQ33" s="13">
-        <v>839</v>
+        <v>682</v>
       </c>
       <c r="AR33" s="13">
-        <v>682</v>
+        <v>547</v>
       </c>
       <c r="AS33" s="13">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="AT33" s="13">
-        <v>582</v>
+        <v>400</v>
       </c>
       <c r="AU33" s="13">
-        <v>400</v>
+        <v>528</v>
       </c>
       <c r="AV33" s="13">
-        <v>528</v>
+        <v>841</v>
       </c>
       <c r="AW33" s="13">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AX33" s="13">
-        <v>835</v>
+        <v>614</v>
       </c>
       <c r="AY33" s="13">
-        <v>614</v>
+        <v>554</v>
       </c>
       <c r="AZ33" s="13">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="BA33" s="13">
-        <v>588</v>
+        <v>795</v>
       </c>
       <c r="BB33" s="13">
-        <v>795</v>
+        <v>788</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4423,95 +4423,95 @@
       <c r="X34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y34" s="11" t="s">
-        <v>58</v>
+      <c r="Y34" s="11">
+        <v>1512</v>
       </c>
       <c r="Z34" s="11">
-        <v>1512</v>
+        <v>1453</v>
       </c>
       <c r="AA34" s="11">
-        <v>1453</v>
+        <v>1422</v>
       </c>
       <c r="AB34" s="11">
-        <v>1422</v>
+        <v>1530</v>
       </c>
       <c r="AC34" s="11">
+        <v>1150</v>
+      </c>
+      <c r="AD34" s="11">
+        <v>1835</v>
+      </c>
+      <c r="AE34" s="11">
+        <v>1480</v>
+      </c>
+      <c r="AF34" s="11">
+        <v>1519</v>
+      </c>
+      <c r="AG34" s="11">
+        <v>1521</v>
+      </c>
+      <c r="AH34" s="11">
+        <v>1230</v>
+      </c>
+      <c r="AI34" s="11">
+        <v>1407</v>
+      </c>
+      <c r="AJ34" s="11">
+        <v>1508</v>
+      </c>
+      <c r="AK34" s="11">
+        <v>1267</v>
+      </c>
+      <c r="AL34" s="11">
+        <v>1238</v>
+      </c>
+      <c r="AM34" s="11">
+        <v>1619</v>
+      </c>
+      <c r="AN34" s="11">
+        <v>1514</v>
+      </c>
+      <c r="AO34" s="11">
+        <v>1299</v>
+      </c>
+      <c r="AP34" s="11">
+        <v>1872</v>
+      </c>
+      <c r="AQ34" s="11">
+        <v>1528</v>
+      </c>
+      <c r="AR34" s="11">
+        <v>1494</v>
+      </c>
+      <c r="AS34" s="11">
+        <v>1622</v>
+      </c>
+      <c r="AT34" s="11">
+        <v>1460</v>
+      </c>
+      <c r="AU34" s="11">
+        <v>1675</v>
+      </c>
+      <c r="AV34" s="11">
+        <v>1570</v>
+      </c>
+      <c r="AW34" s="11">
+        <v>1589</v>
+      </c>
+      <c r="AX34" s="11">
+        <v>1509</v>
+      </c>
+      <c r="AY34" s="11">
+        <v>1666</v>
+      </c>
+      <c r="AZ34" s="11">
+        <v>1700</v>
+      </c>
+      <c r="BA34" s="11">
         <v>1530</v>
       </c>
-      <c r="AD34" s="11">
-        <v>1150</v>
-      </c>
-      <c r="AE34" s="11">
-        <v>1835</v>
-      </c>
-      <c r="AF34" s="11">
-        <v>1480</v>
-      </c>
-      <c r="AG34" s="11">
-        <v>1519</v>
-      </c>
-      <c r="AH34" s="11">
-        <v>1521</v>
-      </c>
-      <c r="AI34" s="11">
-        <v>1230</v>
-      </c>
-      <c r="AJ34" s="11">
-        <v>1407</v>
-      </c>
-      <c r="AK34" s="11">
-        <v>1508</v>
-      </c>
-      <c r="AL34" s="11">
-        <v>1267</v>
-      </c>
-      <c r="AM34" s="11">
-        <v>1238</v>
-      </c>
-      <c r="AN34" s="11">
-        <v>1619</v>
-      </c>
-      <c r="AO34" s="11">
-        <v>1514</v>
-      </c>
-      <c r="AP34" s="11">
-        <v>1299</v>
-      </c>
-      <c r="AQ34" s="11">
-        <v>1872</v>
-      </c>
-      <c r="AR34" s="11">
-        <v>1528</v>
-      </c>
-      <c r="AS34" s="11">
-        <v>1494</v>
-      </c>
-      <c r="AT34" s="11">
-        <v>1622</v>
-      </c>
-      <c r="AU34" s="11">
-        <v>1460</v>
-      </c>
-      <c r="AV34" s="11">
-        <v>1675</v>
-      </c>
-      <c r="AW34" s="11">
-        <v>1570</v>
-      </c>
-      <c r="AX34" s="11">
-        <v>1589</v>
-      </c>
-      <c r="AY34" s="11">
-        <v>1509</v>
-      </c>
-      <c r="AZ34" s="11">
-        <v>1666</v>
-      </c>
-      <c r="BA34" s="11">
-        <v>1700</v>
-      </c>
       <c r="BB34" s="11">
-        <v>1530</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4582,95 +4582,95 @@
       <c r="X35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="13" t="s">
-        <v>58</v>
+      <c r="Y35" s="13">
+        <v>15</v>
       </c>
       <c r="Z35" s="13">
+        <v>19</v>
+      </c>
+      <c r="AA35" s="13">
+        <v>18</v>
+      </c>
+      <c r="AB35" s="13">
+        <v>16</v>
+      </c>
+      <c r="AC35" s="13">
+        <v>12</v>
+      </c>
+      <c r="AD35" s="13">
+        <v>14</v>
+      </c>
+      <c r="AE35" s="13">
+        <v>13</v>
+      </c>
+      <c r="AF35" s="13">
+        <v>19</v>
+      </c>
+      <c r="AG35" s="13">
+        <v>14</v>
+      </c>
+      <c r="AH35" s="13">
+        <v>11</v>
+      </c>
+      <c r="AI35" s="13">
+        <v>19</v>
+      </c>
+      <c r="AJ35" s="13">
         <v>15</v>
       </c>
-      <c r="AA35" s="13">
-        <v>19</v>
-      </c>
-      <c r="AB35" s="13">
-        <v>18</v>
-      </c>
-      <c r="AC35" s="13">
-        <v>16</v>
-      </c>
-      <c r="AD35" s="13">
-        <v>12</v>
-      </c>
-      <c r="AE35" s="13">
-        <v>14</v>
-      </c>
-      <c r="AF35" s="13">
-        <v>13</v>
-      </c>
-      <c r="AG35" s="13">
-        <v>19</v>
-      </c>
-      <c r="AH35" s="13">
-        <v>14</v>
-      </c>
-      <c r="AI35" s="13">
+      <c r="AK35" s="13">
+        <v>10</v>
+      </c>
+      <c r="AL35" s="13">
         <v>11</v>
-      </c>
-      <c r="AJ35" s="13">
-        <v>19</v>
-      </c>
-      <c r="AK35" s="13">
-        <v>15</v>
-      </c>
-      <c r="AL35" s="13">
-        <v>10</v>
       </c>
       <c r="AM35" s="13">
         <v>11</v>
       </c>
       <c r="AN35" s="13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AO35" s="13">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AP35" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ35" s="13">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AR35" s="13">
         <v>8</v>
       </c>
       <c r="AS35" s="13">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AT35" s="13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU35" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV35" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW35" s="13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX35" s="13">
         <v>9</v>
       </c>
       <c r="AY35" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ35" s="13">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BA35" s="13">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="BB35" s="13">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4740,94 +4740,94 @@
         <v>0</v>
       </c>
       <c r="Y36" s="15">
-        <v>0</v>
+        <v>2383</v>
       </c>
       <c r="Z36" s="15">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="AA36" s="15">
-        <v>2381</v>
+        <v>2501</v>
       </c>
       <c r="AB36" s="15">
-        <v>2501</v>
+        <v>2543</v>
       </c>
       <c r="AC36" s="15">
-        <v>2543</v>
+        <v>1865</v>
       </c>
       <c r="AD36" s="15">
-        <v>1865</v>
+        <v>2305</v>
       </c>
       <c r="AE36" s="15">
-        <v>2305</v>
+        <v>2613</v>
       </c>
       <c r="AF36" s="15">
-        <v>2613</v>
+        <v>2291</v>
       </c>
       <c r="AG36" s="15">
-        <v>2291</v>
+        <v>2331</v>
       </c>
       <c r="AH36" s="15">
-        <v>2331</v>
+        <v>1756</v>
       </c>
       <c r="AI36" s="15">
-        <v>1756</v>
+        <v>2238</v>
       </c>
       <c r="AJ36" s="15">
-        <v>2238</v>
+        <v>2112</v>
       </c>
       <c r="AK36" s="15">
-        <v>2112</v>
+        <v>1872</v>
       </c>
       <c r="AL36" s="15">
+        <v>1827</v>
+      </c>
+      <c r="AM36" s="15">
+        <v>2530</v>
+      </c>
+      <c r="AN36" s="15">
+        <v>2237</v>
+      </c>
+      <c r="AO36" s="15">
+        <v>1841</v>
+      </c>
+      <c r="AP36" s="15">
+        <v>2724</v>
+      </c>
+      <c r="AQ36" s="15">
+        <v>2218</v>
+      </c>
+      <c r="AR36" s="15">
+        <v>2049</v>
+      </c>
+      <c r="AS36" s="15">
+        <v>2217</v>
+      </c>
+      <c r="AT36" s="15">
         <v>1872</v>
       </c>
-      <c r="AM36" s="15">
-        <v>1827</v>
-      </c>
-      <c r="AN36" s="15">
-        <v>2530</v>
-      </c>
-      <c r="AO36" s="15">
-        <v>2237</v>
-      </c>
-      <c r="AP36" s="15">
-        <v>1841</v>
-      </c>
-      <c r="AQ36" s="15">
-        <v>2724</v>
-      </c>
-      <c r="AR36" s="15">
-        <v>2218</v>
-      </c>
-      <c r="AS36" s="15">
-        <v>2049</v>
-      </c>
-      <c r="AT36" s="15">
-        <v>2217</v>
-      </c>
       <c r="AU36" s="15">
-        <v>1872</v>
+        <v>2214</v>
       </c>
       <c r="AV36" s="15">
-        <v>2214</v>
+        <v>2421</v>
       </c>
       <c r="AW36" s="15">
-        <v>2421</v>
+        <v>2433</v>
       </c>
       <c r="AX36" s="15">
-        <v>2433</v>
+        <v>2132</v>
       </c>
       <c r="AY36" s="15">
-        <v>2132</v>
+        <v>2227</v>
       </c>
       <c r="AZ36" s="15">
-        <v>2227</v>
+        <v>2304</v>
       </c>
       <c r="BA36" s="15">
-        <v>2304</v>
+        <v>2349</v>
       </c>
       <c r="BB36" s="15">
-        <v>2349</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -5039,8 +5039,8 @@
       <c r="AZ38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA38" s="11" t="s">
-        <v>58</v>
+      <c r="BA38" s="11">
+        <v>0</v>
       </c>
       <c r="BB38" s="11">
         <v>0</v>
@@ -5117,8 +5117,8 @@
       <c r="Y39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z39" s="13" t="s">
-        <v>58</v>
+      <c r="Z39" s="13">
+        <v>0</v>
       </c>
       <c r="AA39" s="13">
         <v>0</v>
@@ -5141,8 +5141,8 @@
       <c r="AG39" s="13">
         <v>0</v>
       </c>
-      <c r="AH39" s="13">
-        <v>0</v>
+      <c r="AH39" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI39" s="13" t="s">
         <v>58</v>
@@ -5333,35 +5333,35 @@
       <c r="AR40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT40" s="11">
+      <c r="AS40" s="11">
         <v>68</v>
       </c>
+      <c r="AT40" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV40" s="11" t="s">
-        <v>58</v>
+      <c r="AV40" s="11">
+        <v>24</v>
       </c>
       <c r="AW40" s="11">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AX40" s="11">
         <v>0</v>
       </c>
       <c r="AY40" s="11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AZ40" s="11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BA40" s="11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BB40" s="11">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5492,35 +5492,35 @@
       <c r="AR41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS41" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT41" s="13">
+      <c r="AS41" s="13">
         <v>55</v>
       </c>
+      <c r="AT41" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV41" s="13" t="s">
-        <v>58</v>
+      <c r="AV41" s="13">
+        <v>50</v>
       </c>
       <c r="AW41" s="13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AY41" s="13">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="AZ41" s="13">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="13">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="BB41" s="13">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5650,34 +5650,34 @@
         <v>0</v>
       </c>
       <c r="AS42" s="15">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="AT42" s="15">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="AU42" s="15">
         <v>0</v>
       </c>
       <c r="AV42" s="15">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AW42" s="15">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AX42" s="15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AY42" s="15">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="AZ42" s="15">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="BA42" s="15">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="BB42" s="15">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5808,8 +5808,8 @@
       <c r="Y44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z44" s="11" t="s">
-        <v>58</v>
+      <c r="Z44" s="11">
+        <v>0</v>
       </c>
       <c r="AA44" s="11">
         <v>0</v>
@@ -5832,8 +5832,8 @@
       <c r="AG44" s="11">
         <v>0</v>
       </c>
-      <c r="AH44" s="11">
-        <v>0</v>
+      <c r="AH44" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI44" s="11" t="s">
         <v>58</v>
@@ -5962,8 +5962,8 @@
       <c r="X45" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="17" t="s">
-        <v>58</v>
+      <c r="Y45" s="17">
+        <v>0</v>
       </c>
       <c r="Z45" s="17">
         <v>0</v>
@@ -6181,8 +6181,8 @@
       <c r="Y47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z47" s="11" t="s">
-        <v>58</v>
+      <c r="Z47" s="11">
+        <v>0</v>
       </c>
       <c r="AA47" s="11">
         <v>0</v>
@@ -6205,8 +6205,8 @@
       <c r="AG47" s="11">
         <v>0</v>
       </c>
-      <c r="AH47" s="11">
-        <v>0</v>
+      <c r="AH47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI47" s="11" t="s">
         <v>58</v>
@@ -6337,35 +6337,35 @@
       <c r="X48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y48" s="13" t="s">
-        <v>58</v>
+      <c r="Y48" s="13">
+        <v>-5</v>
       </c>
       <c r="Z48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AB48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="13">
         <v>-5</v>
       </c>
-      <c r="AA48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="13">
+      <c r="AF48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="13">
         <v>-1</v>
       </c>
-      <c r="AC48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="13">
-        <v>-5</v>
-      </c>
-      <c r="AG48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="13">
-        <v>-1</v>
+      <c r="AH48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI48" s="13" t="s">
         <v>58</v>
@@ -6379,11 +6379,11 @@
       <c r="AL48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN48" s="13">
+      <c r="AM48" s="13">
         <v>-11</v>
+      </c>
+      <c r="AN48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO48" s="13" t="s">
         <v>58</v>
@@ -6502,8 +6502,8 @@
       <c r="Z49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA49" s="11" t="s">
-        <v>58</v>
+      <c r="AA49" s="11">
+        <v>0</v>
       </c>
       <c r="AB49" s="11">
         <v>0</v>
@@ -6523,8 +6523,8 @@
       <c r="AG49" s="11">
         <v>0</v>
       </c>
-      <c r="AH49" s="11">
-        <v>0</v>
+      <c r="AH49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI49" s="11" t="s">
         <v>58</v>
@@ -6653,35 +6653,35 @@
       <c r="X50" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y50" s="17" t="s">
-        <v>58</v>
+      <c r="Y50" s="17">
+        <v>-5</v>
       </c>
       <c r="Z50" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AB50" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="17">
         <v>-5</v>
       </c>
-      <c r="AA50" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="17">
+      <c r="AF50" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="17">
         <v>-1</v>
       </c>
-      <c r="AC50" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="17">
-        <v>-5</v>
-      </c>
-      <c r="AG50" s="17">
-        <v>0</v>
-      </c>
       <c r="AH50" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI50" s="17">
         <v>0</v>
@@ -6696,10 +6696,10 @@
         <v>0</v>
       </c>
       <c r="AM50" s="17">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AN50" s="17">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AO50" s="17">
         <v>0</v>
@@ -6811,94 +6811,94 @@
         <v>0</v>
       </c>
       <c r="Y51" s="15">
-        <v>0</v>
+        <v>2378</v>
       </c>
       <c r="Z51" s="15">
-        <v>2378</v>
+        <v>2381</v>
       </c>
       <c r="AA51" s="15">
-        <v>2381</v>
+        <v>2500</v>
       </c>
       <c r="AB51" s="15">
-        <v>2500</v>
+        <v>2543</v>
       </c>
       <c r="AC51" s="15">
-        <v>2543</v>
+        <v>1865</v>
       </c>
       <c r="AD51" s="15">
-        <v>1865</v>
+        <v>2305</v>
       </c>
       <c r="AE51" s="15">
-        <v>2305</v>
+        <v>2608</v>
       </c>
       <c r="AF51" s="15">
-        <v>2608</v>
+        <v>2291</v>
       </c>
       <c r="AG51" s="15">
-        <v>2291</v>
+        <v>2330</v>
       </c>
       <c r="AH51" s="15">
-        <v>2330</v>
+        <v>1756</v>
       </c>
       <c r="AI51" s="15">
-        <v>1756</v>
+        <v>2238</v>
       </c>
       <c r="AJ51" s="15">
-        <v>2238</v>
+        <v>2112</v>
       </c>
       <c r="AK51" s="15">
-        <v>2112</v>
+        <v>1872</v>
       </c>
       <c r="AL51" s="15">
+        <v>1827</v>
+      </c>
+      <c r="AM51" s="15">
+        <v>2519</v>
+      </c>
+      <c r="AN51" s="15">
+        <v>2237</v>
+      </c>
+      <c r="AO51" s="15">
+        <v>1841</v>
+      </c>
+      <c r="AP51" s="15">
+        <v>2724</v>
+      </c>
+      <c r="AQ51" s="15">
+        <v>2218</v>
+      </c>
+      <c r="AR51" s="15">
+        <v>2049</v>
+      </c>
+      <c r="AS51" s="15">
+        <v>2340</v>
+      </c>
+      <c r="AT51" s="15">
         <v>1872</v>
       </c>
-      <c r="AM51" s="15">
-        <v>1827</v>
-      </c>
-      <c r="AN51" s="15">
-        <v>2519</v>
-      </c>
-      <c r="AO51" s="15">
-        <v>2237</v>
-      </c>
-      <c r="AP51" s="15">
-        <v>1841</v>
-      </c>
-      <c r="AQ51" s="15">
-        <v>2724</v>
-      </c>
-      <c r="AR51" s="15">
-        <v>2218</v>
-      </c>
-      <c r="AS51" s="15">
-        <v>2049</v>
-      </c>
-      <c r="AT51" s="15">
-        <v>2340</v>
-      </c>
       <c r="AU51" s="15">
-        <v>1872</v>
+        <v>2214</v>
       </c>
       <c r="AV51" s="15">
-        <v>2214</v>
+        <v>2495</v>
       </c>
       <c r="AW51" s="15">
-        <v>2495</v>
+        <v>2433</v>
       </c>
       <c r="AX51" s="15">
-        <v>2433</v>
+        <v>2145</v>
       </c>
       <c r="AY51" s="15">
-        <v>2145</v>
+        <v>2319</v>
       </c>
       <c r="AZ51" s="15">
-        <v>2319</v>
+        <v>2304</v>
       </c>
       <c r="BA51" s="15">
-        <v>2304</v>
+        <v>2420</v>
       </c>
       <c r="BB51" s="15">
-        <v>2420</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7406,8 +7406,8 @@
       <c r="Y58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z58" s="11" t="s">
-        <v>58</v>
+      <c r="Z58" s="11">
+        <v>0</v>
       </c>
       <c r="AA58" s="11">
         <v>0</v>
@@ -7430,8 +7430,8 @@
       <c r="AG58" s="11">
         <v>0</v>
       </c>
-      <c r="AH58" s="11">
-        <v>0</v>
+      <c r="AH58" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI58" s="11" t="s">
         <v>58</v>
@@ -7562,95 +7562,95 @@
       <c r="X59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y59" s="13" t="s">
-        <v>58</v>
+      <c r="Y59" s="13">
+        <v>287965</v>
       </c>
       <c r="Z59" s="13">
-        <v>287965</v>
+        <v>367574</v>
       </c>
       <c r="AA59" s="13">
-        <v>367574</v>
+        <v>475180</v>
       </c>
       <c r="AB59" s="13">
-        <v>475180</v>
+        <v>449601</v>
       </c>
       <c r="AC59" s="13">
-        <v>449601</v>
+        <v>312822</v>
       </c>
       <c r="AD59" s="13">
-        <v>312822</v>
+        <v>198715</v>
       </c>
       <c r="AE59" s="13">
-        <v>198715</v>
+        <v>674251</v>
       </c>
       <c r="AF59" s="13">
-        <v>674251</v>
+        <v>427528</v>
       </c>
       <c r="AG59" s="13">
-        <v>427528</v>
+        <v>451253</v>
       </c>
       <c r="AH59" s="13">
-        <v>451253</v>
+        <v>291506</v>
       </c>
       <c r="AI59" s="13">
-        <v>291506</v>
+        <v>455784</v>
       </c>
       <c r="AJ59" s="13">
-        <v>455784</v>
+        <v>336254</v>
       </c>
       <c r="AK59" s="13">
-        <v>336254</v>
+        <v>339235</v>
       </c>
       <c r="AL59" s="13">
-        <v>339235</v>
+        <v>330081</v>
       </c>
       <c r="AM59" s="13">
-        <v>330081</v>
+        <v>512373</v>
       </c>
       <c r="AN59" s="13">
-        <v>512373</v>
+        <v>401695</v>
       </c>
       <c r="AO59" s="13">
-        <v>401695</v>
+        <v>337451</v>
       </c>
       <c r="AP59" s="13">
-        <v>337451</v>
+        <v>553679</v>
       </c>
       <c r="AQ59" s="13">
-        <v>553679</v>
+        <v>465731</v>
       </c>
       <c r="AR59" s="13">
-        <v>465731</v>
+        <v>373403</v>
       </c>
       <c r="AS59" s="13">
-        <v>373403</v>
+        <v>392994</v>
       </c>
       <c r="AT59" s="13">
-        <v>392994</v>
+        <v>260081</v>
       </c>
       <c r="AU59" s="13">
-        <v>260081</v>
+        <v>351058</v>
       </c>
       <c r="AV59" s="13">
-        <v>351058</v>
+        <v>625947</v>
       </c>
       <c r="AW59" s="13">
-        <v>625947</v>
+        <v>618125</v>
       </c>
       <c r="AX59" s="13">
-        <v>618125</v>
+        <v>451057</v>
       </c>
       <c r="AY59" s="13">
-        <v>451057</v>
+        <v>451524</v>
       </c>
       <c r="AZ59" s="13">
-        <v>451524</v>
+        <v>471217</v>
       </c>
       <c r="BA59" s="13">
-        <v>471217</v>
+        <v>651015</v>
       </c>
       <c r="BB59" s="13">
-        <v>651015</v>
+        <v>665998</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7721,95 +7721,95 @@
       <c r="X60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y60" s="11" t="s">
-        <v>58</v>
+      <c r="Y60" s="11">
+        <v>445823</v>
       </c>
       <c r="Z60" s="11">
-        <v>445823</v>
+        <v>499079</v>
       </c>
       <c r="AA60" s="11">
-        <v>499079</v>
+        <v>521093</v>
       </c>
       <c r="AB60" s="11">
-        <v>521093</v>
+        <v>566884</v>
       </c>
       <c r="AC60" s="11">
-        <v>566884</v>
+        <v>427186</v>
       </c>
       <c r="AD60" s="11">
-        <v>427186</v>
+        <v>1043736</v>
       </c>
       <c r="AE60" s="11">
-        <v>1043736</v>
+        <v>896744</v>
       </c>
       <c r="AF60" s="11">
-        <v>896744</v>
+        <v>847281</v>
       </c>
       <c r="AG60" s="11">
-        <v>847281</v>
+        <v>838259</v>
       </c>
       <c r="AH60" s="11">
-        <v>838259</v>
+        <v>679098</v>
       </c>
       <c r="AI60" s="11">
-        <v>679098</v>
+        <v>782577</v>
       </c>
       <c r="AJ60" s="11">
-        <v>782577</v>
+        <v>826557</v>
       </c>
       <c r="AK60" s="11">
-        <v>826557</v>
+        <v>692990</v>
       </c>
       <c r="AL60" s="11">
-        <v>692990</v>
+        <v>679345</v>
       </c>
       <c r="AM60" s="11">
-        <v>679345</v>
+        <v>884001</v>
       </c>
       <c r="AN60" s="11">
-        <v>884001</v>
+        <v>826583</v>
       </c>
       <c r="AO60" s="11">
-        <v>826583</v>
+        <v>712590</v>
       </c>
       <c r="AP60" s="11">
-        <v>712590</v>
+        <v>1030769</v>
       </c>
       <c r="AQ60" s="11">
-        <v>1030769</v>
+        <v>851125</v>
       </c>
       <c r="AR60" s="11">
-        <v>851125</v>
+        <v>824421</v>
       </c>
       <c r="AS60" s="11">
-        <v>824421</v>
+        <v>896406</v>
       </c>
       <c r="AT60" s="11">
-        <v>896406</v>
+        <v>809499</v>
       </c>
       <c r="AU60" s="11">
-        <v>809499</v>
+        <v>931871</v>
       </c>
       <c r="AV60" s="11">
-        <v>931871</v>
+        <v>990253</v>
       </c>
       <c r="AW60" s="11">
-        <v>990253</v>
+        <v>1121762</v>
       </c>
       <c r="AX60" s="11">
-        <v>1121762</v>
+        <v>1094689</v>
       </c>
       <c r="AY60" s="11">
-        <v>1094689</v>
+        <v>1212489</v>
       </c>
       <c r="AZ60" s="11">
-        <v>1212489</v>
+        <v>1268138</v>
       </c>
       <c r="BA60" s="11">
-        <v>1268138</v>
+        <v>1154199</v>
       </c>
       <c r="BB60" s="11">
-        <v>1154199</v>
+        <v>1355117</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -7880,95 +7880,95 @@
       <c r="X61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y61" s="13" t="s">
-        <v>58</v>
+      <c r="Y61" s="13">
+        <v>4102</v>
       </c>
       <c r="Z61" s="13">
-        <v>4102</v>
+        <v>6168</v>
       </c>
       <c r="AA61" s="13">
-        <v>6168</v>
+        <v>6542</v>
       </c>
       <c r="AB61" s="13">
-        <v>6542</v>
+        <v>6184</v>
       </c>
       <c r="AC61" s="13">
-        <v>6184</v>
+        <v>4305</v>
       </c>
       <c r="AD61" s="13">
-        <v>4305</v>
+        <v>4870</v>
       </c>
       <c r="AE61" s="13">
-        <v>4870</v>
+        <v>5905</v>
       </c>
       <c r="AF61" s="13">
-        <v>5905</v>
+        <v>7361</v>
       </c>
       <c r="AG61" s="13">
-        <v>7361</v>
+        <v>5002</v>
       </c>
       <c r="AH61" s="13">
-        <v>5002</v>
+        <v>3731</v>
       </c>
       <c r="AI61" s="13">
-        <v>3731</v>
+        <v>6360</v>
       </c>
       <c r="AJ61" s="13">
-        <v>6360</v>
+        <v>5181</v>
       </c>
       <c r="AK61" s="13">
-        <v>5181</v>
+        <v>3295</v>
       </c>
       <c r="AL61" s="13">
-        <v>3295</v>
+        <v>3642</v>
       </c>
       <c r="AM61" s="13">
-        <v>3642</v>
+        <v>3514</v>
       </c>
       <c r="AN61" s="13">
-        <v>3514</v>
+        <v>5312</v>
       </c>
       <c r="AO61" s="13">
-        <v>5312</v>
+        <v>3940</v>
       </c>
       <c r="AP61" s="13">
-        <v>3940</v>
+        <v>4417</v>
       </c>
       <c r="AQ61" s="13">
-        <v>4417</v>
+        <v>2799</v>
       </c>
       <c r="AR61" s="13">
-        <v>2799</v>
+        <v>2837</v>
       </c>
       <c r="AS61" s="13">
-        <v>2837</v>
+        <v>4250</v>
       </c>
       <c r="AT61" s="13">
-        <v>4250</v>
+        <v>4902</v>
       </c>
       <c r="AU61" s="13">
-        <v>4902</v>
+        <v>6260</v>
       </c>
       <c r="AV61" s="13">
-        <v>6260</v>
+        <v>5436</v>
       </c>
       <c r="AW61" s="13">
-        <v>5436</v>
+        <v>5384</v>
       </c>
       <c r="AX61" s="13">
-        <v>5384</v>
+        <v>5597</v>
       </c>
       <c r="AY61" s="13">
-        <v>5597</v>
+        <v>5910</v>
       </c>
       <c r="AZ61" s="13">
-        <v>5910</v>
+        <v>12013</v>
       </c>
       <c r="BA61" s="13">
-        <v>12013</v>
+        <v>17643</v>
       </c>
       <c r="BB61" s="13">
-        <v>17643</v>
+        <v>13735</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8038,94 +8038,94 @@
         <v>0</v>
       </c>
       <c r="Y62" s="15">
-        <v>0</v>
+        <v>737890</v>
       </c>
       <c r="Z62" s="15">
-        <v>737890</v>
+        <v>872821</v>
       </c>
       <c r="AA62" s="15">
-        <v>872821</v>
+        <v>1002815</v>
       </c>
       <c r="AB62" s="15">
-        <v>1002815</v>
+        <v>1022669</v>
       </c>
       <c r="AC62" s="15">
-        <v>1022669</v>
+        <v>744313</v>
       </c>
       <c r="AD62" s="15">
-        <v>744313</v>
+        <v>1247321</v>
       </c>
       <c r="AE62" s="15">
-        <v>1247321</v>
+        <v>1576900</v>
       </c>
       <c r="AF62" s="15">
-        <v>1576900</v>
+        <v>1282170</v>
       </c>
       <c r="AG62" s="15">
-        <v>1282170</v>
+        <v>1294514</v>
       </c>
       <c r="AH62" s="15">
-        <v>1294514</v>
+        <v>974335</v>
       </c>
       <c r="AI62" s="15">
-        <v>974335</v>
+        <v>1244721</v>
       </c>
       <c r="AJ62" s="15">
-        <v>1244721</v>
+        <v>1167992</v>
       </c>
       <c r="AK62" s="15">
-        <v>1167992</v>
+        <v>1035520</v>
       </c>
       <c r="AL62" s="15">
-        <v>1035520</v>
+        <v>1013068</v>
       </c>
       <c r="AM62" s="15">
-        <v>1013068</v>
+        <v>1399888</v>
       </c>
       <c r="AN62" s="15">
-        <v>1399888</v>
+        <v>1233590</v>
       </c>
       <c r="AO62" s="15">
-        <v>1233590</v>
+        <v>1053981</v>
       </c>
       <c r="AP62" s="15">
-        <v>1053981</v>
+        <v>1588865</v>
       </c>
       <c r="AQ62" s="15">
-        <v>1588865</v>
+        <v>1319655</v>
       </c>
       <c r="AR62" s="15">
-        <v>1319655</v>
+        <v>1200661</v>
       </c>
       <c r="AS62" s="15">
-        <v>1200661</v>
+        <v>1293650</v>
       </c>
       <c r="AT62" s="15">
-        <v>1293650</v>
+        <v>1074482</v>
       </c>
       <c r="AU62" s="15">
-        <v>1074482</v>
+        <v>1289189</v>
       </c>
       <c r="AV62" s="15">
-        <v>1289189</v>
+        <v>1621636</v>
       </c>
       <c r="AW62" s="15">
-        <v>1621636</v>
+        <v>1745271</v>
       </c>
       <c r="AX62" s="15">
-        <v>1745271</v>
+        <v>1551343</v>
       </c>
       <c r="AY62" s="15">
-        <v>1551343</v>
+        <v>1669923</v>
       </c>
       <c r="AZ62" s="15">
-        <v>1669923</v>
+        <v>1751368</v>
       </c>
       <c r="BA62" s="15">
-        <v>1751368</v>
+        <v>1822857</v>
       </c>
       <c r="BB62" s="15">
-        <v>1822857</v>
+        <v>2034850</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8337,8 +8337,8 @@
       <c r="AZ64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA64" s="11" t="s">
-        <v>58</v>
+      <c r="BA64" s="11">
+        <v>0</v>
       </c>
       <c r="BB64" s="11">
         <v>0</v>
@@ -8415,8 +8415,8 @@
       <c r="Y65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z65" s="13" t="s">
-        <v>58</v>
+      <c r="Z65" s="13">
+        <v>0</v>
       </c>
       <c r="AA65" s="13">
         <v>0</v>
@@ -8439,8 +8439,8 @@
       <c r="AG65" s="13">
         <v>0</v>
       </c>
-      <c r="AH65" s="13">
-        <v>0</v>
+      <c r="AH65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI65" s="13" t="s">
         <v>58</v>
@@ -8631,35 +8631,35 @@
       <c r="AR66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT66" s="11">
+      <c r="AS66" s="11">
         <v>44795</v>
       </c>
+      <c r="AT66" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV66" s="11" t="s">
-        <v>58</v>
+      <c r="AV66" s="11">
+        <v>16574</v>
       </c>
       <c r="AW66" s="11">
-        <v>16574</v>
+        <v>0</v>
       </c>
       <c r="AX66" s="11">
         <v>0</v>
       </c>
       <c r="AY66" s="11">
-        <v>0</v>
+        <v>22425</v>
       </c>
       <c r="AZ66" s="11">
-        <v>22425</v>
+        <v>0</v>
       </c>
       <c r="BA66" s="11">
-        <v>0</v>
+        <v>19525</v>
       </c>
       <c r="BB66" s="11">
-        <v>19525</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8790,35 +8790,35 @@
       <c r="AR67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS67" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT67" s="13">
+      <c r="AS67" s="13">
         <v>35434</v>
       </c>
+      <c r="AT67" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV67" s="13" t="s">
-        <v>58</v>
+      <c r="AV67" s="13">
+        <v>34615</v>
       </c>
       <c r="AW67" s="13">
-        <v>34615</v>
+        <v>0</v>
       </c>
       <c r="AX67" s="13">
-        <v>0</v>
+        <v>10035</v>
       </c>
       <c r="AY67" s="13">
-        <v>10035</v>
+        <v>51152</v>
       </c>
       <c r="AZ67" s="13">
-        <v>51152</v>
+        <v>0</v>
       </c>
       <c r="BA67" s="13">
-        <v>0</v>
+        <v>36670</v>
       </c>
       <c r="BB67" s="13">
-        <v>36670</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -8948,34 +8948,34 @@
         <v>0</v>
       </c>
       <c r="AS68" s="15">
-        <v>0</v>
+        <v>80229</v>
       </c>
       <c r="AT68" s="15">
-        <v>80229</v>
+        <v>0</v>
       </c>
       <c r="AU68" s="15">
         <v>0</v>
       </c>
       <c r="AV68" s="15">
-        <v>0</v>
+        <v>51189</v>
       </c>
       <c r="AW68" s="15">
-        <v>51189</v>
+        <v>0</v>
       </c>
       <c r="AX68" s="15">
-        <v>0</v>
+        <v>10035</v>
       </c>
       <c r="AY68" s="15">
-        <v>10035</v>
+        <v>73577</v>
       </c>
       <c r="AZ68" s="15">
-        <v>73577</v>
+        <v>0</v>
       </c>
       <c r="BA68" s="15">
-        <v>0</v>
+        <v>56195</v>
       </c>
       <c r="BB68" s="15">
-        <v>56195</v>
+        <v>44512</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -9106,8 +9106,8 @@
       <c r="Y70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z70" s="11" t="s">
-        <v>58</v>
+      <c r="Z70" s="11">
+        <v>0</v>
       </c>
       <c r="AA70" s="11">
         <v>0</v>
@@ -9130,8 +9130,8 @@
       <c r="AG70" s="11">
         <v>0</v>
       </c>
-      <c r="AH70" s="11">
-        <v>0</v>
+      <c r="AH70" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI70" s="11" t="s">
         <v>58</v>
@@ -9262,8 +9262,8 @@
       <c r="X71" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y71" s="17" t="s">
-        <v>58</v>
+      <c r="Y71" s="17">
+        <v>0</v>
       </c>
       <c r="Z71" s="17">
         <v>0</v>
@@ -9481,8 +9481,8 @@
       <c r="Y73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z73" s="11" t="s">
-        <v>58</v>
+      <c r="Z73" s="11">
+        <v>0</v>
       </c>
       <c r="AA73" s="11">
         <v>0</v>
@@ -9505,8 +9505,8 @@
       <c r="AG73" s="11">
         <v>0</v>
       </c>
-      <c r="AH73" s="11">
-        <v>0</v>
+      <c r="AH73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI73" s="11" t="s">
         <v>58</v>
@@ -9637,17 +9637,17 @@
       <c r="X74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y74" s="13" t="s">
-        <v>58</v>
+      <c r="Y74" s="13">
+        <v>-556</v>
       </c>
       <c r="Z74" s="13">
-        <v>-556</v>
+        <v>0</v>
       </c>
       <c r="AA74" s="13">
-        <v>0</v>
+        <v>-188</v>
       </c>
       <c r="AB74" s="13">
-        <v>-188</v>
+        <v>0</v>
       </c>
       <c r="AC74" s="13">
         <v>0</v>
@@ -9656,34 +9656,34 @@
         <v>0</v>
       </c>
       <c r="AE74" s="13">
-        <v>0</v>
+        <v>-3542</v>
       </c>
       <c r="AF74" s="13">
-        <v>-3542</v>
+        <v>0</v>
       </c>
       <c r="AG74" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH74" s="13">
         <v>-524</v>
       </c>
+      <c r="AH74" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI74" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AJ74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK74" s="13" t="s">
-        <v>58</v>
+      <c r="AK74" s="13">
+        <v>0</v>
       </c>
       <c r="AL74" s="13">
         <v>0</v>
       </c>
       <c r="AM74" s="13">
-        <v>0</v>
+        <v>-7527</v>
       </c>
       <c r="AN74" s="13">
-        <v>-7527</v>
+        <v>0</v>
       </c>
       <c r="AO74" s="13">
         <v>0</v>
@@ -9700,8 +9700,8 @@
       <c r="AS74" s="13">
         <v>0</v>
       </c>
-      <c r="AT74" s="13">
-        <v>0</v>
+      <c r="AT74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU74" s="13" t="s">
         <v>58</v>
@@ -9802,8 +9802,8 @@
       <c r="Z75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA75" s="11" t="s">
-        <v>58</v>
+      <c r="AA75" s="11">
+        <v>0</v>
       </c>
       <c r="AB75" s="11">
         <v>0</v>
@@ -9823,8 +9823,8 @@
       <c r="AG75" s="11">
         <v>0</v>
       </c>
-      <c r="AH75" s="11">
-        <v>0</v>
+      <c r="AH75" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI75" s="11" t="s">
         <v>58</v>
@@ -9955,17 +9955,17 @@
       <c r="X76" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y76" s="17" t="s">
-        <v>58</v>
+      <c r="Y76" s="17">
+        <v>-556</v>
       </c>
       <c r="Z76" s="17">
-        <v>-556</v>
+        <v>0</v>
       </c>
       <c r="AA76" s="17">
-        <v>0</v>
+        <v>-188</v>
       </c>
       <c r="AB76" s="17">
-        <v>-188</v>
+        <v>0</v>
       </c>
       <c r="AC76" s="17">
         <v>0</v>
@@ -9974,16 +9974,16 @@
         <v>0</v>
       </c>
       <c r="AE76" s="17">
-        <v>0</v>
+        <v>-3542</v>
       </c>
       <c r="AF76" s="17">
-        <v>-3542</v>
+        <v>0</v>
       </c>
       <c r="AG76" s="17">
-        <v>0</v>
+        <v>-524</v>
       </c>
       <c r="AH76" s="17">
-        <v>-524</v>
+        <v>0</v>
       </c>
       <c r="AI76" s="17">
         <v>0</v>
@@ -9998,10 +9998,10 @@
         <v>0</v>
       </c>
       <c r="AM76" s="17">
-        <v>0</v>
+        <v>-7527</v>
       </c>
       <c r="AN76" s="17">
-        <v>-7527</v>
+        <v>0</v>
       </c>
       <c r="AO76" s="17">
         <v>0</v>
@@ -10171,71 +10171,71 @@
       <c r="X78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y78" s="11" t="s">
-        <v>58</v>
+      <c r="Y78" s="11">
+        <v>-8479</v>
       </c>
       <c r="Z78" s="11">
-        <v>-8479</v>
+        <v>-8791</v>
       </c>
       <c r="AA78" s="11">
-        <v>-8791</v>
+        <v>-15677</v>
       </c>
       <c r="AB78" s="11">
-        <v>-15677</v>
+        <v>-12200</v>
       </c>
       <c r="AC78" s="11">
-        <v>-12200</v>
+        <v>-10759</v>
       </c>
       <c r="AD78" s="11">
-        <v>-10759</v>
+        <v>-11848</v>
       </c>
       <c r="AE78" s="11">
-        <v>-11848</v>
+        <v>-12664</v>
       </c>
       <c r="AF78" s="11">
-        <v>-12664</v>
+        <v>-12159</v>
       </c>
       <c r="AG78" s="11">
-        <v>-12159</v>
+        <v>-16690</v>
       </c>
       <c r="AH78" s="11">
-        <v>-16690</v>
+        <v>-8015</v>
       </c>
       <c r="AI78" s="11">
-        <v>-8015</v>
+        <v>-10431</v>
       </c>
       <c r="AJ78" s="11">
-        <v>-10431</v>
+        <v>-9973</v>
       </c>
       <c r="AK78" s="11">
-        <v>-9973</v>
+        <v>-10506</v>
       </c>
       <c r="AL78" s="11">
-        <v>-10506</v>
+        <v>-9808</v>
       </c>
       <c r="AM78" s="11">
-        <v>-9808</v>
+        <v>-12001</v>
       </c>
       <c r="AN78" s="11">
-        <v>-12001</v>
+        <v>-6868</v>
       </c>
       <c r="AO78" s="11">
-        <v>-6868</v>
+        <v>-16758</v>
       </c>
       <c r="AP78" s="11">
-        <v>-16758</v>
+        <v>-17320</v>
       </c>
       <c r="AQ78" s="11">
-        <v>-17320</v>
+        <v>-12115</v>
       </c>
       <c r="AR78" s="11">
-        <v>-12115</v>
+        <v>-10594</v>
       </c>
       <c r="AS78" s="11">
-        <v>-10594</v>
+        <v>-16008</v>
       </c>
       <c r="AT78" s="11">
-        <v>-16008</v>
+        <v>0</v>
       </c>
       <c r="AU78" s="11">
         <v>0</v>
@@ -10329,94 +10329,94 @@
         <v>0</v>
       </c>
       <c r="Y79" s="17">
-        <v>0</v>
+        <v>728855</v>
       </c>
       <c r="Z79" s="17">
-        <v>728855</v>
+        <v>864030</v>
       </c>
       <c r="AA79" s="17">
-        <v>864030</v>
+        <v>986950</v>
       </c>
       <c r="AB79" s="17">
-        <v>986950</v>
+        <v>1010469</v>
       </c>
       <c r="AC79" s="17">
-        <v>1010469</v>
+        <v>733554</v>
       </c>
       <c r="AD79" s="17">
-        <v>733554</v>
+        <v>1235473</v>
       </c>
       <c r="AE79" s="17">
-        <v>1235473</v>
+        <v>1560694</v>
       </c>
       <c r="AF79" s="17">
-        <v>1560694</v>
+        <v>1270011</v>
       </c>
       <c r="AG79" s="17">
-        <v>1270011</v>
+        <v>1277300</v>
       </c>
       <c r="AH79" s="17">
-        <v>1277300</v>
+        <v>966320</v>
       </c>
       <c r="AI79" s="17">
-        <v>966320</v>
+        <v>1234290</v>
       </c>
       <c r="AJ79" s="17">
-        <v>1234290</v>
+        <v>1158019</v>
       </c>
       <c r="AK79" s="17">
-        <v>1158019</v>
+        <v>1025014</v>
       </c>
       <c r="AL79" s="17">
-        <v>1025014</v>
+        <v>1003260</v>
       </c>
       <c r="AM79" s="17">
-        <v>1003260</v>
+        <v>1380360</v>
       </c>
       <c r="AN79" s="17">
-        <v>1380360</v>
+        <v>1226722</v>
       </c>
       <c r="AO79" s="17">
-        <v>1226722</v>
+        <v>1037223</v>
       </c>
       <c r="AP79" s="17">
-        <v>1037223</v>
+        <v>1571545</v>
       </c>
       <c r="AQ79" s="17">
-        <v>1571545</v>
+        <v>1307540</v>
       </c>
       <c r="AR79" s="17">
-        <v>1307540</v>
+        <v>1190067</v>
       </c>
       <c r="AS79" s="17">
-        <v>1190067</v>
+        <v>1357871</v>
       </c>
       <c r="AT79" s="17">
-        <v>1357871</v>
+        <v>1074482</v>
       </c>
       <c r="AU79" s="17">
-        <v>1074482</v>
+        <v>1289189</v>
       </c>
       <c r="AV79" s="17">
-        <v>1289189</v>
+        <v>1672825</v>
       </c>
       <c r="AW79" s="17">
-        <v>1672825</v>
+        <v>1745271</v>
       </c>
       <c r="AX79" s="17">
-        <v>1745271</v>
+        <v>1561378</v>
       </c>
       <c r="AY79" s="17">
-        <v>1561378</v>
+        <v>1743500</v>
       </c>
       <c r="AZ79" s="17">
-        <v>1743500</v>
+        <v>1751368</v>
       </c>
       <c r="BA79" s="17">
-        <v>1751368</v>
+        <v>1879052</v>
       </c>
       <c r="BB79" s="17">
-        <v>1879052</v>
+        <v>2079362</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -10921,95 +10921,95 @@
       <c r="X86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y86" s="11" t="s">
-        <v>58</v>
+      <c r="Y86" s="11">
+        <v>336407710</v>
       </c>
       <c r="Z86" s="11">
-        <v>336407710</v>
+        <v>404371837</v>
       </c>
       <c r="AA86" s="11">
-        <v>404371837</v>
+        <v>447860509</v>
       </c>
       <c r="AB86" s="11">
-        <v>447860509</v>
+        <v>450953862</v>
       </c>
       <c r="AC86" s="11">
-        <v>450953862</v>
+        <v>444981508</v>
       </c>
       <c r="AD86" s="11">
-        <v>444981508</v>
+        <v>435778509</v>
       </c>
       <c r="AE86" s="11">
-        <v>435778509</v>
+        <v>602009821</v>
       </c>
       <c r="AF86" s="11">
-        <v>602009821</v>
+        <v>567766268</v>
       </c>
       <c r="AG86" s="11">
-        <v>567766268</v>
+        <v>566900754</v>
       </c>
       <c r="AH86" s="11">
-        <v>566900754</v>
+        <v>566031068</v>
       </c>
       <c r="AI86" s="11">
-        <v>566031068</v>
+        <v>561310345</v>
       </c>
       <c r="AJ86" s="11">
-        <v>561310345</v>
+        <v>570889643</v>
       </c>
       <c r="AK86" s="11">
-        <v>570889643</v>
+        <v>570142857</v>
       </c>
       <c r="AL86" s="11">
-        <v>570142857</v>
+        <v>571074394</v>
       </c>
       <c r="AM86" s="11">
-        <v>571074394</v>
+        <v>569303333</v>
       </c>
       <c r="AN86" s="11">
-        <v>569303333</v>
+        <v>568168317</v>
       </c>
       <c r="AO86" s="11">
-        <v>568168317</v>
+        <v>636700000</v>
       </c>
       <c r="AP86" s="11">
-        <v>636700000</v>
+        <v>659927294</v>
       </c>
       <c r="AQ86" s="11">
-        <v>659927294</v>
+        <v>682890029</v>
       </c>
       <c r="AR86" s="11">
-        <v>682890029</v>
+        <v>682638026</v>
       </c>
       <c r="AS86" s="11">
-        <v>682638026</v>
+        <v>675247423</v>
       </c>
       <c r="AT86" s="11">
-        <v>675247423</v>
+        <v>650202500</v>
       </c>
       <c r="AU86" s="11">
-        <v>650202500</v>
+        <v>664882576</v>
       </c>
       <c r="AV86" s="11">
-        <v>664882576</v>
+        <v>744288942</v>
       </c>
       <c r="AW86" s="11">
-        <v>744288942</v>
+        <v>740269461</v>
       </c>
       <c r="AX86" s="11">
-        <v>740269461</v>
+        <v>734620521</v>
       </c>
       <c r="AY86" s="11">
-        <v>734620521</v>
+        <v>815025271</v>
       </c>
       <c r="AZ86" s="11">
-        <v>815025271</v>
+        <v>801389456</v>
       </c>
       <c r="BA86" s="11">
-        <v>801389456</v>
+        <v>818886792</v>
       </c>
       <c r="BB86" s="11">
-        <v>818886792</v>
+        <v>845175127</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -11080,95 +11080,95 @@
       <c r="X87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y87" s="13" t="s">
-        <v>58</v>
+      <c r="Y87" s="13">
+        <v>294856481</v>
       </c>
       <c r="Z87" s="13">
-        <v>294856481</v>
+        <v>343481762</v>
       </c>
       <c r="AA87" s="13">
-        <v>343481762</v>
+        <v>366450774</v>
       </c>
       <c r="AB87" s="13">
-        <v>366450774</v>
+        <v>370512418</v>
       </c>
       <c r="AC87" s="13">
-        <v>370512418</v>
+        <v>371466087</v>
       </c>
       <c r="AD87" s="13">
-        <v>371466087</v>
+        <v>568793460</v>
       </c>
       <c r="AE87" s="13">
-        <v>568793460</v>
+        <v>605908108</v>
       </c>
       <c r="AF87" s="13">
-        <v>605908108</v>
+        <v>557788677</v>
       </c>
       <c r="AG87" s="13">
-        <v>557788677</v>
+        <v>551123603</v>
       </c>
       <c r="AH87" s="13">
-        <v>551123603</v>
+        <v>552112195</v>
       </c>
       <c r="AI87" s="13">
-        <v>552112195</v>
+        <v>556202559</v>
       </c>
       <c r="AJ87" s="13">
-        <v>556202559</v>
+        <v>548114721</v>
       </c>
       <c r="AK87" s="13">
-        <v>548114721</v>
+        <v>546953433</v>
       </c>
       <c r="AL87" s="13">
-        <v>546953433</v>
+        <v>548743942</v>
       </c>
       <c r="AM87" s="13">
-        <v>548743942</v>
+        <v>546016677</v>
       </c>
       <c r="AN87" s="13">
-        <v>546016677</v>
+        <v>545959709</v>
       </c>
       <c r="AO87" s="13">
-        <v>545959709</v>
+        <v>548568129</v>
       </c>
       <c r="AP87" s="13">
-        <v>548568129</v>
+        <v>550624466</v>
       </c>
       <c r="AQ87" s="13">
-        <v>550624466</v>
+        <v>557018979</v>
       </c>
       <c r="AR87" s="13">
-        <v>557018979</v>
+        <v>551821285</v>
       </c>
       <c r="AS87" s="13">
-        <v>551821285</v>
+        <v>552654747</v>
       </c>
       <c r="AT87" s="13">
-        <v>552654747</v>
+        <v>554451370</v>
       </c>
       <c r="AU87" s="13">
-        <v>554451370</v>
+        <v>556340896</v>
       </c>
       <c r="AV87" s="13">
-        <v>556340896</v>
+        <v>630734395</v>
       </c>
       <c r="AW87" s="13">
-        <v>630734395</v>
+        <v>705954688</v>
       </c>
       <c r="AX87" s="13">
-        <v>705954688</v>
+        <v>725440027</v>
       </c>
       <c r="AY87" s="13">
-        <v>725440027</v>
+        <v>727784514</v>
       </c>
       <c r="AZ87" s="13">
-        <v>727784514</v>
+        <v>745963529</v>
       </c>
       <c r="BA87" s="13">
-        <v>745963529</v>
+        <v>754378431</v>
       </c>
       <c r="BB87" s="13">
-        <v>754378431</v>
+        <v>752424764</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -11239,95 +11239,95 @@
       <c r="X88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y88" s="11" t="s">
-        <v>58</v>
+      <c r="Y88" s="11">
+        <v>273466667</v>
       </c>
       <c r="Z88" s="11">
-        <v>273466667</v>
+        <v>324631579</v>
       </c>
       <c r="AA88" s="11">
-        <v>324631579</v>
+        <v>363444444</v>
       </c>
       <c r="AB88" s="11">
-        <v>363444444</v>
+        <v>386500000</v>
       </c>
       <c r="AC88" s="11">
-        <v>386500000</v>
+        <v>358750000</v>
       </c>
       <c r="AD88" s="11">
-        <v>358750000</v>
+        <v>347857143</v>
       </c>
       <c r="AE88" s="11">
-        <v>347857143</v>
+        <v>454230769</v>
       </c>
       <c r="AF88" s="11">
-        <v>454230769</v>
+        <v>387421053</v>
       </c>
       <c r="AG88" s="11">
-        <v>387421053</v>
+        <v>357285714</v>
       </c>
       <c r="AH88" s="11">
-        <v>357285714</v>
+        <v>339181818</v>
       </c>
       <c r="AI88" s="11">
-        <v>339181818</v>
+        <v>334736842</v>
       </c>
       <c r="AJ88" s="11">
-        <v>334736842</v>
+        <v>345400000</v>
       </c>
       <c r="AK88" s="11">
-        <v>345400000</v>
+        <v>329500000</v>
       </c>
       <c r="AL88" s="11">
-        <v>329500000</v>
+        <v>331090909</v>
       </c>
       <c r="AM88" s="11">
-        <v>331090909</v>
+        <v>319454545</v>
       </c>
       <c r="AN88" s="11">
-        <v>319454545</v>
+        <v>332000000</v>
       </c>
       <c r="AO88" s="11">
-        <v>332000000</v>
+        <v>328333333</v>
       </c>
       <c r="AP88" s="11">
-        <v>328333333</v>
+        <v>339769231</v>
       </c>
       <c r="AQ88" s="11">
-        <v>339769231</v>
+        <v>349875000</v>
       </c>
       <c r="AR88" s="11">
-        <v>349875000</v>
+        <v>354625000</v>
       </c>
       <c r="AS88" s="11">
-        <v>354625000</v>
+        <v>326923077</v>
       </c>
       <c r="AT88" s="11">
-        <v>326923077</v>
+        <v>408500000</v>
       </c>
       <c r="AU88" s="11">
-        <v>408500000</v>
+        <v>569090909</v>
       </c>
       <c r="AV88" s="11">
-        <v>569090909</v>
+        <v>543600000</v>
       </c>
       <c r="AW88" s="11">
-        <v>543600000</v>
+        <v>598222222</v>
       </c>
       <c r="AX88" s="11">
-        <v>598222222</v>
+        <v>621888889</v>
       </c>
       <c r="AY88" s="11">
-        <v>621888889</v>
+        <v>844285714</v>
       </c>
       <c r="AZ88" s="11">
-        <v>844285714</v>
+        <v>750812500</v>
       </c>
       <c r="BA88" s="11">
-        <v>750812500</v>
+        <v>735125000</v>
       </c>
       <c r="BB88" s="11">
-        <v>735125000</v>
+        <v>722894737</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -11515,35 +11515,35 @@
       <c r="AR90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT90" s="11">
+      <c r="AS90" s="11">
         <v>658750000</v>
       </c>
+      <c r="AT90" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW90" s="11">
+      <c r="AV90" s="11">
         <v>690583333</v>
       </c>
+      <c r="AW90" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AX90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ90" s="11">
+      <c r="AY90" s="11">
         <v>800892857</v>
       </c>
-      <c r="BA90" s="11" t="s">
-        <v>58</v>
+      <c r="AZ90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA90" s="11">
+        <v>781000000</v>
       </c>
       <c r="BB90" s="11">
-        <v>781000000</v>
+        <v>1074243243</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -11674,35 +11674,35 @@
       <c r="AR91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT91" s="13">
+      <c r="AS91" s="13">
         <v>644254545</v>
       </c>
+      <c r="AT91" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW91" s="13">
+      <c r="AV91" s="13">
         <v>692300000</v>
       </c>
-      <c r="AX91" s="13" t="s">
-        <v>58</v>
+      <c r="AW91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX91" s="13">
+        <v>771923077</v>
       </c>
       <c r="AY91" s="13">
-        <v>771923077</v>
-      </c>
-      <c r="AZ91" s="13">
         <v>799250000</v>
       </c>
-      <c r="BA91" s="13" t="s">
-        <v>58</v>
+      <c r="AZ91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA91" s="13">
+        <v>797173913</v>
       </c>
       <c r="BB91" s="13">
-        <v>797173913</v>
+        <v>794166667</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -11833,8 +11833,8 @@
       <c r="Y93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z93" s="11" t="s">
-        <v>58</v>
+      <c r="Z93" s="11">
+        <v>0</v>
       </c>
       <c r="AA93" s="11">
         <v>0</v>
@@ -11857,8 +11857,8 @@
       <c r="AG93" s="11">
         <v>0</v>
       </c>
-      <c r="AH93" s="11">
-        <v>0</v>
+      <c r="AH93" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI93" s="11" t="s">
         <v>58</v>

--- a/database/industries/lastic/petayer/product/monthly_seprated.xlsx
+++ b/database/industries/lastic/petayer/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\petayer\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\petayer\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AC77BD-9B21-40B5-B792-634DB1AE6FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4D559C-2E68-4526-A545-99BB109A68A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="89">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پتایر-ایران‌ تایر</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -763,12 +763,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -823,7 +823,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -992,7 +992,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1161,7 +1161,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1373,7 +1373,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1495,11 +1495,11 @@
       <c r="W11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="X11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>0</v>
       </c>
       <c r="Z11" s="11">
         <v>0</v>
@@ -1519,11 +1519,11 @@
       <c r="AE11" s="11">
         <v>0</v>
       </c>
-      <c r="AF11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>0</v>
+      <c r="AF11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH11" s="11" t="s">
         <v>58</v>
@@ -1589,7 +1589,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1651,104 +1651,104 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>938</v>
+      </c>
+      <c r="X12" s="13">
+        <v>922</v>
       </c>
       <c r="Y12" s="13">
-        <v>938</v>
+        <v>822</v>
       </c>
       <c r="Z12" s="13">
-        <v>922</v>
+        <v>809</v>
       </c>
       <c r="AA12" s="13">
-        <v>822</v>
+        <v>770</v>
       </c>
       <c r="AB12" s="13">
-        <v>809</v>
+        <v>744</v>
       </c>
       <c r="AC12" s="13">
-        <v>770</v>
+        <v>884</v>
       </c>
       <c r="AD12" s="13">
-        <v>744</v>
+        <v>861</v>
       </c>
       <c r="AE12" s="13">
-        <v>884</v>
+        <v>657</v>
       </c>
       <c r="AF12" s="13">
-        <v>861</v>
+        <v>636</v>
       </c>
       <c r="AG12" s="13">
-        <v>657</v>
+        <v>741</v>
       </c>
       <c r="AH12" s="13">
-        <v>636</v>
+        <v>757</v>
       </c>
       <c r="AI12" s="13">
-        <v>741</v>
+        <v>772</v>
       </c>
       <c r="AJ12" s="13">
-        <v>757</v>
+        <v>563</v>
       </c>
       <c r="AK12" s="13">
-        <v>772</v>
+        <v>723</v>
       </c>
       <c r="AL12" s="13">
-        <v>563</v>
+        <v>679</v>
       </c>
       <c r="AM12" s="13">
-        <v>723</v>
+        <v>760</v>
       </c>
       <c r="AN12" s="13">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO12" s="13">
         <v>760</v>
       </c>
       <c r="AP12" s="13">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AQ12" s="13">
-        <v>760</v>
+        <v>599</v>
       </c>
       <c r="AR12" s="13">
-        <v>675</v>
+        <v>615</v>
       </c>
       <c r="AS12" s="13">
-        <v>599</v>
+        <v>693</v>
       </c>
       <c r="AT12" s="13">
-        <v>615</v>
+        <v>712</v>
       </c>
       <c r="AU12" s="13">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="AV12" s="13">
-        <v>712</v>
+        <v>477</v>
       </c>
       <c r="AW12" s="13">
-        <v>673</v>
+        <v>297</v>
       </c>
       <c r="AX12" s="13">
-        <v>477</v>
+        <v>654</v>
       </c>
       <c r="AY12" s="13">
-        <v>297</v>
+        <v>717</v>
       </c>
       <c r="AZ12" s="13">
-        <v>654</v>
+        <v>730</v>
       </c>
       <c r="BA12" s="13">
-        <v>717</v>
+        <v>687</v>
       </c>
       <c r="BB12" s="13">
-        <v>730</v>
+        <v>627</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1810,104 +1810,104 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>1479</v>
+      </c>
+      <c r="X13" s="11">
+        <v>1431</v>
       </c>
       <c r="Y13" s="11">
-        <v>1479</v>
+        <v>1432</v>
       </c>
       <c r="Z13" s="11">
-        <v>1431</v>
+        <v>1532</v>
       </c>
       <c r="AA13" s="11">
-        <v>1432</v>
+        <v>1494</v>
       </c>
       <c r="AB13" s="11">
-        <v>1532</v>
+        <v>1517</v>
       </c>
       <c r="AC13" s="11">
-        <v>1494</v>
+        <v>1506</v>
       </c>
       <c r="AD13" s="11">
-        <v>1517</v>
+        <v>1540</v>
       </c>
       <c r="AE13" s="11">
-        <v>1506</v>
+        <v>1435</v>
       </c>
       <c r="AF13" s="11">
-        <v>1540</v>
+        <v>1274</v>
       </c>
       <c r="AG13" s="11">
-        <v>1435</v>
+        <v>1502</v>
       </c>
       <c r="AH13" s="11">
-        <v>1274</v>
+        <v>1499</v>
       </c>
       <c r="AI13" s="11">
-        <v>1502</v>
+        <v>1472</v>
       </c>
       <c r="AJ13" s="11">
-        <v>1499</v>
+        <v>1056</v>
       </c>
       <c r="AK13" s="11">
-        <v>1472</v>
+        <v>1575</v>
       </c>
       <c r="AL13" s="11">
-        <v>1056</v>
+        <v>1480</v>
       </c>
       <c r="AM13" s="11">
-        <v>1575</v>
+        <v>1637</v>
       </c>
       <c r="AN13" s="11">
-        <v>1480</v>
+        <v>1641</v>
       </c>
       <c r="AO13" s="11">
         <v>1637</v>
       </c>
       <c r="AP13" s="11">
-        <v>1641</v>
+        <v>1544</v>
       </c>
       <c r="AQ13" s="11">
-        <v>1637</v>
+        <v>1458</v>
       </c>
       <c r="AR13" s="11">
-        <v>1544</v>
+        <v>1371</v>
       </c>
       <c r="AS13" s="11">
-        <v>1458</v>
+        <v>1592</v>
       </c>
       <c r="AT13" s="11">
-        <v>1371</v>
+        <v>1732</v>
       </c>
       <c r="AU13" s="11">
-        <v>1592</v>
+        <v>1699</v>
       </c>
       <c r="AV13" s="11">
-        <v>1732</v>
+        <v>1541</v>
       </c>
       <c r="AW13" s="11">
-        <v>1699</v>
+        <v>1749</v>
       </c>
       <c r="AX13" s="11">
-        <v>1541</v>
+        <v>1621</v>
       </c>
       <c r="AY13" s="11">
-        <v>1749</v>
+        <v>1659</v>
       </c>
       <c r="AZ13" s="11">
-        <v>1621</v>
+        <v>1734</v>
       </c>
       <c r="BA13" s="11">
-        <v>1659</v>
+        <v>1590</v>
       </c>
       <c r="BB13" s="11">
-        <v>1734</v>
+        <v>1666</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1969,104 +1969,104 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>19</v>
+      </c>
+      <c r="X14" s="13">
+        <v>20</v>
       </c>
       <c r="Y14" s="13">
+        <v>17</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>16</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>15</v>
+      </c>
+      <c r="AC14" s="13">
         <v>19</v>
       </c>
-      <c r="Z14" s="13">
-        <v>20</v>
-      </c>
-      <c r="AA14" s="13">
-        <v>17</v>
-      </c>
-      <c r="AB14" s="13">
+      <c r="AD14" s="13">
+        <v>18</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>18</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>15</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>14</v>
+      </c>
+      <c r="AH14" s="13">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>12</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>12</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>8</v>
+      </c>
+      <c r="AL14" s="13">
         <v>16</v>
       </c>
-      <c r="AC14" s="13">
-        <v>9</v>
-      </c>
-      <c r="AD14" s="13">
-        <v>15</v>
-      </c>
-      <c r="AE14" s="13">
-        <v>19</v>
-      </c>
-      <c r="AF14" s="13">
-        <v>18</v>
-      </c>
-      <c r="AG14" s="13">
-        <v>18</v>
-      </c>
-      <c r="AH14" s="13">
-        <v>15</v>
-      </c>
-      <c r="AI14" s="13">
+      <c r="AM14" s="13">
+        <v>12</v>
+      </c>
+      <c r="AN14" s="13">
         <v>14</v>
-      </c>
-      <c r="AJ14" s="13">
-        <v>5</v>
-      </c>
-      <c r="AK14" s="13">
-        <v>12</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>12</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>8</v>
-      </c>
-      <c r="AN14" s="13">
-        <v>16</v>
       </c>
       <c r="AO14" s="13">
         <v>12</v>
       </c>
       <c r="AP14" s="13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ14" s="13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AR14" s="13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AS14" s="13">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AT14" s="13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AU14" s="13">
         <v>11</v>
       </c>
       <c r="AV14" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW14" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX14" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY14" s="13">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ14" s="13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA14" s="13">
         <v>19</v>
       </c>
       <c r="BB14" s="13">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>62</v>
       </c>
@@ -2127,103 +2127,103 @@
         <v>0</v>
       </c>
       <c r="W15" s="15">
-        <v>0</v>
+        <v>2436</v>
       </c>
       <c r="X15" s="15">
-        <v>0</v>
+        <v>2373</v>
       </c>
       <c r="Y15" s="15">
-        <v>2436</v>
+        <v>2271</v>
       </c>
       <c r="Z15" s="15">
-        <v>2373</v>
+        <v>2357</v>
       </c>
       <c r="AA15" s="15">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="AB15" s="15">
-        <v>2357</v>
+        <v>2276</v>
       </c>
       <c r="AC15" s="15">
-        <v>2273</v>
+        <v>2409</v>
       </c>
       <c r="AD15" s="15">
-        <v>2276</v>
+        <v>2419</v>
       </c>
       <c r="AE15" s="15">
+        <v>2110</v>
+      </c>
+      <c r="AF15" s="15">
+        <v>1925</v>
+      </c>
+      <c r="AG15" s="15">
+        <v>2257</v>
+      </c>
+      <c r="AH15" s="15">
+        <v>2261</v>
+      </c>
+      <c r="AI15" s="15">
+        <v>2256</v>
+      </c>
+      <c r="AJ15" s="15">
+        <v>1631</v>
+      </c>
+      <c r="AK15" s="15">
+        <v>2306</v>
+      </c>
+      <c r="AL15" s="15">
+        <v>2175</v>
+      </c>
+      <c r="AM15" s="15">
         <v>2409</v>
       </c>
-      <c r="AF15" s="15">
-        <v>2419</v>
-      </c>
-      <c r="AG15" s="15">
-        <v>2110</v>
-      </c>
-      <c r="AH15" s="15">
-        <v>1925</v>
-      </c>
-      <c r="AI15" s="15">
-        <v>2257</v>
-      </c>
-      <c r="AJ15" s="15">
-        <v>2261</v>
-      </c>
-      <c r="AK15" s="15">
-        <v>2256</v>
-      </c>
-      <c r="AL15" s="15">
-        <v>1631</v>
-      </c>
-      <c r="AM15" s="15">
-        <v>2306</v>
-      </c>
       <c r="AN15" s="15">
-        <v>2175</v>
+        <v>2333</v>
       </c>
       <c r="AO15" s="15">
         <v>2409</v>
       </c>
       <c r="AP15" s="15">
-        <v>2333</v>
+        <v>2231</v>
       </c>
       <c r="AQ15" s="15">
-        <v>2409</v>
+        <v>2072</v>
       </c>
       <c r="AR15" s="15">
-        <v>2231</v>
+        <v>1994</v>
       </c>
       <c r="AS15" s="15">
-        <v>2072</v>
+        <v>2296</v>
       </c>
       <c r="AT15" s="15">
-        <v>1994</v>
+        <v>2455</v>
       </c>
       <c r="AU15" s="15">
+        <v>2383</v>
+      </c>
+      <c r="AV15" s="15">
+        <v>2031</v>
+      </c>
+      <c r="AW15" s="15">
+        <v>2059</v>
+      </c>
+      <c r="AX15" s="15">
+        <v>2289</v>
+      </c>
+      <c r="AY15" s="15">
+        <v>2395</v>
+      </c>
+      <c r="AZ15" s="15">
+        <v>2476</v>
+      </c>
+      <c r="BA15" s="15">
         <v>2296</v>
       </c>
-      <c r="AV15" s="15">
-        <v>2455</v>
-      </c>
-      <c r="AW15" s="15">
-        <v>2383</v>
-      </c>
-      <c r="AX15" s="15">
-        <v>2031</v>
-      </c>
-      <c r="AY15" s="15">
-        <v>2059</v>
-      </c>
-      <c r="AZ15" s="15">
-        <v>2289</v>
-      </c>
-      <c r="BA15" s="15">
-        <v>2395</v>
-      </c>
       <c r="BB15" s="15">
-        <v>2476</v>
+        <v>2312</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>63</v>
       </c>
@@ -2280,7 +2280,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="9"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2426,11 +2426,11 @@
       <c r="AX17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ17" s="11" t="s">
-        <v>58</v>
+      <c r="AY17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="11">
+        <v>0</v>
       </c>
       <c r="BA17" s="11">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>56</v>
       </c>
@@ -2504,11 +2504,11 @@
       <c r="W18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y18" s="13" t="s">
-        <v>58</v>
+      <c r="X18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>0</v>
       </c>
       <c r="Z18" s="13">
         <v>0</v>
@@ -2528,11 +2528,11 @@
       <c r="AE18" s="13">
         <v>0</v>
       </c>
-      <c r="AF18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="13">
-        <v>0</v>
+      <c r="AF18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH18" s="13" t="s">
         <v>58</v>
@@ -2598,7 +2598,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>59</v>
       </c>
@@ -2720,20 +2720,20 @@
       <c r="AP19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ19" s="11" t="s">
-        <v>58</v>
+      <c r="AQ19" s="11">
+        <v>68</v>
       </c>
       <c r="AR19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS19" s="11">
-        <v>68</v>
-      </c>
-      <c r="AT19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU19" s="11" t="s">
-        <v>58</v>
+      <c r="AS19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="11">
+        <v>0</v>
       </c>
       <c r="AV19" s="11">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>60</v>
       </c>
@@ -2879,20 +2879,20 @@
       <c r="AP20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ20" s="13" t="s">
-        <v>58</v>
+      <c r="AQ20" s="13">
+        <v>55</v>
       </c>
       <c r="AR20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS20" s="13">
-        <v>55</v>
-      </c>
-      <c r="AT20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU20" s="13" t="s">
-        <v>58</v>
+      <c r="AS20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="13">
+        <v>0</v>
       </c>
       <c r="AV20" s="13">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>65</v>
       </c>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="15">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="AR21" s="15">
         <v>0</v>
       </c>
       <c r="AS21" s="15">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="15">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>66</v>
       </c>
@@ -3130,7 +3130,7 @@
       <c r="BA22" s="9"/>
       <c r="BB22" s="9"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>56</v>
       </c>
@@ -3195,11 +3195,11 @@
       <c r="W23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y23" s="11" t="s">
-        <v>58</v>
+      <c r="X23" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="11">
+        <v>0</v>
       </c>
       <c r="Z23" s="11">
         <v>0</v>
@@ -3219,11 +3219,11 @@
       <c r="AE23" s="11">
         <v>0</v>
       </c>
-      <c r="AF23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="11">
-        <v>0</v>
+      <c r="AF23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH23" s="11" t="s">
         <v>58</v>
@@ -3289,7 +3289,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>67</v>
       </c>
@@ -3349,11 +3349,11 @@
       <c r="V24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W24" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X24" s="17" t="s">
-        <v>58</v>
+      <c r="W24" s="17">
+        <v>0</v>
+      </c>
+      <c r="X24" s="17">
+        <v>0</v>
       </c>
       <c r="Y24" s="17">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>68</v>
       </c>
@@ -3507,103 +3507,103 @@
         <v>0</v>
       </c>
       <c r="W25" s="15">
-        <v>0</v>
+        <v>2436</v>
       </c>
       <c r="X25" s="15">
-        <v>0</v>
+        <v>2373</v>
       </c>
       <c r="Y25" s="15">
-        <v>2436</v>
+        <v>2271</v>
       </c>
       <c r="Z25" s="15">
-        <v>2373</v>
+        <v>2357</v>
       </c>
       <c r="AA25" s="15">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="AB25" s="15">
-        <v>2357</v>
+        <v>2276</v>
       </c>
       <c r="AC25" s="15">
-        <v>2273</v>
+        <v>2409</v>
       </c>
       <c r="AD25" s="15">
-        <v>2276</v>
+        <v>2419</v>
       </c>
       <c r="AE25" s="15">
+        <v>2110</v>
+      </c>
+      <c r="AF25" s="15">
+        <v>1925</v>
+      </c>
+      <c r="AG25" s="15">
+        <v>2257</v>
+      </c>
+      <c r="AH25" s="15">
+        <v>2261</v>
+      </c>
+      <c r="AI25" s="15">
+        <v>2256</v>
+      </c>
+      <c r="AJ25" s="15">
+        <v>1631</v>
+      </c>
+      <c r="AK25" s="15">
+        <v>2306</v>
+      </c>
+      <c r="AL25" s="15">
+        <v>2175</v>
+      </c>
+      <c r="AM25" s="15">
         <v>2409</v>
       </c>
-      <c r="AF25" s="15">
-        <v>2419</v>
-      </c>
-      <c r="AG25" s="15">
-        <v>2110</v>
-      </c>
-      <c r="AH25" s="15">
-        <v>1925</v>
-      </c>
-      <c r="AI25" s="15">
-        <v>2257</v>
-      </c>
-      <c r="AJ25" s="15">
-        <v>2261</v>
-      </c>
-      <c r="AK25" s="15">
-        <v>2256</v>
-      </c>
-      <c r="AL25" s="15">
-        <v>1631</v>
-      </c>
-      <c r="AM25" s="15">
-        <v>2306</v>
-      </c>
       <c r="AN25" s="15">
-        <v>2175</v>
+        <v>2333</v>
       </c>
       <c r="AO25" s="15">
         <v>2409</v>
       </c>
       <c r="AP25" s="15">
-        <v>2333</v>
+        <v>2231</v>
       </c>
       <c r="AQ25" s="15">
-        <v>2409</v>
+        <v>2195</v>
       </c>
       <c r="AR25" s="15">
-        <v>2231</v>
+        <v>1994</v>
       </c>
       <c r="AS25" s="15">
-        <v>2195</v>
+        <v>2296</v>
       </c>
       <c r="AT25" s="15">
-        <v>1994</v>
+        <v>2455</v>
       </c>
       <c r="AU25" s="15">
+        <v>2383</v>
+      </c>
+      <c r="AV25" s="15">
+        <v>2031</v>
+      </c>
+      <c r="AW25" s="15">
+        <v>2059</v>
+      </c>
+      <c r="AX25" s="15">
+        <v>2289</v>
+      </c>
+      <c r="AY25" s="15">
+        <v>2395</v>
+      </c>
+      <c r="AZ25" s="15">
+        <v>2476</v>
+      </c>
+      <c r="BA25" s="15">
         <v>2296</v>
       </c>
-      <c r="AV25" s="15">
-        <v>2455</v>
-      </c>
-      <c r="AW25" s="15">
-        <v>2383</v>
-      </c>
-      <c r="AX25" s="15">
-        <v>2031</v>
-      </c>
-      <c r="AY25" s="15">
-        <v>2059</v>
-      </c>
-      <c r="AZ25" s="15">
-        <v>2289</v>
-      </c>
-      <c r="BA25" s="15">
-        <v>2395</v>
-      </c>
       <c r="BB25" s="15">
-        <v>2476</v>
+        <v>2312</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3658,7 +3658,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3713,7 +3713,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3768,7 +3768,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>69</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3980,7 +3980,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>70</v>
       </c>
@@ -4037,7 +4037,7 @@
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>56</v>
       </c>
@@ -4102,11 +4102,11 @@
       <c r="W32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y32" s="11" t="s">
-        <v>58</v>
+      <c r="X32" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="11">
+        <v>0</v>
       </c>
       <c r="Z32" s="11">
         <v>0</v>
@@ -4126,11 +4126,11 @@
       <c r="AE32" s="11">
         <v>0</v>
       </c>
-      <c r="AF32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="11">
-        <v>0</v>
+      <c r="AF32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG32" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH32" s="11" t="s">
         <v>58</v>
@@ -4196,7 +4196,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>59</v>
       </c>
@@ -4258,104 +4258,104 @@
       <c r="V33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="13" t="s">
-        <v>58</v>
+      <c r="W33" s="13">
+        <v>856</v>
+      </c>
+      <c r="X33" s="13">
+        <v>909</v>
       </c>
       <c r="Y33" s="13">
-        <v>856</v>
+        <v>1061</v>
       </c>
       <c r="Z33" s="13">
-        <v>909</v>
+        <v>997</v>
       </c>
       <c r="AA33" s="13">
-        <v>1061</v>
+        <v>703</v>
       </c>
       <c r="AB33" s="13">
-        <v>997</v>
+        <v>456</v>
       </c>
       <c r="AC33" s="13">
-        <v>703</v>
+        <v>1120</v>
       </c>
       <c r="AD33" s="13">
-        <v>456</v>
+        <v>753</v>
       </c>
       <c r="AE33" s="13">
-        <v>1120</v>
+        <v>796</v>
       </c>
       <c r="AF33" s="13">
-        <v>753</v>
+        <v>515</v>
       </c>
       <c r="AG33" s="13">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="AH33" s="13">
-        <v>515</v>
+        <v>589</v>
       </c>
       <c r="AI33" s="13">
-        <v>812</v>
+        <v>595</v>
       </c>
       <c r="AJ33" s="13">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="AK33" s="13">
-        <v>595</v>
+        <v>900</v>
       </c>
       <c r="AL33" s="13">
-        <v>578</v>
+        <v>707</v>
       </c>
       <c r="AM33" s="13">
-        <v>900</v>
+        <v>530</v>
       </c>
       <c r="AN33" s="13">
-        <v>707</v>
+        <v>839</v>
       </c>
       <c r="AO33" s="13">
-        <v>530</v>
+        <v>682</v>
       </c>
       <c r="AP33" s="13">
-        <v>839</v>
+        <v>547</v>
       </c>
       <c r="AQ33" s="13">
-        <v>682</v>
+        <v>582</v>
       </c>
       <c r="AR33" s="13">
-        <v>547</v>
+        <v>400</v>
       </c>
       <c r="AS33" s="13">
-        <v>582</v>
+        <v>528</v>
       </c>
       <c r="AT33" s="13">
-        <v>400</v>
+        <v>841</v>
       </c>
       <c r="AU33" s="13">
-        <v>528</v>
+        <v>835</v>
       </c>
       <c r="AV33" s="13">
-        <v>841</v>
+        <v>614</v>
       </c>
       <c r="AW33" s="13">
-        <v>835</v>
+        <v>554</v>
       </c>
       <c r="AX33" s="13">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="AY33" s="13">
-        <v>554</v>
+        <v>795</v>
       </c>
       <c r="AZ33" s="13">
-        <v>588</v>
+        <v>788</v>
       </c>
       <c r="BA33" s="13">
-        <v>795</v>
+        <v>679</v>
       </c>
       <c r="BB33" s="13">
-        <v>788</v>
+        <v>635</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>60</v>
       </c>
@@ -4417,104 +4417,104 @@
       <c r="V34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X34" s="11" t="s">
-        <v>58</v>
+      <c r="W34" s="11">
+        <v>1512</v>
+      </c>
+      <c r="X34" s="11">
+        <v>1453</v>
       </c>
       <c r="Y34" s="11">
-        <v>1512</v>
+        <v>1422</v>
       </c>
       <c r="Z34" s="11">
-        <v>1453</v>
+        <v>1530</v>
       </c>
       <c r="AA34" s="11">
-        <v>1422</v>
+        <v>1150</v>
       </c>
       <c r="AB34" s="11">
+        <v>1835</v>
+      </c>
+      <c r="AC34" s="11">
+        <v>1480</v>
+      </c>
+      <c r="AD34" s="11">
+        <v>1519</v>
+      </c>
+      <c r="AE34" s="11">
+        <v>1521</v>
+      </c>
+      <c r="AF34" s="11">
+        <v>1230</v>
+      </c>
+      <c r="AG34" s="11">
+        <v>1407</v>
+      </c>
+      <c r="AH34" s="11">
+        <v>1508</v>
+      </c>
+      <c r="AI34" s="11">
+        <v>1267</v>
+      </c>
+      <c r="AJ34" s="11">
+        <v>1238</v>
+      </c>
+      <c r="AK34" s="11">
+        <v>1619</v>
+      </c>
+      <c r="AL34" s="11">
+        <v>1514</v>
+      </c>
+      <c r="AM34" s="11">
+        <v>1299</v>
+      </c>
+      <c r="AN34" s="11">
+        <v>1872</v>
+      </c>
+      <c r="AO34" s="11">
+        <v>1528</v>
+      </c>
+      <c r="AP34" s="11">
+        <v>1494</v>
+      </c>
+      <c r="AQ34" s="11">
+        <v>1622</v>
+      </c>
+      <c r="AR34" s="11">
+        <v>1460</v>
+      </c>
+      <c r="AS34" s="11">
+        <v>1675</v>
+      </c>
+      <c r="AT34" s="11">
+        <v>1570</v>
+      </c>
+      <c r="AU34" s="11">
+        <v>1589</v>
+      </c>
+      <c r="AV34" s="11">
+        <v>1509</v>
+      </c>
+      <c r="AW34" s="11">
+        <v>1666</v>
+      </c>
+      <c r="AX34" s="11">
+        <v>1700</v>
+      </c>
+      <c r="AY34" s="11">
         <v>1530</v>
       </c>
-      <c r="AC34" s="11">
-        <v>1150</v>
-      </c>
-      <c r="AD34" s="11">
-        <v>1835</v>
-      </c>
-      <c r="AE34" s="11">
-        <v>1480</v>
-      </c>
-      <c r="AF34" s="11">
-        <v>1519</v>
-      </c>
-      <c r="AG34" s="11">
-        <v>1521</v>
-      </c>
-      <c r="AH34" s="11">
-        <v>1230</v>
-      </c>
-      <c r="AI34" s="11">
-        <v>1407</v>
-      </c>
-      <c r="AJ34" s="11">
-        <v>1508</v>
-      </c>
-      <c r="AK34" s="11">
-        <v>1267</v>
-      </c>
-      <c r="AL34" s="11">
-        <v>1238</v>
-      </c>
-      <c r="AM34" s="11">
-        <v>1619</v>
-      </c>
-      <c r="AN34" s="11">
-        <v>1514</v>
-      </c>
-      <c r="AO34" s="11">
-        <v>1299</v>
-      </c>
-      <c r="AP34" s="11">
-        <v>1872</v>
-      </c>
-      <c r="AQ34" s="11">
-        <v>1528</v>
-      </c>
-      <c r="AR34" s="11">
-        <v>1494</v>
-      </c>
-      <c r="AS34" s="11">
-        <v>1622</v>
-      </c>
-      <c r="AT34" s="11">
-        <v>1460</v>
-      </c>
-      <c r="AU34" s="11">
-        <v>1675</v>
-      </c>
-      <c r="AV34" s="11">
-        <v>1570</v>
-      </c>
-      <c r="AW34" s="11">
-        <v>1589</v>
-      </c>
-      <c r="AX34" s="11">
-        <v>1509</v>
-      </c>
-      <c r="AY34" s="11">
-        <v>1666</v>
-      </c>
       <c r="AZ34" s="11">
-        <v>1700</v>
+        <v>1801</v>
       </c>
       <c r="BA34" s="11">
-        <v>1530</v>
+        <v>1704</v>
       </c>
       <c r="BB34" s="11">
-        <v>1801</v>
+        <v>1668</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>61</v>
       </c>
@@ -4576,104 +4576,104 @@
       <c r="V35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X35" s="13" t="s">
-        <v>58</v>
+      <c r="W35" s="13">
+        <v>15</v>
+      </c>
+      <c r="X35" s="13">
+        <v>19</v>
       </c>
       <c r="Y35" s="13">
+        <v>18</v>
+      </c>
+      <c r="Z35" s="13">
+        <v>16</v>
+      </c>
+      <c r="AA35" s="13">
+        <v>12</v>
+      </c>
+      <c r="AB35" s="13">
+        <v>14</v>
+      </c>
+      <c r="AC35" s="13">
+        <v>13</v>
+      </c>
+      <c r="AD35" s="13">
+        <v>19</v>
+      </c>
+      <c r="AE35" s="13">
+        <v>14</v>
+      </c>
+      <c r="AF35" s="13">
+        <v>11</v>
+      </c>
+      <c r="AG35" s="13">
+        <v>19</v>
+      </c>
+      <c r="AH35" s="13">
         <v>15</v>
       </c>
-      <c r="Z35" s="13">
+      <c r="AI35" s="13">
+        <v>10</v>
+      </c>
+      <c r="AJ35" s="13">
+        <v>11</v>
+      </c>
+      <c r="AK35" s="13">
+        <v>11</v>
+      </c>
+      <c r="AL35" s="13">
+        <v>16</v>
+      </c>
+      <c r="AM35" s="13">
+        <v>12</v>
+      </c>
+      <c r="AN35" s="13">
+        <v>13</v>
+      </c>
+      <c r="AO35" s="13">
+        <v>8</v>
+      </c>
+      <c r="AP35" s="13">
+        <v>8</v>
+      </c>
+      <c r="AQ35" s="13">
+        <v>13</v>
+      </c>
+      <c r="AR35" s="13">
+        <v>12</v>
+      </c>
+      <c r="AS35" s="13">
+        <v>11</v>
+      </c>
+      <c r="AT35" s="13">
+        <v>10</v>
+      </c>
+      <c r="AU35" s="13">
+        <v>9</v>
+      </c>
+      <c r="AV35" s="13">
+        <v>9</v>
+      </c>
+      <c r="AW35" s="13">
+        <v>7</v>
+      </c>
+      <c r="AX35" s="13">
+        <v>16</v>
+      </c>
+      <c r="AY35" s="13">
+        <v>24</v>
+      </c>
+      <c r="AZ35" s="13">
         <v>19</v>
       </c>
-      <c r="AA35" s="13">
-        <v>18</v>
-      </c>
-      <c r="AB35" s="13">
-        <v>16</v>
-      </c>
-      <c r="AC35" s="13">
-        <v>12</v>
-      </c>
-      <c r="AD35" s="13">
-        <v>14</v>
-      </c>
-      <c r="AE35" s="13">
-        <v>13</v>
-      </c>
-      <c r="AF35" s="13">
-        <v>19</v>
-      </c>
-      <c r="AG35" s="13">
-        <v>14</v>
-      </c>
-      <c r="AH35" s="13">
-        <v>11</v>
-      </c>
-      <c r="AI35" s="13">
-        <v>19</v>
-      </c>
-      <c r="AJ35" s="13">
-        <v>15</v>
-      </c>
-      <c r="AK35" s="13">
-        <v>10</v>
-      </c>
-      <c r="AL35" s="13">
-        <v>11</v>
-      </c>
-      <c r="AM35" s="13">
-        <v>11</v>
-      </c>
-      <c r="AN35" s="13">
-        <v>16</v>
-      </c>
-      <c r="AO35" s="13">
-        <v>12</v>
-      </c>
-      <c r="AP35" s="13">
-        <v>13</v>
-      </c>
-      <c r="AQ35" s="13">
-        <v>8</v>
-      </c>
-      <c r="AR35" s="13">
-        <v>8</v>
-      </c>
-      <c r="AS35" s="13">
-        <v>13</v>
-      </c>
-      <c r="AT35" s="13">
-        <v>12</v>
-      </c>
-      <c r="AU35" s="13">
-        <v>11</v>
-      </c>
-      <c r="AV35" s="13">
-        <v>10</v>
-      </c>
-      <c r="AW35" s="13">
-        <v>9</v>
-      </c>
-      <c r="AX35" s="13">
-        <v>9</v>
-      </c>
-      <c r="AY35" s="13">
-        <v>7</v>
-      </c>
-      <c r="AZ35" s="13">
-        <v>16</v>
-      </c>
       <c r="BA35" s="13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB35" s="13">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>71</v>
       </c>
@@ -4734,103 +4734,103 @@
         <v>0</v>
       </c>
       <c r="W36" s="15">
-        <v>0</v>
+        <v>2383</v>
       </c>
       <c r="X36" s="15">
-        <v>0</v>
+        <v>2381</v>
       </c>
       <c r="Y36" s="15">
-        <v>2383</v>
+        <v>2501</v>
       </c>
       <c r="Z36" s="15">
-        <v>2381</v>
+        <v>2543</v>
       </c>
       <c r="AA36" s="15">
-        <v>2501</v>
+        <v>1865</v>
       </c>
       <c r="AB36" s="15">
-        <v>2543</v>
+        <v>2305</v>
       </c>
       <c r="AC36" s="15">
-        <v>1865</v>
+        <v>2613</v>
       </c>
       <c r="AD36" s="15">
-        <v>2305</v>
+        <v>2291</v>
       </c>
       <c r="AE36" s="15">
-        <v>2613</v>
+        <v>2331</v>
       </c>
       <c r="AF36" s="15">
-        <v>2291</v>
+        <v>1756</v>
       </c>
       <c r="AG36" s="15">
-        <v>2331</v>
+        <v>2238</v>
       </c>
       <c r="AH36" s="15">
-        <v>1756</v>
+        <v>2112</v>
       </c>
       <c r="AI36" s="15">
-        <v>2238</v>
+        <v>1872</v>
       </c>
       <c r="AJ36" s="15">
-        <v>2112</v>
+        <v>1827</v>
       </c>
       <c r="AK36" s="15">
+        <v>2530</v>
+      </c>
+      <c r="AL36" s="15">
+        <v>2237</v>
+      </c>
+      <c r="AM36" s="15">
+        <v>1841</v>
+      </c>
+      <c r="AN36" s="15">
+        <v>2724</v>
+      </c>
+      <c r="AO36" s="15">
+        <v>2218</v>
+      </c>
+      <c r="AP36" s="15">
+        <v>2049</v>
+      </c>
+      <c r="AQ36" s="15">
+        <v>2217</v>
+      </c>
+      <c r="AR36" s="15">
         <v>1872</v>
       </c>
-      <c r="AL36" s="15">
-        <v>1827</v>
-      </c>
-      <c r="AM36" s="15">
-        <v>2530</v>
-      </c>
-      <c r="AN36" s="15">
-        <v>2237</v>
-      </c>
-      <c r="AO36" s="15">
-        <v>1841</v>
-      </c>
-      <c r="AP36" s="15">
-        <v>2724</v>
-      </c>
-      <c r="AQ36" s="15">
-        <v>2218</v>
-      </c>
-      <c r="AR36" s="15">
-        <v>2049</v>
-      </c>
       <c r="AS36" s="15">
-        <v>2217</v>
+        <v>2214</v>
       </c>
       <c r="AT36" s="15">
-        <v>1872</v>
+        <v>2421</v>
       </c>
       <c r="AU36" s="15">
-        <v>2214</v>
+        <v>2433</v>
       </c>
       <c r="AV36" s="15">
-        <v>2421</v>
+        <v>2132</v>
       </c>
       <c r="AW36" s="15">
-        <v>2433</v>
+        <v>2227</v>
       </c>
       <c r="AX36" s="15">
-        <v>2132</v>
+        <v>2304</v>
       </c>
       <c r="AY36" s="15">
-        <v>2227</v>
+        <v>2349</v>
       </c>
       <c r="AZ36" s="15">
-        <v>2304</v>
+        <v>2608</v>
       </c>
       <c r="BA36" s="15">
-        <v>2349</v>
+        <v>2405</v>
       </c>
       <c r="BB36" s="15">
-        <v>2608</v>
+        <v>2325</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>72</v>
       </c>
@@ -4887,7 +4887,7 @@
       <c r="BA37" s="9"/>
       <c r="BB37" s="9"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>64</v>
       </c>
@@ -5033,11 +5033,11 @@
       <c r="AX38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ38" s="11" t="s">
-        <v>58</v>
+      <c r="AY38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="11">
+        <v>0</v>
       </c>
       <c r="BA38" s="11">
         <v>0</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>56</v>
       </c>
@@ -5111,11 +5111,11 @@
       <c r="W39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y39" s="13" t="s">
-        <v>58</v>
+      <c r="X39" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="13">
+        <v>0</v>
       </c>
       <c r="Z39" s="13">
         <v>0</v>
@@ -5135,11 +5135,11 @@
       <c r="AE39" s="13">
         <v>0</v>
       </c>
-      <c r="AF39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="13">
-        <v>0</v>
+      <c r="AF39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG39" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH39" s="13" t="s">
         <v>58</v>
@@ -5205,7 +5205,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>59</v>
       </c>
@@ -5327,44 +5327,44 @@
       <c r="AP40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ40" s="11" t="s">
-        <v>58</v>
+      <c r="AQ40" s="11">
+        <v>68</v>
       </c>
       <c r="AR40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS40" s="11">
-        <v>68</v>
-      </c>
-      <c r="AT40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU40" s="11" t="s">
-        <v>58</v>
+      <c r="AS40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT40" s="11">
+        <v>24</v>
+      </c>
+      <c r="AU40" s="11">
+        <v>0</v>
       </c>
       <c r="AV40" s="11">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AW40" s="11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AX40" s="11">
         <v>0</v>
       </c>
       <c r="AY40" s="11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AZ40" s="11">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="BA40" s="11">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="11">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>60</v>
       </c>
@@ -5486,44 +5486,44 @@
       <c r="AP41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ41" s="13" t="s">
-        <v>58</v>
+      <c r="AQ41" s="13">
+        <v>55</v>
       </c>
       <c r="AR41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS41" s="13">
-        <v>55</v>
-      </c>
-      <c r="AT41" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU41" s="13" t="s">
-        <v>58</v>
+      <c r="AS41" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT41" s="13">
+        <v>50</v>
+      </c>
+      <c r="AU41" s="13">
+        <v>0</v>
       </c>
       <c r="AV41" s="13">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="AW41" s="13">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AX41" s="13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AY41" s="13">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="AZ41" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BA41" s="13">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="BB41" s="13">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>73</v>
       </c>
@@ -5644,43 +5644,43 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="15">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="AR42" s="15">
         <v>0</v>
       </c>
       <c r="AS42" s="15">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="15">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AU42" s="15">
         <v>0</v>
       </c>
       <c r="AV42" s="15">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="AW42" s="15">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="AX42" s="15">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AY42" s="15">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AZ42" s="15">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BA42" s="15">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="BB42" s="15">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>66</v>
       </c>
@@ -5737,7 +5737,7 @@
       <c r="BA43" s="9"/>
       <c r="BB43" s="9"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>56</v>
       </c>
@@ -5802,11 +5802,11 @@
       <c r="W44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y44" s="11" t="s">
-        <v>58</v>
+      <c r="X44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="11">
+        <v>0</v>
       </c>
       <c r="Z44" s="11">
         <v>0</v>
@@ -5826,11 +5826,11 @@
       <c r="AE44" s="11">
         <v>0</v>
       </c>
-      <c r="AF44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="11">
-        <v>0</v>
+      <c r="AF44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG44" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH44" s="11" t="s">
         <v>58</v>
@@ -5896,7 +5896,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>67</v>
       </c>
@@ -5956,11 +5956,11 @@
       <c r="V45" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="17" t="s">
-        <v>58</v>
+      <c r="W45" s="17">
+        <v>0</v>
+      </c>
+      <c r="X45" s="17">
+        <v>0</v>
       </c>
       <c r="Y45" s="17">
         <v>0</v>
@@ -6053,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>74</v>
       </c>
@@ -6110,7 +6110,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>56</v>
       </c>
@@ -6175,11 +6175,11 @@
       <c r="W47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y47" s="11" t="s">
-        <v>58</v>
+      <c r="X47" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="11">
+        <v>0</v>
       </c>
       <c r="Z47" s="11">
         <v>0</v>
@@ -6199,11 +6199,11 @@
       <c r="AE47" s="11">
         <v>0</v>
       </c>
-      <c r="AF47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="11">
-        <v>0</v>
+      <c r="AF47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH47" s="11" t="s">
         <v>58</v>
@@ -6269,7 +6269,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>59</v>
       </c>
@@ -6331,38 +6331,38 @@
       <c r="V48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X48" s="13" t="s">
-        <v>58</v>
+      <c r="W48" s="13">
+        <v>-5</v>
+      </c>
+      <c r="X48" s="13">
+        <v>0</v>
       </c>
       <c r="Y48" s="13">
+        <v>-1</v>
+      </c>
+      <c r="Z48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="13">
         <v>-5</v>
       </c>
-      <c r="Z48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="13">
+      <c r="AD48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="13">
         <v>-1</v>
       </c>
-      <c r="AB48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="13">
-        <v>-5</v>
-      </c>
-      <c r="AF48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="13">
-        <v>-1</v>
+      <c r="AF48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH48" s="13" t="s">
         <v>58</v>
@@ -6373,14 +6373,14 @@
       <c r="AJ48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK48" s="13" t="s">
-        <v>58</v>
+      <c r="AK48" s="13">
+        <v>-11</v>
       </c>
       <c r="AL48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM48" s="13">
-        <v>-11</v>
+      <c r="AM48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN48" s="13" t="s">
         <v>58</v>
@@ -6428,7 +6428,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>60</v>
       </c>
@@ -6496,11 +6496,11 @@
       <c r="X49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z49" s="11" t="s">
-        <v>58</v>
+      <c r="Y49" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="11">
+        <v>0</v>
       </c>
       <c r="AA49" s="11">
         <v>0</v>
@@ -6517,11 +6517,11 @@
       <c r="AE49" s="11">
         <v>0</v>
       </c>
-      <c r="AF49" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="11">
-        <v>0</v>
+      <c r="AF49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH49" s="11" t="s">
         <v>58</v>
@@ -6587,7 +6587,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
         <v>75</v>
       </c>
@@ -6647,38 +6647,38 @@
       <c r="V50" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W50" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X50" s="17" t="s">
-        <v>58</v>
+      <c r="W50" s="17">
+        <v>-5</v>
+      </c>
+      <c r="X50" s="17">
+        <v>0</v>
       </c>
       <c r="Y50" s="17">
+        <v>-1</v>
+      </c>
+      <c r="Z50" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="17">
         <v>-5</v>
       </c>
-      <c r="Z50" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="17">
+      <c r="AD50" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="17">
         <v>-1</v>
       </c>
-      <c r="AB50" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="17">
-        <v>-5</v>
-      </c>
       <c r="AF50" s="17">
         <v>0</v>
       </c>
       <c r="AG50" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH50" s="17">
         <v>0</v>
@@ -6690,13 +6690,13 @@
         <v>0</v>
       </c>
       <c r="AK50" s="17">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AL50" s="17">
         <v>0</v>
       </c>
       <c r="AM50" s="17">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AN50" s="17">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
         <v>68</v>
       </c>
@@ -6805,103 +6805,103 @@
         <v>0</v>
       </c>
       <c r="W51" s="15">
-        <v>0</v>
+        <v>2378</v>
       </c>
       <c r="X51" s="15">
-        <v>0</v>
+        <v>2381</v>
       </c>
       <c r="Y51" s="15">
-        <v>2378</v>
+        <v>2500</v>
       </c>
       <c r="Z51" s="15">
-        <v>2381</v>
+        <v>2543</v>
       </c>
       <c r="AA51" s="15">
-        <v>2500</v>
+        <v>1865</v>
       </c>
       <c r="AB51" s="15">
-        <v>2543</v>
+        <v>2305</v>
       </c>
       <c r="AC51" s="15">
-        <v>1865</v>
+        <v>2608</v>
       </c>
       <c r="AD51" s="15">
-        <v>2305</v>
+        <v>2291</v>
       </c>
       <c r="AE51" s="15">
-        <v>2608</v>
+        <v>2330</v>
       </c>
       <c r="AF51" s="15">
-        <v>2291</v>
+        <v>1756</v>
       </c>
       <c r="AG51" s="15">
-        <v>2330</v>
+        <v>2238</v>
       </c>
       <c r="AH51" s="15">
-        <v>1756</v>
+        <v>2112</v>
       </c>
       <c r="AI51" s="15">
-        <v>2238</v>
+        <v>1872</v>
       </c>
       <c r="AJ51" s="15">
-        <v>2112</v>
+        <v>1827</v>
       </c>
       <c r="AK51" s="15">
+        <v>2519</v>
+      </c>
+      <c r="AL51" s="15">
+        <v>2237</v>
+      </c>
+      <c r="AM51" s="15">
+        <v>1841</v>
+      </c>
+      <c r="AN51" s="15">
+        <v>2724</v>
+      </c>
+      <c r="AO51" s="15">
+        <v>2218</v>
+      </c>
+      <c r="AP51" s="15">
+        <v>2049</v>
+      </c>
+      <c r="AQ51" s="15">
+        <v>2340</v>
+      </c>
+      <c r="AR51" s="15">
         <v>1872</v>
       </c>
-      <c r="AL51" s="15">
-        <v>1827</v>
-      </c>
-      <c r="AM51" s="15">
-        <v>2519</v>
-      </c>
-      <c r="AN51" s="15">
-        <v>2237</v>
-      </c>
-      <c r="AO51" s="15">
-        <v>1841</v>
-      </c>
-      <c r="AP51" s="15">
-        <v>2724</v>
-      </c>
-      <c r="AQ51" s="15">
-        <v>2218</v>
-      </c>
-      <c r="AR51" s="15">
-        <v>2049</v>
-      </c>
       <c r="AS51" s="15">
-        <v>2340</v>
+        <v>2214</v>
       </c>
       <c r="AT51" s="15">
-        <v>1872</v>
+        <v>2495</v>
       </c>
       <c r="AU51" s="15">
-        <v>2214</v>
+        <v>2433</v>
       </c>
       <c r="AV51" s="15">
-        <v>2495</v>
+        <v>2145</v>
       </c>
       <c r="AW51" s="15">
-        <v>2433</v>
+        <v>2319</v>
       </c>
       <c r="AX51" s="15">
-        <v>2145</v>
+        <v>2304</v>
       </c>
       <c r="AY51" s="15">
-        <v>2319</v>
+        <v>2420</v>
       </c>
       <c r="AZ51" s="15">
-        <v>2304</v>
+        <v>2651</v>
       </c>
       <c r="BA51" s="15">
-        <v>2420</v>
+        <v>2405</v>
       </c>
       <c r="BB51" s="15">
-        <v>2651</v>
+        <v>2379</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6956,7 +6956,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -7011,7 +7011,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -7066,7 +7066,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>76</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -7278,7 +7278,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>77</v>
       </c>
@@ -7335,7 +7335,7 @@
       <c r="BA57" s="9"/>
       <c r="BB57" s="9"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>56</v>
       </c>
@@ -7400,11 +7400,11 @@
       <c r="W58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y58" s="11" t="s">
-        <v>58</v>
+      <c r="X58" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="11">
+        <v>0</v>
       </c>
       <c r="Z58" s="11">
         <v>0</v>
@@ -7424,11 +7424,11 @@
       <c r="AE58" s="11">
         <v>0</v>
       </c>
-      <c r="AF58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG58" s="11">
-        <v>0</v>
+      <c r="AF58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG58" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH58" s="11" t="s">
         <v>58</v>
@@ -7494,7 +7494,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>59</v>
       </c>
@@ -7556,104 +7556,104 @@
       <c r="V59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W59" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X59" s="13" t="s">
-        <v>58</v>
+      <c r="W59" s="13">
+        <v>287965</v>
+      </c>
+      <c r="X59" s="13">
+        <v>367574</v>
       </c>
       <c r="Y59" s="13">
-        <v>287965</v>
+        <v>475180</v>
       </c>
       <c r="Z59" s="13">
-        <v>367574</v>
+        <v>449601</v>
       </c>
       <c r="AA59" s="13">
-        <v>475180</v>
+        <v>312822</v>
       </c>
       <c r="AB59" s="13">
-        <v>449601</v>
+        <v>198715</v>
       </c>
       <c r="AC59" s="13">
-        <v>312822</v>
+        <v>674251</v>
       </c>
       <c r="AD59" s="13">
-        <v>198715</v>
+        <v>427528</v>
       </c>
       <c r="AE59" s="13">
-        <v>674251</v>
+        <v>451253</v>
       </c>
       <c r="AF59" s="13">
-        <v>427528</v>
+        <v>291506</v>
       </c>
       <c r="AG59" s="13">
-        <v>451253</v>
+        <v>455784</v>
       </c>
       <c r="AH59" s="13">
-        <v>291506</v>
+        <v>336254</v>
       </c>
       <c r="AI59" s="13">
-        <v>455784</v>
+        <v>339235</v>
       </c>
       <c r="AJ59" s="13">
-        <v>336254</v>
+        <v>330081</v>
       </c>
       <c r="AK59" s="13">
-        <v>339235</v>
+        <v>512373</v>
       </c>
       <c r="AL59" s="13">
-        <v>330081</v>
+        <v>401695</v>
       </c>
       <c r="AM59" s="13">
-        <v>512373</v>
+        <v>337451</v>
       </c>
       <c r="AN59" s="13">
-        <v>401695</v>
+        <v>553679</v>
       </c>
       <c r="AO59" s="13">
-        <v>337451</v>
+        <v>465731</v>
       </c>
       <c r="AP59" s="13">
-        <v>553679</v>
+        <v>373403</v>
       </c>
       <c r="AQ59" s="13">
-        <v>465731</v>
+        <v>392994</v>
       </c>
       <c r="AR59" s="13">
-        <v>373403</v>
+        <v>260081</v>
       </c>
       <c r="AS59" s="13">
-        <v>392994</v>
+        <v>351058</v>
       </c>
       <c r="AT59" s="13">
-        <v>260081</v>
+        <v>625947</v>
       </c>
       <c r="AU59" s="13">
-        <v>351058</v>
+        <v>618125</v>
       </c>
       <c r="AV59" s="13">
-        <v>625947</v>
+        <v>451057</v>
       </c>
       <c r="AW59" s="13">
-        <v>618125</v>
+        <v>451524</v>
       </c>
       <c r="AX59" s="13">
-        <v>451057</v>
+        <v>471217</v>
       </c>
       <c r="AY59" s="13">
-        <v>451524</v>
+        <v>651015</v>
       </c>
       <c r="AZ59" s="13">
-        <v>471217</v>
+        <v>665998</v>
       </c>
       <c r="BA59" s="13">
-        <v>651015</v>
+        <v>576648</v>
       </c>
       <c r="BB59" s="13">
-        <v>665998</v>
+        <v>556085</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>60</v>
       </c>
@@ -7715,104 +7715,104 @@
       <c r="V60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X60" s="11" t="s">
-        <v>58</v>
+      <c r="W60" s="11">
+        <v>445823</v>
+      </c>
+      <c r="X60" s="11">
+        <v>499079</v>
       </c>
       <c r="Y60" s="11">
-        <v>445823</v>
+        <v>521093</v>
       </c>
       <c r="Z60" s="11">
-        <v>499079</v>
+        <v>566884</v>
       </c>
       <c r="AA60" s="11">
-        <v>521093</v>
+        <v>427186</v>
       </c>
       <c r="AB60" s="11">
-        <v>566884</v>
+        <v>1043736</v>
       </c>
       <c r="AC60" s="11">
-        <v>427186</v>
+        <v>896744</v>
       </c>
       <c r="AD60" s="11">
-        <v>1043736</v>
+        <v>847281</v>
       </c>
       <c r="AE60" s="11">
-        <v>896744</v>
+        <v>838259</v>
       </c>
       <c r="AF60" s="11">
-        <v>847281</v>
+        <v>679098</v>
       </c>
       <c r="AG60" s="11">
-        <v>838259</v>
+        <v>782577</v>
       </c>
       <c r="AH60" s="11">
-        <v>679098</v>
+        <v>826557</v>
       </c>
       <c r="AI60" s="11">
-        <v>782577</v>
+        <v>692990</v>
       </c>
       <c r="AJ60" s="11">
-        <v>826557</v>
+        <v>679345</v>
       </c>
       <c r="AK60" s="11">
-        <v>692990</v>
+        <v>884001</v>
       </c>
       <c r="AL60" s="11">
-        <v>679345</v>
+        <v>826583</v>
       </c>
       <c r="AM60" s="11">
-        <v>884001</v>
+        <v>712590</v>
       </c>
       <c r="AN60" s="11">
-        <v>826583</v>
+        <v>1030769</v>
       </c>
       <c r="AO60" s="11">
-        <v>712590</v>
+        <v>851125</v>
       </c>
       <c r="AP60" s="11">
-        <v>1030769</v>
+        <v>824421</v>
       </c>
       <c r="AQ60" s="11">
-        <v>851125</v>
+        <v>896406</v>
       </c>
       <c r="AR60" s="11">
-        <v>824421</v>
+        <v>809499</v>
       </c>
       <c r="AS60" s="11">
-        <v>896406</v>
+        <v>931871</v>
       </c>
       <c r="AT60" s="11">
-        <v>809499</v>
+        <v>990253</v>
       </c>
       <c r="AU60" s="11">
-        <v>931871</v>
+        <v>1121762</v>
       </c>
       <c r="AV60" s="11">
-        <v>990253</v>
+        <v>1094689</v>
       </c>
       <c r="AW60" s="11">
-        <v>1121762</v>
+        <v>1212489</v>
       </c>
       <c r="AX60" s="11">
-        <v>1094689</v>
+        <v>1268138</v>
       </c>
       <c r="AY60" s="11">
-        <v>1212489</v>
+        <v>1154199</v>
       </c>
       <c r="AZ60" s="11">
-        <v>1268138</v>
+        <v>1355117</v>
       </c>
       <c r="BA60" s="11">
-        <v>1154199</v>
+        <v>1313129</v>
       </c>
       <c r="BB60" s="11">
-        <v>1355117</v>
+        <v>1286404</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>61</v>
       </c>
@@ -7874,104 +7874,104 @@
       <c r="V61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X61" s="13" t="s">
-        <v>58</v>
+      <c r="W61" s="13">
+        <v>4102</v>
+      </c>
+      <c r="X61" s="13">
+        <v>6168</v>
       </c>
       <c r="Y61" s="13">
-        <v>4102</v>
+        <v>6542</v>
       </c>
       <c r="Z61" s="13">
-        <v>6168</v>
+        <v>6184</v>
       </c>
       <c r="AA61" s="13">
-        <v>6542</v>
+        <v>4305</v>
       </c>
       <c r="AB61" s="13">
-        <v>6184</v>
+        <v>4870</v>
       </c>
       <c r="AC61" s="13">
-        <v>4305</v>
+        <v>5905</v>
       </c>
       <c r="AD61" s="13">
-        <v>4870</v>
+        <v>7361</v>
       </c>
       <c r="AE61" s="13">
-        <v>5905</v>
+        <v>5002</v>
       </c>
       <c r="AF61" s="13">
-        <v>7361</v>
+        <v>3731</v>
       </c>
       <c r="AG61" s="13">
-        <v>5002</v>
+        <v>6360</v>
       </c>
       <c r="AH61" s="13">
-        <v>3731</v>
+        <v>5181</v>
       </c>
       <c r="AI61" s="13">
-        <v>6360</v>
+        <v>3295</v>
       </c>
       <c r="AJ61" s="13">
-        <v>5181</v>
+        <v>3642</v>
       </c>
       <c r="AK61" s="13">
-        <v>3295</v>
+        <v>3514</v>
       </c>
       <c r="AL61" s="13">
-        <v>3642</v>
+        <v>5312</v>
       </c>
       <c r="AM61" s="13">
-        <v>3514</v>
+        <v>3940</v>
       </c>
       <c r="AN61" s="13">
-        <v>5312</v>
+        <v>4417</v>
       </c>
       <c r="AO61" s="13">
-        <v>3940</v>
+        <v>2799</v>
       </c>
       <c r="AP61" s="13">
-        <v>4417</v>
+        <v>2837</v>
       </c>
       <c r="AQ61" s="13">
-        <v>2799</v>
+        <v>4250</v>
       </c>
       <c r="AR61" s="13">
-        <v>2837</v>
+        <v>4902</v>
       </c>
       <c r="AS61" s="13">
-        <v>4250</v>
+        <v>6260</v>
       </c>
       <c r="AT61" s="13">
-        <v>4902</v>
+        <v>5436</v>
       </c>
       <c r="AU61" s="13">
-        <v>6260</v>
+        <v>5384</v>
       </c>
       <c r="AV61" s="13">
-        <v>5436</v>
+        <v>5597</v>
       </c>
       <c r="AW61" s="13">
-        <v>5384</v>
+        <v>5910</v>
       </c>
       <c r="AX61" s="13">
-        <v>5597</v>
+        <v>12013</v>
       </c>
       <c r="AY61" s="13">
-        <v>5910</v>
+        <v>17643</v>
       </c>
       <c r="AZ61" s="13">
-        <v>12013</v>
+        <v>13735</v>
       </c>
       <c r="BA61" s="13">
-        <v>17643</v>
+        <v>16375</v>
       </c>
       <c r="BB61" s="13">
-        <v>13735</v>
+        <v>15121</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
         <v>71</v>
       </c>
@@ -8032,103 +8032,103 @@
         <v>0</v>
       </c>
       <c r="W62" s="15">
-        <v>0</v>
+        <v>737890</v>
       </c>
       <c r="X62" s="15">
-        <v>0</v>
+        <v>872821</v>
       </c>
       <c r="Y62" s="15">
-        <v>737890</v>
+        <v>1002815</v>
       </c>
       <c r="Z62" s="15">
-        <v>872821</v>
+        <v>1022669</v>
       </c>
       <c r="AA62" s="15">
-        <v>1002815</v>
+        <v>744313</v>
       </c>
       <c r="AB62" s="15">
-        <v>1022669</v>
+        <v>1247321</v>
       </c>
       <c r="AC62" s="15">
-        <v>744313</v>
+        <v>1576900</v>
       </c>
       <c r="AD62" s="15">
-        <v>1247321</v>
+        <v>1282170</v>
       </c>
       <c r="AE62" s="15">
-        <v>1576900</v>
+        <v>1294514</v>
       </c>
       <c r="AF62" s="15">
-        <v>1282170</v>
+        <v>974335</v>
       </c>
       <c r="AG62" s="15">
-        <v>1294514</v>
+        <v>1244721</v>
       </c>
       <c r="AH62" s="15">
-        <v>974335</v>
+        <v>1167992</v>
       </c>
       <c r="AI62" s="15">
-        <v>1244721</v>
+        <v>1035520</v>
       </c>
       <c r="AJ62" s="15">
-        <v>1167992</v>
+        <v>1013068</v>
       </c>
       <c r="AK62" s="15">
-        <v>1035520</v>
+        <v>1399888</v>
       </c>
       <c r="AL62" s="15">
-        <v>1013068</v>
+        <v>1233590</v>
       </c>
       <c r="AM62" s="15">
-        <v>1399888</v>
+        <v>1053981</v>
       </c>
       <c r="AN62" s="15">
-        <v>1233590</v>
+        <v>1588865</v>
       </c>
       <c r="AO62" s="15">
-        <v>1053981</v>
+        <v>1319655</v>
       </c>
       <c r="AP62" s="15">
-        <v>1588865</v>
+        <v>1200661</v>
       </c>
       <c r="AQ62" s="15">
-        <v>1319655</v>
+        <v>1293650</v>
       </c>
       <c r="AR62" s="15">
-        <v>1200661</v>
+        <v>1074482</v>
       </c>
       <c r="AS62" s="15">
-        <v>1293650</v>
+        <v>1289189</v>
       </c>
       <c r="AT62" s="15">
-        <v>1074482</v>
+        <v>1621636</v>
       </c>
       <c r="AU62" s="15">
-        <v>1289189</v>
+        <v>1745271</v>
       </c>
       <c r="AV62" s="15">
-        <v>1621636</v>
+        <v>1551343</v>
       </c>
       <c r="AW62" s="15">
-        <v>1745271</v>
+        <v>1669923</v>
       </c>
       <c r="AX62" s="15">
-        <v>1551343</v>
+        <v>1751368</v>
       </c>
       <c r="AY62" s="15">
-        <v>1669923</v>
+        <v>1822857</v>
       </c>
       <c r="AZ62" s="15">
-        <v>1751368</v>
+        <v>2034850</v>
       </c>
       <c r="BA62" s="15">
-        <v>1822857</v>
+        <v>1906152</v>
       </c>
       <c r="BB62" s="15">
-        <v>2034850</v>
+        <v>1857610</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>79</v>
       </c>
@@ -8185,7 +8185,7 @@
       <c r="BA63" s="9"/>
       <c r="BB63" s="9"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>64</v>
       </c>
@@ -8331,11 +8331,11 @@
       <c r="AX64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ64" s="11" t="s">
-        <v>58</v>
+      <c r="AY64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ64" s="11">
+        <v>0</v>
       </c>
       <c r="BA64" s="11">
         <v>0</v>
@@ -8344,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>56</v>
       </c>
@@ -8409,11 +8409,11 @@
       <c r="W65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y65" s="13" t="s">
-        <v>58</v>
+      <c r="X65" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="13">
+        <v>0</v>
       </c>
       <c r="Z65" s="13">
         <v>0</v>
@@ -8433,11 +8433,11 @@
       <c r="AE65" s="13">
         <v>0</v>
       </c>
-      <c r="AF65" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="13">
-        <v>0</v>
+      <c r="AF65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH65" s="13" t="s">
         <v>58</v>
@@ -8503,7 +8503,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>59</v>
       </c>
@@ -8625,44 +8625,44 @@
       <c r="AP66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ66" s="11" t="s">
-        <v>58</v>
+      <c r="AQ66" s="11">
+        <v>44795</v>
       </c>
       <c r="AR66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS66" s="11">
-        <v>44795</v>
-      </c>
-      <c r="AT66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU66" s="11" t="s">
-        <v>58</v>
+      <c r="AS66" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT66" s="11">
+        <v>16574</v>
+      </c>
+      <c r="AU66" s="11">
+        <v>0</v>
       </c>
       <c r="AV66" s="11">
-        <v>16574</v>
+        <v>0</v>
       </c>
       <c r="AW66" s="11">
-        <v>0</v>
+        <v>22425</v>
       </c>
       <c r="AX66" s="11">
         <v>0</v>
       </c>
       <c r="AY66" s="11">
-        <v>22425</v>
+        <v>19525</v>
       </c>
       <c r="AZ66" s="11">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="BA66" s="11">
-        <v>19525</v>
+        <v>0</v>
       </c>
       <c r="BB66" s="11">
-        <v>39747</v>
+        <v>37121</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>60</v>
       </c>
@@ -8784,44 +8784,44 @@
       <c r="AP67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ67" s="13" t="s">
-        <v>58</v>
+      <c r="AQ67" s="13">
+        <v>35434</v>
       </c>
       <c r="AR67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS67" s="13">
-        <v>35434</v>
-      </c>
-      <c r="AT67" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU67" s="13" t="s">
-        <v>58</v>
+      <c r="AS67" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT67" s="13">
+        <v>34615</v>
+      </c>
+      <c r="AU67" s="13">
+        <v>0</v>
       </c>
       <c r="AV67" s="13">
-        <v>34615</v>
+        <v>10035</v>
       </c>
       <c r="AW67" s="13">
-        <v>0</v>
+        <v>51152</v>
       </c>
       <c r="AX67" s="13">
-        <v>10035</v>
+        <v>0</v>
       </c>
       <c r="AY67" s="13">
-        <v>51152</v>
+        <v>36670</v>
       </c>
       <c r="AZ67" s="13">
-        <v>0</v>
+        <v>4765</v>
       </c>
       <c r="BA67" s="13">
-        <v>36670</v>
+        <v>0</v>
       </c>
       <c r="BB67" s="13">
-        <v>4765</v>
+        <v>10273</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
         <v>73</v>
       </c>
@@ -8942,43 +8942,43 @@
         <v>0</v>
       </c>
       <c r="AQ68" s="15">
-        <v>0</v>
+        <v>80229</v>
       </c>
       <c r="AR68" s="15">
         <v>0</v>
       </c>
       <c r="AS68" s="15">
-        <v>80229</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="15">
-        <v>0</v>
+        <v>51189</v>
       </c>
       <c r="AU68" s="15">
         <v>0</v>
       </c>
       <c r="AV68" s="15">
-        <v>51189</v>
+        <v>10035</v>
       </c>
       <c r="AW68" s="15">
-        <v>0</v>
+        <v>73577</v>
       </c>
       <c r="AX68" s="15">
-        <v>10035</v>
+        <v>0</v>
       </c>
       <c r="AY68" s="15">
-        <v>73577</v>
+        <v>56195</v>
       </c>
       <c r="AZ68" s="15">
-        <v>0</v>
+        <v>44512</v>
       </c>
       <c r="BA68" s="15">
-        <v>56195</v>
+        <v>0</v>
       </c>
       <c r="BB68" s="15">
-        <v>44512</v>
+        <v>47394</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
         <v>80</v>
       </c>
@@ -9035,7 +9035,7 @@
       <c r="BA69" s="9"/>
       <c r="BB69" s="9"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>56</v>
       </c>
@@ -9100,11 +9100,11 @@
       <c r="W70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X70" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y70" s="11" t="s">
-        <v>58</v>
+      <c r="X70" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="11">
+        <v>0</v>
       </c>
       <c r="Z70" s="11">
         <v>0</v>
@@ -9124,11 +9124,11 @@
       <c r="AE70" s="11">
         <v>0</v>
       </c>
-      <c r="AF70" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG70" s="11">
-        <v>0</v>
+      <c r="AF70" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG70" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH70" s="11" t="s">
         <v>58</v>
@@ -9194,7 +9194,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="16" t="s">
         <v>67</v>
       </c>
@@ -9256,11 +9256,11 @@
       <c r="V71" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W71" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X71" s="17" t="s">
-        <v>58</v>
+      <c r="W71" s="17">
+        <v>0</v>
+      </c>
+      <c r="X71" s="17">
+        <v>0</v>
       </c>
       <c r="Y71" s="17">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
         <v>81</v>
       </c>
@@ -9410,7 +9410,7 @@
       <c r="BA72" s="9"/>
       <c r="BB72" s="9"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>56</v>
       </c>
@@ -9475,11 +9475,11 @@
       <c r="W73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y73" s="11" t="s">
-        <v>58</v>
+      <c r="X73" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="11">
+        <v>0</v>
       </c>
       <c r="Z73" s="11">
         <v>0</v>
@@ -9499,11 +9499,11 @@
       <c r="AE73" s="11">
         <v>0</v>
       </c>
-      <c r="AF73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG73" s="11">
-        <v>0</v>
+      <c r="AF73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH73" s="11" t="s">
         <v>58</v>
@@ -9569,7 +9569,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>59</v>
       </c>
@@ -9631,56 +9631,56 @@
       <c r="V74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X74" s="13" t="s">
-        <v>58</v>
+      <c r="W74" s="13">
+        <v>-556</v>
+      </c>
+      <c r="X74" s="13">
+        <v>0</v>
       </c>
       <c r="Y74" s="13">
-        <v>-556</v>
+        <v>-188</v>
       </c>
       <c r="Z74" s="13">
         <v>0</v>
       </c>
       <c r="AA74" s="13">
-        <v>-188</v>
+        <v>0</v>
       </c>
       <c r="AB74" s="13">
         <v>0</v>
       </c>
       <c r="AC74" s="13">
-        <v>0</v>
+        <v>-3542</v>
       </c>
       <c r="AD74" s="13">
         <v>0</v>
       </c>
       <c r="AE74" s="13">
-        <v>-3542</v>
-      </c>
-      <c r="AF74" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG74" s="13">
         <v>-524</v>
       </c>
+      <c r="AF74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG74" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ74" s="13" t="s">
-        <v>58</v>
+      <c r="AI74" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ74" s="13">
+        <v>0</v>
       </c>
       <c r="AK74" s="13">
-        <v>0</v>
+        <v>-7527</v>
       </c>
       <c r="AL74" s="13">
         <v>0</v>
       </c>
       <c r="AM74" s="13">
-        <v>-7527</v>
+        <v>0</v>
       </c>
       <c r="AN74" s="13">
         <v>0</v>
@@ -9694,11 +9694,11 @@
       <c r="AQ74" s="13">
         <v>0</v>
       </c>
-      <c r="AR74" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS74" s="13">
-        <v>0</v>
+      <c r="AR74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT74" s="13" t="s">
         <v>58</v>
@@ -9728,7 +9728,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>60</v>
       </c>
@@ -9796,11 +9796,11 @@
       <c r="X75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z75" s="11" t="s">
-        <v>58</v>
+      <c r="Y75" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="11">
+        <v>0</v>
       </c>
       <c r="AA75" s="11">
         <v>0</v>
@@ -9817,11 +9817,11 @@
       <c r="AE75" s="11">
         <v>0</v>
       </c>
-      <c r="AF75" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG75" s="11">
-        <v>0</v>
+      <c r="AF75" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG75" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH75" s="11" t="s">
         <v>58</v>
@@ -9887,7 +9887,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="16" t="s">
         <v>75</v>
       </c>
@@ -9949,38 +9949,38 @@
       <c r="V76" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W76" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X76" s="17" t="s">
-        <v>58</v>
+      <c r="W76" s="17">
+        <v>-556</v>
+      </c>
+      <c r="X76" s="17">
+        <v>0</v>
       </c>
       <c r="Y76" s="17">
-        <v>-556</v>
+        <v>-188</v>
       </c>
       <c r="Z76" s="17">
         <v>0</v>
       </c>
       <c r="AA76" s="17">
-        <v>-188</v>
+        <v>0</v>
       </c>
       <c r="AB76" s="17">
         <v>0</v>
       </c>
       <c r="AC76" s="17">
-        <v>0</v>
+        <v>-3542</v>
       </c>
       <c r="AD76" s="17">
         <v>0</v>
       </c>
       <c r="AE76" s="17">
-        <v>-3542</v>
+        <v>-524</v>
       </c>
       <c r="AF76" s="17">
         <v>0</v>
       </c>
       <c r="AG76" s="17">
-        <v>-524</v>
+        <v>0</v>
       </c>
       <c r="AH76" s="17">
         <v>0</v>
@@ -9992,13 +9992,13 @@
         <v>0</v>
       </c>
       <c r="AK76" s="17">
-        <v>0</v>
+        <v>-7527</v>
       </c>
       <c r="AL76" s="17">
         <v>0</v>
       </c>
       <c r="AM76" s="17">
-        <v>-7527</v>
+        <v>0</v>
       </c>
       <c r="AN76" s="17">
         <v>0</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>82</v>
       </c>
@@ -10103,7 +10103,7 @@
       <c r="BA77" s="9"/>
       <c r="BB77" s="9"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>83</v>
       </c>
@@ -10165,74 +10165,74 @@
       <c r="V78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W78" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X78" s="11" t="s">
-        <v>58</v>
+      <c r="W78" s="11">
+        <v>-8479</v>
+      </c>
+      <c r="X78" s="11">
+        <v>-8791</v>
       </c>
       <c r="Y78" s="11">
-        <v>-8479</v>
+        <v>-15677</v>
       </c>
       <c r="Z78" s="11">
-        <v>-8791</v>
+        <v>-12200</v>
       </c>
       <c r="AA78" s="11">
-        <v>-15677</v>
+        <v>-10759</v>
       </c>
       <c r="AB78" s="11">
-        <v>-12200</v>
+        <v>-11848</v>
       </c>
       <c r="AC78" s="11">
-        <v>-10759</v>
+        <v>-12664</v>
       </c>
       <c r="AD78" s="11">
-        <v>-11848</v>
+        <v>-12159</v>
       </c>
       <c r="AE78" s="11">
-        <v>-12664</v>
+        <v>-16690</v>
       </c>
       <c r="AF78" s="11">
-        <v>-12159</v>
+        <v>-8015</v>
       </c>
       <c r="AG78" s="11">
-        <v>-16690</v>
+        <v>-10431</v>
       </c>
       <c r="AH78" s="11">
-        <v>-8015</v>
+        <v>-9973</v>
       </c>
       <c r="AI78" s="11">
-        <v>-10431</v>
+        <v>-10506</v>
       </c>
       <c r="AJ78" s="11">
-        <v>-9973</v>
+        <v>-9808</v>
       </c>
       <c r="AK78" s="11">
-        <v>-10506</v>
+        <v>-12001</v>
       </c>
       <c r="AL78" s="11">
-        <v>-9808</v>
+        <v>-6868</v>
       </c>
       <c r="AM78" s="11">
-        <v>-12001</v>
+        <v>-16758</v>
       </c>
       <c r="AN78" s="11">
-        <v>-6868</v>
+        <v>-17320</v>
       </c>
       <c r="AO78" s="11">
-        <v>-16758</v>
+        <v>-12115</v>
       </c>
       <c r="AP78" s="11">
-        <v>-17320</v>
+        <v>-10594</v>
       </c>
       <c r="AQ78" s="11">
-        <v>-12115</v>
+        <v>-16008</v>
       </c>
       <c r="AR78" s="11">
-        <v>-10594</v>
+        <v>0</v>
       </c>
       <c r="AS78" s="11">
-        <v>-16008</v>
+        <v>0</v>
       </c>
       <c r="AT78" s="11">
         <v>0</v>
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
         <v>68</v>
       </c>
@@ -10323,103 +10323,103 @@
         <v>0</v>
       </c>
       <c r="W79" s="17">
-        <v>0</v>
+        <v>728855</v>
       </c>
       <c r="X79" s="17">
-        <v>0</v>
+        <v>864030</v>
       </c>
       <c r="Y79" s="17">
-        <v>728855</v>
+        <v>986950</v>
       </c>
       <c r="Z79" s="17">
-        <v>864030</v>
+        <v>1010469</v>
       </c>
       <c r="AA79" s="17">
-        <v>986950</v>
+        <v>733554</v>
       </c>
       <c r="AB79" s="17">
-        <v>1010469</v>
+        <v>1235473</v>
       </c>
       <c r="AC79" s="17">
-        <v>733554</v>
+        <v>1560694</v>
       </c>
       <c r="AD79" s="17">
-        <v>1235473</v>
+        <v>1270011</v>
       </c>
       <c r="AE79" s="17">
-        <v>1560694</v>
+        <v>1277300</v>
       </c>
       <c r="AF79" s="17">
-        <v>1270011</v>
+        <v>966320</v>
       </c>
       <c r="AG79" s="17">
-        <v>1277300</v>
+        <v>1234290</v>
       </c>
       <c r="AH79" s="17">
-        <v>966320</v>
+        <v>1158019</v>
       </c>
       <c r="AI79" s="17">
-        <v>1234290</v>
+        <v>1025014</v>
       </c>
       <c r="AJ79" s="17">
-        <v>1158019</v>
+        <v>1003260</v>
       </c>
       <c r="AK79" s="17">
-        <v>1025014</v>
+        <v>1380360</v>
       </c>
       <c r="AL79" s="17">
-        <v>1003260</v>
+        <v>1226722</v>
       </c>
       <c r="AM79" s="17">
-        <v>1380360</v>
+        <v>1037223</v>
       </c>
       <c r="AN79" s="17">
-        <v>1226722</v>
+        <v>1571545</v>
       </c>
       <c r="AO79" s="17">
-        <v>1037223</v>
+        <v>1307540</v>
       </c>
       <c r="AP79" s="17">
-        <v>1571545</v>
+        <v>1190067</v>
       </c>
       <c r="AQ79" s="17">
-        <v>1307540</v>
+        <v>1357871</v>
       </c>
       <c r="AR79" s="17">
-        <v>1190067</v>
+        <v>1074482</v>
       </c>
       <c r="AS79" s="17">
-        <v>1357871</v>
+        <v>1289189</v>
       </c>
       <c r="AT79" s="17">
-        <v>1074482</v>
+        <v>1672825</v>
       </c>
       <c r="AU79" s="17">
-        <v>1289189</v>
+        <v>1745271</v>
       </c>
       <c r="AV79" s="17">
-        <v>1672825</v>
+        <v>1561378</v>
       </c>
       <c r="AW79" s="17">
-        <v>1745271</v>
+        <v>1743500</v>
       </c>
       <c r="AX79" s="17">
-        <v>1561378</v>
+        <v>1751368</v>
       </c>
       <c r="AY79" s="17">
-        <v>1743500</v>
+        <v>1879052</v>
       </c>
       <c r="AZ79" s="17">
-        <v>1751368</v>
+        <v>2079362</v>
       </c>
       <c r="BA79" s="17">
-        <v>1879052</v>
+        <v>1906152</v>
       </c>
       <c r="BB79" s="17">
-        <v>2079362</v>
+        <v>1905004</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -10474,7 +10474,7 @@
       <c r="BA80" s="1"/>
       <c r="BB80" s="1"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -10529,7 +10529,7 @@
       <c r="BA81" s="1"/>
       <c r="BB81" s="1"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -10584,7 +10584,7 @@
       <c r="BA82" s="1"/>
       <c r="BB82" s="1"/>
     </row>
-    <row r="83" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>84</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -10796,7 +10796,7 @@
       <c r="BA84" s="1"/>
       <c r="BB84" s="1"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>85</v>
       </c>
@@ -10853,7 +10853,7 @@
       <c r="BA85" s="9"/>
       <c r="BB85" s="9"/>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>59</v>
       </c>
@@ -10915,104 +10915,104 @@
       <c r="V86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X86" s="11" t="s">
-        <v>58</v>
+      <c r="W86" s="11">
+        <v>336407710</v>
+      </c>
+      <c r="X86" s="11">
+        <v>404371837</v>
       </c>
       <c r="Y86" s="11">
-        <v>336407710</v>
+        <v>447860509</v>
       </c>
       <c r="Z86" s="11">
-        <v>404371837</v>
+        <v>450953862</v>
       </c>
       <c r="AA86" s="11">
-        <v>447860509</v>
+        <v>444981508</v>
       </c>
       <c r="AB86" s="11">
-        <v>450953862</v>
+        <v>435778509</v>
       </c>
       <c r="AC86" s="11">
-        <v>444981508</v>
+        <v>602009821</v>
       </c>
       <c r="AD86" s="11">
-        <v>435778509</v>
+        <v>567766268</v>
       </c>
       <c r="AE86" s="11">
-        <v>602009821</v>
+        <v>566900754</v>
       </c>
       <c r="AF86" s="11">
-        <v>567766268</v>
+        <v>566031068</v>
       </c>
       <c r="AG86" s="11">
-        <v>566900754</v>
+        <v>561310345</v>
       </c>
       <c r="AH86" s="11">
-        <v>566031068</v>
+        <v>570889643</v>
       </c>
       <c r="AI86" s="11">
-        <v>561310345</v>
+        <v>570142857</v>
       </c>
       <c r="AJ86" s="11">
-        <v>570889643</v>
+        <v>571074394</v>
       </c>
       <c r="AK86" s="11">
-        <v>570142857</v>
+        <v>569303333</v>
       </c>
       <c r="AL86" s="11">
-        <v>571074394</v>
+        <v>568168317</v>
       </c>
       <c r="AM86" s="11">
-        <v>569303333</v>
+        <v>636700000</v>
       </c>
       <c r="AN86" s="11">
-        <v>568168317</v>
+        <v>659927294</v>
       </c>
       <c r="AO86" s="11">
-        <v>636700000</v>
+        <v>682890029</v>
       </c>
       <c r="AP86" s="11">
-        <v>659927294</v>
+        <v>682638026</v>
       </c>
       <c r="AQ86" s="11">
-        <v>682890029</v>
+        <v>675247423</v>
       </c>
       <c r="AR86" s="11">
-        <v>682638026</v>
+        <v>650202500</v>
       </c>
       <c r="AS86" s="11">
-        <v>675247423</v>
+        <v>664882576</v>
       </c>
       <c r="AT86" s="11">
-        <v>650202500</v>
+        <v>744288942</v>
       </c>
       <c r="AU86" s="11">
-        <v>664882576</v>
+        <v>740269461</v>
       </c>
       <c r="AV86" s="11">
-        <v>744288942</v>
+        <v>734620521</v>
       </c>
       <c r="AW86" s="11">
-        <v>740269461</v>
+        <v>815025271</v>
       </c>
       <c r="AX86" s="11">
-        <v>734620521</v>
+        <v>801389456</v>
       </c>
       <c r="AY86" s="11">
-        <v>815025271</v>
+        <v>818886792</v>
       </c>
       <c r="AZ86" s="11">
-        <v>801389456</v>
+        <v>845175127</v>
       </c>
       <c r="BA86" s="11">
-        <v>818886792</v>
+        <v>849260677</v>
       </c>
       <c r="BB86" s="11">
-        <v>845175127</v>
+        <v>875724409</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
         <v>60</v>
       </c>
@@ -11074,104 +11074,104 @@
       <c r="V87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W87" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X87" s="13" t="s">
-        <v>58</v>
+      <c r="W87" s="13">
+        <v>294856481</v>
+      </c>
+      <c r="X87" s="13">
+        <v>343481762</v>
       </c>
       <c r="Y87" s="13">
-        <v>294856481</v>
+        <v>366450774</v>
       </c>
       <c r="Z87" s="13">
-        <v>343481762</v>
+        <v>370512418</v>
       </c>
       <c r="AA87" s="13">
-        <v>366450774</v>
+        <v>371466087</v>
       </c>
       <c r="AB87" s="13">
-        <v>370512418</v>
+        <v>568793460</v>
       </c>
       <c r="AC87" s="13">
-        <v>371466087</v>
+        <v>605908108</v>
       </c>
       <c r="AD87" s="13">
-        <v>568793460</v>
+        <v>557788677</v>
       </c>
       <c r="AE87" s="13">
-        <v>605908108</v>
+        <v>551123603</v>
       </c>
       <c r="AF87" s="13">
-        <v>557788677</v>
+        <v>552112195</v>
       </c>
       <c r="AG87" s="13">
-        <v>551123603</v>
+        <v>556202559</v>
       </c>
       <c r="AH87" s="13">
-        <v>552112195</v>
+        <v>548114721</v>
       </c>
       <c r="AI87" s="13">
-        <v>556202559</v>
+        <v>546953433</v>
       </c>
       <c r="AJ87" s="13">
-        <v>548114721</v>
+        <v>548743942</v>
       </c>
       <c r="AK87" s="13">
-        <v>546953433</v>
+        <v>546016677</v>
       </c>
       <c r="AL87" s="13">
-        <v>548743942</v>
+        <v>545959709</v>
       </c>
       <c r="AM87" s="13">
-        <v>546016677</v>
+        <v>548568129</v>
       </c>
       <c r="AN87" s="13">
-        <v>545959709</v>
+        <v>550624466</v>
       </c>
       <c r="AO87" s="13">
-        <v>548568129</v>
+        <v>557018979</v>
       </c>
       <c r="AP87" s="13">
-        <v>550624466</v>
+        <v>551821285</v>
       </c>
       <c r="AQ87" s="13">
-        <v>557018979</v>
+        <v>552654747</v>
       </c>
       <c r="AR87" s="13">
-        <v>551821285</v>
+        <v>554451370</v>
       </c>
       <c r="AS87" s="13">
-        <v>552654747</v>
+        <v>556340896</v>
       </c>
       <c r="AT87" s="13">
-        <v>554451370</v>
+        <v>630734395</v>
       </c>
       <c r="AU87" s="13">
-        <v>556340896</v>
+        <v>705954688</v>
       </c>
       <c r="AV87" s="13">
-        <v>630734395</v>
+        <v>725440027</v>
       </c>
       <c r="AW87" s="13">
-        <v>705954688</v>
+        <v>727784514</v>
       </c>
       <c r="AX87" s="13">
-        <v>725440027</v>
+        <v>745963529</v>
       </c>
       <c r="AY87" s="13">
-        <v>727784514</v>
+        <v>754378431</v>
       </c>
       <c r="AZ87" s="13">
-        <v>745963529</v>
+        <v>752424764</v>
       </c>
       <c r="BA87" s="13">
-        <v>754378431</v>
+        <v>770615610</v>
       </c>
       <c r="BB87" s="13">
-        <v>752424764</v>
+        <v>771225420</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>61</v>
       </c>
@@ -11233,104 +11233,104 @@
       <c r="V88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X88" s="11" t="s">
-        <v>58</v>
+      <c r="W88" s="11">
+        <v>273466667</v>
+      </c>
+      <c r="X88" s="11">
+        <v>324631579</v>
       </c>
       <c r="Y88" s="11">
-        <v>273466667</v>
+        <v>363444444</v>
       </c>
       <c r="Z88" s="11">
-        <v>324631579</v>
+        <v>386500000</v>
       </c>
       <c r="AA88" s="11">
-        <v>363444444</v>
+        <v>358750000</v>
       </c>
       <c r="AB88" s="11">
-        <v>386500000</v>
+        <v>347857143</v>
       </c>
       <c r="AC88" s="11">
-        <v>358750000</v>
+        <v>454230769</v>
       </c>
       <c r="AD88" s="11">
-        <v>347857143</v>
+        <v>387421053</v>
       </c>
       <c r="AE88" s="11">
-        <v>454230769</v>
+        <v>357285714</v>
       </c>
       <c r="AF88" s="11">
-        <v>387421053</v>
+        <v>339181818</v>
       </c>
       <c r="AG88" s="11">
-        <v>357285714</v>
+        <v>334736842</v>
       </c>
       <c r="AH88" s="11">
-        <v>339181818</v>
+        <v>345400000</v>
       </c>
       <c r="AI88" s="11">
-        <v>334736842</v>
+        <v>329500000</v>
       </c>
       <c r="AJ88" s="11">
-        <v>345400000</v>
+        <v>331090909</v>
       </c>
       <c r="AK88" s="11">
-        <v>329500000</v>
+        <v>319454545</v>
       </c>
       <c r="AL88" s="11">
-        <v>331090909</v>
+        <v>332000000</v>
       </c>
       <c r="AM88" s="11">
-        <v>319454545</v>
+        <v>328333333</v>
       </c>
       <c r="AN88" s="11">
-        <v>332000000</v>
+        <v>339769231</v>
       </c>
       <c r="AO88" s="11">
-        <v>328333333</v>
+        <v>349875000</v>
       </c>
       <c r="AP88" s="11">
-        <v>339769231</v>
+        <v>354625000</v>
       </c>
       <c r="AQ88" s="11">
-        <v>349875000</v>
+        <v>326923077</v>
       </c>
       <c r="AR88" s="11">
-        <v>354625000</v>
+        <v>408500000</v>
       </c>
       <c r="AS88" s="11">
-        <v>326923077</v>
+        <v>569090909</v>
       </c>
       <c r="AT88" s="11">
-        <v>408500000</v>
+        <v>543600000</v>
       </c>
       <c r="AU88" s="11">
-        <v>569090909</v>
+        <v>598222222</v>
       </c>
       <c r="AV88" s="11">
-        <v>543600000</v>
+        <v>621888889</v>
       </c>
       <c r="AW88" s="11">
-        <v>598222222</v>
+        <v>844285714</v>
       </c>
       <c r="AX88" s="11">
-        <v>621888889</v>
+        <v>750812500</v>
       </c>
       <c r="AY88" s="11">
-        <v>844285714</v>
+        <v>735125000</v>
       </c>
       <c r="AZ88" s="11">
-        <v>750812500</v>
+        <v>722894737</v>
       </c>
       <c r="BA88" s="11">
-        <v>735125000</v>
+        <v>744318182</v>
       </c>
       <c r="BB88" s="11">
-        <v>722894737</v>
+        <v>687318182</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>87</v>
       </c>
@@ -11387,7 +11387,7 @@
       <c r="BA89" s="9"/>
       <c r="BB89" s="9"/>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>59</v>
       </c>
@@ -11509,44 +11509,44 @@
       <c r="AP90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ90" s="11" t="s">
-        <v>58</v>
+      <c r="AQ90" s="11">
+        <v>658750000</v>
       </c>
       <c r="AR90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS90" s="11">
-        <v>658750000</v>
-      </c>
-      <c r="AT90" s="11" t="s">
-        <v>58</v>
+      <c r="AS90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT90" s="11">
+        <v>690583333</v>
       </c>
       <c r="AU90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV90" s="11">
-        <v>690583333</v>
-      </c>
-      <c r="AW90" s="11" t="s">
-        <v>58</v>
+      <c r="AV90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW90" s="11">
+        <v>800892857</v>
       </c>
       <c r="AX90" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AY90" s="11">
-        <v>800892857</v>
-      </c>
-      <c r="AZ90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA90" s="11">
         <v>781000000</v>
       </c>
+      <c r="AZ90" s="11">
+        <v>1074243243</v>
+      </c>
+      <c r="BA90" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="BB90" s="11">
-        <v>1074243243</v>
+        <v>928025000</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
         <v>60</v>
       </c>
@@ -11668,44 +11668,44 @@
       <c r="AP91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ91" s="13" t="s">
-        <v>58</v>
+      <c r="AQ91" s="13">
+        <v>644254545</v>
       </c>
       <c r="AR91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS91" s="13">
-        <v>644254545</v>
-      </c>
-      <c r="AT91" s="13" t="s">
-        <v>58</v>
+      <c r="AS91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT91" s="13">
+        <v>692300000</v>
       </c>
       <c r="AU91" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AV91" s="13">
-        <v>692300000</v>
-      </c>
-      <c r="AW91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX91" s="13">
         <v>771923077</v>
       </c>
+      <c r="AW91" s="13">
+        <v>799250000</v>
+      </c>
+      <c r="AX91" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AY91" s="13">
-        <v>799250000</v>
-      </c>
-      <c r="AZ91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA91" s="13">
         <v>797173913</v>
       </c>
+      <c r="AZ91" s="13">
+        <v>794166667</v>
+      </c>
+      <c r="BA91" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="BB91" s="13">
-        <v>794166667</v>
+        <v>733785714</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
         <v>88</v>
       </c>
@@ -11762,7 +11762,7 @@
       <c r="BA92" s="9"/>
       <c r="BB92" s="9"/>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>56</v>
       </c>
@@ -11827,11 +11827,11 @@
       <c r="W93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X93" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y93" s="11" t="s">
-        <v>58</v>
+      <c r="X93" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="11">
+        <v>0</v>
       </c>
       <c r="Z93" s="11">
         <v>0</v>
@@ -11851,11 +11851,11 @@
       <c r="AE93" s="11">
         <v>0</v>
       </c>
-      <c r="AF93" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG93" s="11">
-        <v>0</v>
+      <c r="AF93" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG93" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH93" s="11" t="s">
         <v>58</v>

--- a/database/industries/lastic/petayer/product/monthly_seprated.xlsx
+++ b/database/industries/lastic/petayer/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="89">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3331,8 +3331,8 @@
       <c r="U11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V11" s="13" t="s">
-        <v>58</v>
+      <c r="V11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W11" s="13" t="n">
         <v>0</v>
@@ -3355,8 +3355,8 @@
       <c r="AC11" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD11" s="13" t="n">
-        <v>0</v>
+      <c r="AD11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE11" s="13" t="s">
         <v>58</v>
@@ -3487,107 +3487,107 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>938</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>922</v>
+        <v>822</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>809</v>
+        <v>770</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>770</v>
+        <v>744</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>744</v>
+        <v>884</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>884</v>
+        <v>861</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>861</v>
+        <v>657</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>636</v>
+        <v>741</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>772</v>
+        <v>563</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>563</v>
+        <v>723</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>723</v>
+        <v>679</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>679</v>
+        <v>760</v>
       </c>
       <c r="AL12" s="16" t="n">
+        <v>678</v>
+      </c>
+      <c r="AM12" s="16" t="n">
         <v>760</v>
       </c>
-      <c r="AM12" s="16" t="n">
-        <v>678</v>
-      </c>
       <c r="AN12" s="16" t="n">
-        <v>760</v>
+        <v>675</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>675</v>
+        <v>599</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>615</v>
+        <v>693</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>712</v>
+        <v>673</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>673</v>
+        <v>477</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>477</v>
+        <v>297</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>297</v>
+        <v>654</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>654</v>
+        <v>717</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>730</v>
+        <v>687</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>687</v>
+        <v>627</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>648</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3646,107 +3646,107 @@
       <c r="T13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>58</v>
+      <c r="U13" s="13" t="n">
+        <v>1479</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>1479</v>
+        <v>1431</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>1432</v>
+        <v>1532</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>1532</v>
+        <v>1494</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>1494</v>
+        <v>1517</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>1517</v>
+        <v>1506</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>1506</v>
+        <v>1540</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>1540</v>
+        <v>1435</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>1435</v>
+        <v>1274</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>1274</v>
+        <v>1502</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>1499</v>
+        <v>1472</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>1472</v>
+        <v>1056</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>1056</v>
+        <v>1575</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>1575</v>
+        <v>1480</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>1480</v>
+        <v>1637</v>
       </c>
       <c r="AL13" s="13" t="n">
+        <v>1641</v>
+      </c>
+      <c r="AM13" s="13" t="n">
         <v>1637</v>
       </c>
-      <c r="AM13" s="13" t="n">
-        <v>1641</v>
-      </c>
       <c r="AN13" s="13" t="n">
-        <v>1637</v>
+        <v>1544</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>1544</v>
+        <v>1458</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>1458</v>
+        <v>1371</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>1371</v>
+        <v>1592</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>1592</v>
+        <v>1732</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>1732</v>
+        <v>1699</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>1699</v>
+        <v>1541</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>1541</v>
+        <v>1749</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>1749</v>
+        <v>1621</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>1621</v>
+        <v>1659</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>1659</v>
+        <v>1734</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>1734</v>
+        <v>1590</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>1590</v>
+        <v>1666</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>1666</v>
+        <v>1475</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,74 +3805,74 @@
       <c r="T14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>58</v>
+      <c r="U14" s="16" t="n">
+        <v>19</v>
       </c>
       <c r="V14" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="W14" s="16" t="n">
+        <v>17</v>
+      </c>
+      <c r="X14" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y14" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA14" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="W14" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="X14" s="16" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y14" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z14" s="16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA14" s="16" t="n">
-        <v>15</v>
-      </c>
       <c r="AB14" s="16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC14" s="16" t="n">
         <v>18</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AH14" s="16" t="n">
         <v>12</v>
       </c>
       <c r="AI14" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ14" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK14" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="AJ14" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK14" s="16" t="n">
-        <v>16</v>
-      </c>
       <c r="AL14" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM14" s="16" t="n">
         <v>12</v>
-      </c>
-      <c r="AM14" s="16" t="n">
-        <v>14</v>
       </c>
       <c r="AN14" s="16" t="n">
         <v>12</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AR14" s="16" t="n">
         <v>11</v>
@@ -3881,31 +3881,31 @@
         <v>11</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU14" s="16" t="n">
         <v>13</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AX14" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY14" s="16" t="n">
         <v>19</v>
-      </c>
-      <c r="AY14" s="16" t="n">
-        <v>12</v>
       </c>
       <c r="AZ14" s="16" t="n">
         <v>19</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3963,106 +3963,106 @@
         <v>0</v>
       </c>
       <c r="U15" s="18" t="n">
-        <v>0</v>
+        <v>2436</v>
       </c>
       <c r="V15" s="18" t="n">
-        <v>2436</v>
+        <v>2373</v>
       </c>
       <c r="W15" s="18" t="n">
-        <v>2373</v>
+        <v>2271</v>
       </c>
       <c r="X15" s="18" t="n">
-        <v>2271</v>
+        <v>2357</v>
       </c>
       <c r="Y15" s="18" t="n">
-        <v>2357</v>
+        <v>2273</v>
       </c>
       <c r="Z15" s="18" t="n">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="AA15" s="18" t="n">
-        <v>2276</v>
+        <v>2409</v>
       </c>
       <c r="AB15" s="18" t="n">
+        <v>2419</v>
+      </c>
+      <c r="AC15" s="18" t="n">
+        <v>2110</v>
+      </c>
+      <c r="AD15" s="18" t="n">
+        <v>1925</v>
+      </c>
+      <c r="AE15" s="18" t="n">
+        <v>2257</v>
+      </c>
+      <c r="AF15" s="18" t="n">
+        <v>2261</v>
+      </c>
+      <c r="AG15" s="18" t="n">
+        <v>2256</v>
+      </c>
+      <c r="AH15" s="18" t="n">
+        <v>1631</v>
+      </c>
+      <c r="AI15" s="18" t="n">
+        <v>2306</v>
+      </c>
+      <c r="AJ15" s="18" t="n">
+        <v>2175</v>
+      </c>
+      <c r="AK15" s="18" t="n">
         <v>2409</v>
       </c>
-      <c r="AC15" s="18" t="n">
-        <v>2419</v>
-      </c>
-      <c r="AD15" s="18" t="n">
-        <v>2110</v>
-      </c>
-      <c r="AE15" s="18" t="n">
-        <v>1925</v>
-      </c>
-      <c r="AF15" s="18" t="n">
-        <v>2257</v>
-      </c>
-      <c r="AG15" s="18" t="n">
-        <v>2261</v>
-      </c>
-      <c r="AH15" s="18" t="n">
-        <v>2256</v>
-      </c>
-      <c r="AI15" s="18" t="n">
-        <v>1631</v>
-      </c>
-      <c r="AJ15" s="18" t="n">
-        <v>2306</v>
-      </c>
-      <c r="AK15" s="18" t="n">
-        <v>2175</v>
-      </c>
       <c r="AL15" s="18" t="n">
+        <v>2333</v>
+      </c>
+      <c r="AM15" s="18" t="n">
         <v>2409</v>
       </c>
-      <c r="AM15" s="18" t="n">
-        <v>2333</v>
-      </c>
       <c r="AN15" s="18" t="n">
-        <v>2409</v>
+        <v>2231</v>
       </c>
       <c r="AO15" s="18" t="n">
-        <v>2231</v>
+        <v>2072</v>
       </c>
       <c r="AP15" s="18" t="n">
-        <v>2072</v>
+        <v>1994</v>
       </c>
       <c r="AQ15" s="18" t="n">
-        <v>1994</v>
+        <v>2296</v>
       </c>
       <c r="AR15" s="18" t="n">
+        <v>2455</v>
+      </c>
+      <c r="AS15" s="18" t="n">
+        <v>2383</v>
+      </c>
+      <c r="AT15" s="18" t="n">
+        <v>2031</v>
+      </c>
+      <c r="AU15" s="18" t="n">
+        <v>2059</v>
+      </c>
+      <c r="AV15" s="18" t="n">
+        <v>2289</v>
+      </c>
+      <c r="AW15" s="18" t="n">
+        <v>2395</v>
+      </c>
+      <c r="AX15" s="18" t="n">
+        <v>2476</v>
+      </c>
+      <c r="AY15" s="18" t="n">
         <v>2296</v>
       </c>
-      <c r="AS15" s="18" t="n">
-        <v>2455</v>
-      </c>
-      <c r="AT15" s="18" t="n">
-        <v>2383</v>
-      </c>
-      <c r="AU15" s="18" t="n">
-        <v>2031</v>
-      </c>
-      <c r="AV15" s="18" t="n">
-        <v>2059</v>
-      </c>
-      <c r="AW15" s="18" t="n">
-        <v>2289</v>
-      </c>
-      <c r="AX15" s="18" t="n">
-        <v>2395</v>
-      </c>
-      <c r="AY15" s="18" t="n">
-        <v>2476</v>
-      </c>
       <c r="AZ15" s="18" t="n">
-        <v>2296</v>
+        <v>2312</v>
       </c>
       <c r="BA15" s="18" t="n">
-        <v>2312</v>
+        <v>2133</v>
       </c>
       <c r="BB15" s="18" t="n">
-        <v>2133</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4262,8 +4262,8 @@
       <c r="AV17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW17" s="13" t="s">
-        <v>58</v>
+      <c r="AW17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AX17" s="13" t="n">
         <v>0</v>
@@ -4340,8 +4340,8 @@
       <c r="U18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="V18" s="16" t="s">
-        <v>58</v>
+      <c r="V18" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="W18" s="16" t="n">
         <v>0</v>
@@ -4364,8 +4364,8 @@
       <c r="AC18" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD18" s="16" t="n">
-        <v>0</v>
+      <c r="AD18" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE18" s="16" t="s">
         <v>58</v>
@@ -4556,17 +4556,17 @@
       <c r="AN19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP19" s="13" t="n">
+      <c r="AO19" s="13" t="n">
         <v>68</v>
       </c>
+      <c r="AP19" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR19" s="13" t="s">
-        <v>58</v>
+      <c r="AR19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS19" s="13" t="n">
         <v>0</v>
@@ -4715,17 +4715,17 @@
       <c r="AN20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO20" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP20" s="16" t="n">
+      <c r="AO20" s="16" t="n">
         <v>55</v>
       </c>
+      <c r="AP20" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR20" s="16" t="s">
-        <v>58</v>
+      <c r="AR20" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS20" s="16" t="n">
         <v>0</v>
@@ -4873,10 +4873,10 @@
         <v>0</v>
       </c>
       <c r="AO21" s="18" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="AP21" s="18" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="18" t="n">
         <v>0</v>
@@ -5031,8 +5031,8 @@
       <c r="U23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V23" s="13" t="s">
-        <v>58</v>
+      <c r="V23" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W23" s="13" t="n">
         <v>0</v>
@@ -5055,8 +5055,8 @@
       <c r="AC23" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD23" s="13" t="n">
-        <v>0</v>
+      <c r="AD23" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE23" s="13" t="s">
         <v>58</v>
@@ -5185,8 +5185,8 @@
       <c r="T24" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U24" s="20" t="s">
-        <v>58</v>
+      <c r="U24" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V24" s="20" t="n">
         <v>0</v>
@@ -5343,106 +5343,106 @@
         <v>0</v>
       </c>
       <c r="U25" s="18" t="n">
-        <v>0</v>
+        <v>2436</v>
       </c>
       <c r="V25" s="18" t="n">
-        <v>2436</v>
+        <v>2373</v>
       </c>
       <c r="W25" s="18" t="n">
-        <v>2373</v>
+        <v>2271</v>
       </c>
       <c r="X25" s="18" t="n">
-        <v>2271</v>
+        <v>2357</v>
       </c>
       <c r="Y25" s="18" t="n">
-        <v>2357</v>
+        <v>2273</v>
       </c>
       <c r="Z25" s="18" t="n">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="AA25" s="18" t="n">
-        <v>2276</v>
+        <v>2409</v>
       </c>
       <c r="AB25" s="18" t="n">
+        <v>2419</v>
+      </c>
+      <c r="AC25" s="18" t="n">
+        <v>2110</v>
+      </c>
+      <c r="AD25" s="18" t="n">
+        <v>1925</v>
+      </c>
+      <c r="AE25" s="18" t="n">
+        <v>2257</v>
+      </c>
+      <c r="AF25" s="18" t="n">
+        <v>2261</v>
+      </c>
+      <c r="AG25" s="18" t="n">
+        <v>2256</v>
+      </c>
+      <c r="AH25" s="18" t="n">
+        <v>1631</v>
+      </c>
+      <c r="AI25" s="18" t="n">
+        <v>2306</v>
+      </c>
+      <c r="AJ25" s="18" t="n">
+        <v>2175</v>
+      </c>
+      <c r="AK25" s="18" t="n">
         <v>2409</v>
       </c>
-      <c r="AC25" s="18" t="n">
-        <v>2419</v>
-      </c>
-      <c r="AD25" s="18" t="n">
-        <v>2110</v>
-      </c>
-      <c r="AE25" s="18" t="n">
-        <v>1925</v>
-      </c>
-      <c r="AF25" s="18" t="n">
-        <v>2257</v>
-      </c>
-      <c r="AG25" s="18" t="n">
-        <v>2261</v>
-      </c>
-      <c r="AH25" s="18" t="n">
-        <v>2256</v>
-      </c>
-      <c r="AI25" s="18" t="n">
-        <v>1631</v>
-      </c>
-      <c r="AJ25" s="18" t="n">
-        <v>2306</v>
-      </c>
-      <c r="AK25" s="18" t="n">
-        <v>2175</v>
-      </c>
       <c r="AL25" s="18" t="n">
+        <v>2333</v>
+      </c>
+      <c r="AM25" s="18" t="n">
         <v>2409</v>
       </c>
-      <c r="AM25" s="18" t="n">
-        <v>2333</v>
-      </c>
       <c r="AN25" s="18" t="n">
-        <v>2409</v>
+        <v>2231</v>
       </c>
       <c r="AO25" s="18" t="n">
-        <v>2231</v>
+        <v>2195</v>
       </c>
       <c r="AP25" s="18" t="n">
-        <v>2195</v>
+        <v>1994</v>
       </c>
       <c r="AQ25" s="18" t="n">
-        <v>1994</v>
+        <v>2296</v>
       </c>
       <c r="AR25" s="18" t="n">
+        <v>2455</v>
+      </c>
+      <c r="AS25" s="18" t="n">
+        <v>2383</v>
+      </c>
+      <c r="AT25" s="18" t="n">
+        <v>2031</v>
+      </c>
+      <c r="AU25" s="18" t="n">
+        <v>2059</v>
+      </c>
+      <c r="AV25" s="18" t="n">
+        <v>2289</v>
+      </c>
+      <c r="AW25" s="18" t="n">
+        <v>2395</v>
+      </c>
+      <c r="AX25" s="18" t="n">
+        <v>2476</v>
+      </c>
+      <c r="AY25" s="18" t="n">
         <v>2296</v>
       </c>
-      <c r="AS25" s="18" t="n">
-        <v>2455</v>
-      </c>
-      <c r="AT25" s="18" t="n">
-        <v>2383</v>
-      </c>
-      <c r="AU25" s="18" t="n">
-        <v>2031</v>
-      </c>
-      <c r="AV25" s="18" t="n">
-        <v>2059</v>
-      </c>
-      <c r="AW25" s="18" t="n">
-        <v>2289</v>
-      </c>
-      <c r="AX25" s="18" t="n">
-        <v>2395</v>
-      </c>
-      <c r="AY25" s="18" t="n">
-        <v>2476</v>
-      </c>
       <c r="AZ25" s="18" t="n">
-        <v>2296</v>
+        <v>2312</v>
       </c>
       <c r="BA25" s="18" t="n">
-        <v>2312</v>
+        <v>2133</v>
       </c>
       <c r="BB25" s="18" t="n">
-        <v>2133</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5938,8 +5938,8 @@
       <c r="U32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V32" s="13" t="s">
-        <v>58</v>
+      <c r="V32" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W32" s="13" t="n">
         <v>0</v>
@@ -5962,8 +5962,8 @@
       <c r="AC32" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD32" s="13" t="n">
-        <v>0</v>
+      <c r="AD32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE32" s="13" t="s">
         <v>58</v>
@@ -6094,107 +6094,107 @@
       <c r="T33" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="16" t="s">
-        <v>58</v>
+      <c r="U33" s="16" t="n">
+        <v>856</v>
       </c>
       <c r="V33" s="16" t="n">
-        <v>856</v>
+        <v>909</v>
       </c>
       <c r="W33" s="16" t="n">
-        <v>909</v>
+        <v>1061</v>
       </c>
       <c r="X33" s="16" t="n">
-        <v>1061</v>
+        <v>997</v>
       </c>
       <c r="Y33" s="16" t="n">
-        <v>997</v>
+        <v>703</v>
       </c>
       <c r="Z33" s="16" t="n">
-        <v>703</v>
+        <v>456</v>
       </c>
       <c r="AA33" s="16" t="n">
-        <v>456</v>
+        <v>1120</v>
       </c>
       <c r="AB33" s="16" t="n">
-        <v>1120</v>
+        <v>753</v>
       </c>
       <c r="AC33" s="16" t="n">
-        <v>753</v>
+        <v>796</v>
       </c>
       <c r="AD33" s="16" t="n">
-        <v>796</v>
+        <v>515</v>
       </c>
       <c r="AE33" s="16" t="n">
-        <v>515</v>
+        <v>812</v>
       </c>
       <c r="AF33" s="16" t="n">
-        <v>812</v>
+        <v>589</v>
       </c>
       <c r="AG33" s="16" t="n">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="AH33" s="16" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="AI33" s="16" t="n">
-        <v>578</v>
+        <v>900</v>
       </c>
       <c r="AJ33" s="16" t="n">
-        <v>900</v>
+        <v>707</v>
       </c>
       <c r="AK33" s="16" t="n">
-        <v>707</v>
+        <v>530</v>
       </c>
       <c r="AL33" s="16" t="n">
-        <v>530</v>
+        <v>839</v>
       </c>
       <c r="AM33" s="16" t="n">
-        <v>839</v>
+        <v>682</v>
       </c>
       <c r="AN33" s="16" t="n">
-        <v>682</v>
+        <v>547</v>
       </c>
       <c r="AO33" s="16" t="n">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="AP33" s="16" t="n">
-        <v>582</v>
+        <v>400</v>
       </c>
       <c r="AQ33" s="16" t="n">
-        <v>400</v>
+        <v>528</v>
       </c>
       <c r="AR33" s="16" t="n">
-        <v>528</v>
+        <v>841</v>
       </c>
       <c r="AS33" s="16" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AT33" s="16" t="n">
-        <v>835</v>
+        <v>614</v>
       </c>
       <c r="AU33" s="16" t="n">
-        <v>614</v>
+        <v>554</v>
       </c>
       <c r="AV33" s="16" t="n">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="AW33" s="16" t="n">
-        <v>588</v>
+        <v>795</v>
       </c>
       <c r="AX33" s="16" t="n">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="AY33" s="16" t="n">
-        <v>788</v>
+        <v>679</v>
       </c>
       <c r="AZ33" s="16" t="n">
-        <v>679</v>
+        <v>635</v>
       </c>
       <c r="BA33" s="16" t="n">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="BB33" s="16" t="n">
-        <v>639</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6253,107 +6253,107 @@
       <c r="T34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U34" s="13" t="s">
-        <v>58</v>
+      <c r="U34" s="13" t="n">
+        <v>1512</v>
       </c>
       <c r="V34" s="13" t="n">
-        <v>1512</v>
+        <v>1453</v>
       </c>
       <c r="W34" s="13" t="n">
-        <v>1453</v>
+        <v>1422</v>
       </c>
       <c r="X34" s="13" t="n">
-        <v>1422</v>
+        <v>1530</v>
       </c>
       <c r="Y34" s="13" t="n">
+        <v>1150</v>
+      </c>
+      <c r="Z34" s="13" t="n">
+        <v>1835</v>
+      </c>
+      <c r="AA34" s="13" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AB34" s="13" t="n">
+        <v>1519</v>
+      </c>
+      <c r="AC34" s="13" t="n">
+        <v>1521</v>
+      </c>
+      <c r="AD34" s="13" t="n">
+        <v>1230</v>
+      </c>
+      <c r="AE34" s="13" t="n">
+        <v>1407</v>
+      </c>
+      <c r="AF34" s="13" t="n">
+        <v>1508</v>
+      </c>
+      <c r="AG34" s="13" t="n">
+        <v>1267</v>
+      </c>
+      <c r="AH34" s="13" t="n">
+        <v>1238</v>
+      </c>
+      <c r="AI34" s="13" t="n">
+        <v>1619</v>
+      </c>
+      <c r="AJ34" s="13" t="n">
+        <v>1514</v>
+      </c>
+      <c r="AK34" s="13" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AL34" s="13" t="n">
+        <v>1872</v>
+      </c>
+      <c r="AM34" s="13" t="n">
+        <v>1528</v>
+      </c>
+      <c r="AN34" s="13" t="n">
+        <v>1494</v>
+      </c>
+      <c r="AO34" s="13" t="n">
+        <v>1622</v>
+      </c>
+      <c r="AP34" s="13" t="n">
+        <v>1460</v>
+      </c>
+      <c r="AQ34" s="13" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AR34" s="13" t="n">
+        <v>1570</v>
+      </c>
+      <c r="AS34" s="13" t="n">
+        <v>1589</v>
+      </c>
+      <c r="AT34" s="13" t="n">
+        <v>1509</v>
+      </c>
+      <c r="AU34" s="13" t="n">
+        <v>1666</v>
+      </c>
+      <c r="AV34" s="13" t="n">
+        <v>1700</v>
+      </c>
+      <c r="AW34" s="13" t="n">
         <v>1530</v>
       </c>
-      <c r="Z34" s="13" t="n">
-        <v>1150</v>
-      </c>
-      <c r="AA34" s="13" t="n">
-        <v>1835</v>
-      </c>
-      <c r="AB34" s="13" t="n">
-        <v>1480</v>
-      </c>
-      <c r="AC34" s="13" t="n">
-        <v>1519</v>
-      </c>
-      <c r="AD34" s="13" t="n">
-        <v>1521</v>
-      </c>
-      <c r="AE34" s="13" t="n">
-        <v>1230</v>
-      </c>
-      <c r="AF34" s="13" t="n">
-        <v>1407</v>
-      </c>
-      <c r="AG34" s="13" t="n">
-        <v>1508</v>
-      </c>
-      <c r="AH34" s="13" t="n">
-        <v>1267</v>
-      </c>
-      <c r="AI34" s="13" t="n">
-        <v>1238</v>
-      </c>
-      <c r="AJ34" s="13" t="n">
-        <v>1619</v>
-      </c>
-      <c r="AK34" s="13" t="n">
-        <v>1514</v>
-      </c>
-      <c r="AL34" s="13" t="n">
-        <v>1299</v>
-      </c>
-      <c r="AM34" s="13" t="n">
-        <v>1872</v>
-      </c>
-      <c r="AN34" s="13" t="n">
-        <v>1528</v>
-      </c>
-      <c r="AO34" s="13" t="n">
-        <v>1494</v>
-      </c>
-      <c r="AP34" s="13" t="n">
-        <v>1622</v>
-      </c>
-      <c r="AQ34" s="13" t="n">
-        <v>1460</v>
-      </c>
-      <c r="AR34" s="13" t="n">
-        <v>1675</v>
-      </c>
-      <c r="AS34" s="13" t="n">
-        <v>1570</v>
-      </c>
-      <c r="AT34" s="13" t="n">
-        <v>1589</v>
-      </c>
-      <c r="AU34" s="13" t="n">
-        <v>1509</v>
-      </c>
-      <c r="AV34" s="13" t="n">
-        <v>1666</v>
-      </c>
-      <c r="AW34" s="13" t="n">
-        <v>1700</v>
-      </c>
       <c r="AX34" s="13" t="n">
-        <v>1530</v>
+        <v>1801</v>
       </c>
       <c r="AY34" s="13" t="n">
-        <v>1801</v>
+        <v>1704</v>
       </c>
       <c r="AZ34" s="13" t="n">
-        <v>1704</v>
+        <v>1668</v>
       </c>
       <c r="BA34" s="13" t="n">
-        <v>1668</v>
+        <v>1409</v>
       </c>
       <c r="BB34" s="13" t="n">
-        <v>1409</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6412,107 +6412,107 @@
       <c r="T35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U35" s="16" t="s">
-        <v>58</v>
+      <c r="U35" s="16" t="n">
+        <v>15</v>
       </c>
       <c r="V35" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="W35" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="X35" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y35" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z35" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA35" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB35" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC35" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD35" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE35" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF35" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="W35" s="16" t="n">
-        <v>19</v>
-      </c>
-      <c r="X35" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y35" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z35" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA35" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB35" s="16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC35" s="16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD35" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE35" s="16" t="n">
+      <c r="AG35" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH35" s="16" t="n">
         <v>11</v>
-      </c>
-      <c r="AF35" s="16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG35" s="16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH35" s="16" t="n">
-        <v>10</v>
       </c>
       <c r="AI35" s="16" t="n">
         <v>11</v>
       </c>
       <c r="AJ35" s="16" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AK35" s="16" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AL35" s="16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM35" s="16" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AN35" s="16" t="n">
         <v>8</v>
       </c>
       <c r="AO35" s="16" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AP35" s="16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ35" s="16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR35" s="16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS35" s="16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT35" s="16" t="n">
         <v>9</v>
       </c>
       <c r="AU35" s="16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV35" s="16" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AW35" s="16" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AX35" s="16" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AY35" s="16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ35" s="16" t="n">
         <v>22</v>
       </c>
       <c r="BA35" s="16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB35" s="16" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6570,106 +6570,106 @@
         <v>0</v>
       </c>
       <c r="U36" s="18" t="n">
-        <v>0</v>
+        <v>2383</v>
       </c>
       <c r="V36" s="18" t="n">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="W36" s="18" t="n">
-        <v>2381</v>
+        <v>2501</v>
       </c>
       <c r="X36" s="18" t="n">
-        <v>2501</v>
+        <v>2543</v>
       </c>
       <c r="Y36" s="18" t="n">
-        <v>2543</v>
+        <v>1865</v>
       </c>
       <c r="Z36" s="18" t="n">
-        <v>1865</v>
+        <v>2305</v>
       </c>
       <c r="AA36" s="18" t="n">
-        <v>2305</v>
+        <v>2613</v>
       </c>
       <c r="AB36" s="18" t="n">
-        <v>2613</v>
+        <v>2291</v>
       </c>
       <c r="AC36" s="18" t="n">
-        <v>2291</v>
+        <v>2331</v>
       </c>
       <c r="AD36" s="18" t="n">
-        <v>2331</v>
+        <v>1756</v>
       </c>
       <c r="AE36" s="18" t="n">
-        <v>1756</v>
+        <v>2238</v>
       </c>
       <c r="AF36" s="18" t="n">
-        <v>2238</v>
+        <v>2112</v>
       </c>
       <c r="AG36" s="18" t="n">
-        <v>2112</v>
+        <v>1872</v>
       </c>
       <c r="AH36" s="18" t="n">
+        <v>1827</v>
+      </c>
+      <c r="AI36" s="18" t="n">
+        <v>2530</v>
+      </c>
+      <c r="AJ36" s="18" t="n">
+        <v>2237</v>
+      </c>
+      <c r="AK36" s="18" t="n">
+        <v>1841</v>
+      </c>
+      <c r="AL36" s="18" t="n">
+        <v>2724</v>
+      </c>
+      <c r="AM36" s="18" t="n">
+        <v>2218</v>
+      </c>
+      <c r="AN36" s="18" t="n">
+        <v>2049</v>
+      </c>
+      <c r="AO36" s="18" t="n">
+        <v>2217</v>
+      </c>
+      <c r="AP36" s="18" t="n">
         <v>1872</v>
       </c>
-      <c r="AI36" s="18" t="n">
-        <v>1827</v>
-      </c>
-      <c r="AJ36" s="18" t="n">
-        <v>2530</v>
-      </c>
-      <c r="AK36" s="18" t="n">
-        <v>2237</v>
-      </c>
-      <c r="AL36" s="18" t="n">
+      <c r="AQ36" s="18" t="n">
+        <v>2214</v>
+      </c>
+      <c r="AR36" s="18" t="n">
+        <v>2421</v>
+      </c>
+      <c r="AS36" s="18" t="n">
+        <v>2433</v>
+      </c>
+      <c r="AT36" s="18" t="n">
+        <v>2132</v>
+      </c>
+      <c r="AU36" s="18" t="n">
+        <v>2227</v>
+      </c>
+      <c r="AV36" s="18" t="n">
+        <v>2304</v>
+      </c>
+      <c r="AW36" s="18" t="n">
+        <v>2349</v>
+      </c>
+      <c r="AX36" s="18" t="n">
+        <v>2608</v>
+      </c>
+      <c r="AY36" s="18" t="n">
+        <v>2405</v>
+      </c>
+      <c r="AZ36" s="18" t="n">
+        <v>2325</v>
+      </c>
+      <c r="BA36" s="18" t="n">
+        <v>2068</v>
+      </c>
+      <c r="BB36" s="18" t="n">
         <v>1841</v>
-      </c>
-      <c r="AM36" s="18" t="n">
-        <v>2724</v>
-      </c>
-      <c r="AN36" s="18" t="n">
-        <v>2218</v>
-      </c>
-      <c r="AO36" s="18" t="n">
-        <v>2049</v>
-      </c>
-      <c r="AP36" s="18" t="n">
-        <v>2217</v>
-      </c>
-      <c r="AQ36" s="18" t="n">
-        <v>1872</v>
-      </c>
-      <c r="AR36" s="18" t="n">
-        <v>2214</v>
-      </c>
-      <c r="AS36" s="18" t="n">
-        <v>2421</v>
-      </c>
-      <c r="AT36" s="18" t="n">
-        <v>2433</v>
-      </c>
-      <c r="AU36" s="18" t="n">
-        <v>2132</v>
-      </c>
-      <c r="AV36" s="18" t="n">
-        <v>2227</v>
-      </c>
-      <c r="AW36" s="18" t="n">
-        <v>2304</v>
-      </c>
-      <c r="AX36" s="18" t="n">
-        <v>2349</v>
-      </c>
-      <c r="AY36" s="18" t="n">
-        <v>2608</v>
-      </c>
-      <c r="AZ36" s="18" t="n">
-        <v>2405</v>
-      </c>
-      <c r="BA36" s="18" t="n">
-        <v>2325</v>
-      </c>
-      <c r="BB36" s="18" t="n">
-        <v>2068</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6869,8 +6869,8 @@
       <c r="AV38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW38" s="13" t="s">
-        <v>58</v>
+      <c r="AW38" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AX38" s="13" t="n">
         <v>0</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="BA38" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB38" s="13" t="n">
         <v>1</v>
@@ -6947,8 +6947,8 @@
       <c r="U39" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="V39" s="16" t="s">
-        <v>58</v>
+      <c r="V39" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="W39" s="16" t="n">
         <v>0</v>
@@ -6971,8 +6971,8 @@
       <c r="AC39" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD39" s="16" t="n">
-        <v>0</v>
+      <c r="AD39" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE39" s="16" t="s">
         <v>58</v>
@@ -7163,47 +7163,47 @@
       <c r="AN40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP40" s="13" t="n">
+      <c r="AO40" s="13" t="n">
         <v>68</v>
       </c>
+      <c r="AP40" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR40" s="13" t="s">
-        <v>58</v>
+      <c r="AR40" s="13" t="n">
+        <v>24</v>
       </c>
       <c r="AS40" s="13" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AU40" s="13" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AV40" s="13" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AW40" s="13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AX40" s="13" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="AY40" s="13" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AZ40" s="13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BA40" s="13" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="BB40" s="13" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7322,47 +7322,47 @@
       <c r="AN41" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO41" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP41" s="16" t="n">
+      <c r="AO41" s="16" t="n">
         <v>55</v>
       </c>
+      <c r="AP41" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ41" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR41" s="16" t="s">
-        <v>58</v>
+      <c r="AR41" s="16" t="n">
+        <v>50</v>
       </c>
       <c r="AS41" s="16" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AU41" s="16" t="n">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="AV41" s="16" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AW41" s="16" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AX41" s="16" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="AY41" s="16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BA41" s="16" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="BB41" s="16" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7480,46 +7480,46 @@
         <v>0</v>
       </c>
       <c r="AO42" s="18" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="AP42" s="18" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="AQ42" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AR42" s="18" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AS42" s="18" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AU42" s="18" t="n">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="AV42" s="18" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="AW42" s="18" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AX42" s="18" t="n">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="AY42" s="18" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="18" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="BA42" s="18" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="BB42" s="18" t="n">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7638,8 +7638,8 @@
       <c r="U44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V44" s="13" t="s">
-        <v>58</v>
+      <c r="V44" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W44" s="13" t="n">
         <v>0</v>
@@ -7662,8 +7662,8 @@
       <c r="AC44" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD44" s="13" t="n">
-        <v>0</v>
+      <c r="AD44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE44" s="13" t="s">
         <v>58</v>
@@ -7792,8 +7792,8 @@
       <c r="T45" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="20" t="s">
-        <v>58</v>
+      <c r="U45" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V45" s="20" t="n">
         <v>0</v>
@@ -8011,8 +8011,8 @@
       <c r="U47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V47" s="13" t="s">
-        <v>58</v>
+      <c r="V47" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W47" s="13" t="n">
         <v>0</v>
@@ -8035,8 +8035,8 @@
       <c r="AC47" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD47" s="13" t="n">
-        <v>0</v>
+      <c r="AD47" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE47" s="13" t="s">
         <v>58</v>
@@ -8167,35 +8167,35 @@
       <c r="T48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U48" s="16" t="s">
-        <v>58</v>
+      <c r="U48" s="16" t="n">
+        <v>-5</v>
       </c>
       <c r="V48" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X48" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="16" t="n">
         <v>-5</v>
       </c>
-      <c r="W48" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" s="16" t="n">
+      <c r="AB48" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="16" t="n">
         <v>-1</v>
       </c>
-      <c r="Y48" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="16" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AC48" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="16" t="n">
-        <v>-1</v>
+      <c r="AD48" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE48" s="16" t="s">
         <v>58</v>
@@ -8209,11 +8209,11 @@
       <c r="AH48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI48" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ48" s="16" t="n">
+      <c r="AI48" s="16" t="n">
         <v>-11</v>
+      </c>
+      <c r="AJ48" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK48" s="16" t="s">
         <v>58</v>
@@ -8332,8 +8332,8 @@
       <c r="V49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W49" s="13" t="s">
-        <v>58</v>
+      <c r="W49" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="X49" s="13" t="n">
         <v>0</v>
@@ -8353,8 +8353,8 @@
       <c r="AC49" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD49" s="13" t="n">
-        <v>0</v>
+      <c r="AD49" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE49" s="13" t="s">
         <v>58</v>
@@ -8483,35 +8483,35 @@
       <c r="T50" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U50" s="20" t="s">
-        <v>58</v>
+      <c r="U50" s="20" t="n">
+        <v>-5</v>
       </c>
       <c r="V50" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X50" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="20" t="n">
         <v>-5</v>
       </c>
-      <c r="W50" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" s="20" t="n">
+      <c r="AB50" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="20" t="n">
         <v>-1</v>
       </c>
-      <c r="Y50" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="20" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AC50" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="AD50" s="20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="20" t="n">
         <v>0</v>
@@ -8526,10 +8526,10 @@
         <v>0</v>
       </c>
       <c r="AI50" s="20" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AJ50" s="20" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AK50" s="20" t="n">
         <v>0</v>
@@ -8641,106 +8641,106 @@
         <v>0</v>
       </c>
       <c r="U51" s="18" t="n">
-        <v>0</v>
+        <v>2378</v>
       </c>
       <c r="V51" s="18" t="n">
-        <v>2378</v>
+        <v>2381</v>
       </c>
       <c r="W51" s="18" t="n">
-        <v>2381</v>
+        <v>2500</v>
       </c>
       <c r="X51" s="18" t="n">
-        <v>2500</v>
+        <v>2543</v>
       </c>
       <c r="Y51" s="18" t="n">
-        <v>2543</v>
+        <v>1865</v>
       </c>
       <c r="Z51" s="18" t="n">
-        <v>1865</v>
+        <v>2305</v>
       </c>
       <c r="AA51" s="18" t="n">
-        <v>2305</v>
+        <v>2608</v>
       </c>
       <c r="AB51" s="18" t="n">
-        <v>2608</v>
+        <v>2291</v>
       </c>
       <c r="AC51" s="18" t="n">
-        <v>2291</v>
+        <v>2330</v>
       </c>
       <c r="AD51" s="18" t="n">
-        <v>2330</v>
+        <v>1756</v>
       </c>
       <c r="AE51" s="18" t="n">
-        <v>1756</v>
+        <v>2238</v>
       </c>
       <c r="AF51" s="18" t="n">
-        <v>2238</v>
+        <v>2112</v>
       </c>
       <c r="AG51" s="18" t="n">
-        <v>2112</v>
+        <v>1872</v>
       </c>
       <c r="AH51" s="18" t="n">
+        <v>1827</v>
+      </c>
+      <c r="AI51" s="18" t="n">
+        <v>2519</v>
+      </c>
+      <c r="AJ51" s="18" t="n">
+        <v>2237</v>
+      </c>
+      <c r="AK51" s="18" t="n">
+        <v>1841</v>
+      </c>
+      <c r="AL51" s="18" t="n">
+        <v>2724</v>
+      </c>
+      <c r="AM51" s="18" t="n">
+        <v>2218</v>
+      </c>
+      <c r="AN51" s="18" t="n">
+        <v>2049</v>
+      </c>
+      <c r="AO51" s="18" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AP51" s="18" t="n">
         <v>1872</v>
       </c>
-      <c r="AI51" s="18" t="n">
-        <v>1827</v>
-      </c>
-      <c r="AJ51" s="18" t="n">
-        <v>2519</v>
-      </c>
-      <c r="AK51" s="18" t="n">
-        <v>2237</v>
-      </c>
-      <c r="AL51" s="18" t="n">
-        <v>1841</v>
-      </c>
-      <c r="AM51" s="18" t="n">
-        <v>2724</v>
-      </c>
-      <c r="AN51" s="18" t="n">
-        <v>2218</v>
-      </c>
-      <c r="AO51" s="18" t="n">
-        <v>2049</v>
-      </c>
-      <c r="AP51" s="18" t="n">
-        <v>2340</v>
-      </c>
       <c r="AQ51" s="18" t="n">
-        <v>1872</v>
+        <v>2214</v>
       </c>
       <c r="AR51" s="18" t="n">
-        <v>2214</v>
+        <v>2495</v>
       </c>
       <c r="AS51" s="18" t="n">
-        <v>2495</v>
+        <v>2433</v>
       </c>
       <c r="AT51" s="18" t="n">
-        <v>2433</v>
+        <v>2145</v>
       </c>
       <c r="AU51" s="18" t="n">
-        <v>2145</v>
+        <v>2319</v>
       </c>
       <c r="AV51" s="18" t="n">
-        <v>2319</v>
+        <v>2304</v>
       </c>
       <c r="AW51" s="18" t="n">
-        <v>2304</v>
+        <v>2420</v>
       </c>
       <c r="AX51" s="18" t="n">
-        <v>2420</v>
+        <v>2651</v>
       </c>
       <c r="AY51" s="18" t="n">
-        <v>2651</v>
+        <v>2405</v>
       </c>
       <c r="AZ51" s="18" t="n">
-        <v>2405</v>
+        <v>2379</v>
       </c>
       <c r="BA51" s="18" t="n">
-        <v>2379</v>
+        <v>2127</v>
       </c>
       <c r="BB51" s="18" t="n">
-        <v>2127</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9236,8 +9236,8 @@
       <c r="U58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V58" s="13" t="s">
-        <v>58</v>
+      <c r="V58" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W58" s="13" t="n">
         <v>0</v>
@@ -9260,8 +9260,8 @@
       <c r="AC58" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD58" s="13" t="n">
-        <v>0</v>
+      <c r="AD58" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE58" s="13" t="s">
         <v>58</v>
@@ -9392,107 +9392,107 @@
       <c r="T59" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U59" s="16" t="s">
-        <v>58</v>
+      <c r="U59" s="16" t="n">
+        <v>287965</v>
       </c>
       <c r="V59" s="16" t="n">
-        <v>287965</v>
+        <v>367574</v>
       </c>
       <c r="W59" s="16" t="n">
-        <v>367574</v>
+        <v>475180</v>
       </c>
       <c r="X59" s="16" t="n">
-        <v>475180</v>
+        <v>449601</v>
       </c>
       <c r="Y59" s="16" t="n">
-        <v>449601</v>
+        <v>312822</v>
       </c>
       <c r="Z59" s="16" t="n">
-        <v>312822</v>
+        <v>198715</v>
       </c>
       <c r="AA59" s="16" t="n">
-        <v>198715</v>
+        <v>674251</v>
       </c>
       <c r="AB59" s="16" t="n">
-        <v>674251</v>
+        <v>427528</v>
       </c>
       <c r="AC59" s="16" t="n">
-        <v>427528</v>
+        <v>451253</v>
       </c>
       <c r="AD59" s="16" t="n">
-        <v>451253</v>
+        <v>291506</v>
       </c>
       <c r="AE59" s="16" t="n">
-        <v>291506</v>
+        <v>455784</v>
       </c>
       <c r="AF59" s="16" t="n">
-        <v>455784</v>
+        <v>336254</v>
       </c>
       <c r="AG59" s="16" t="n">
-        <v>336254</v>
+        <v>339235</v>
       </c>
       <c r="AH59" s="16" t="n">
-        <v>339235</v>
+        <v>330081</v>
       </c>
       <c r="AI59" s="16" t="n">
-        <v>330081</v>
+        <v>512373</v>
       </c>
       <c r="AJ59" s="16" t="n">
-        <v>512373</v>
+        <v>401695</v>
       </c>
       <c r="AK59" s="16" t="n">
-        <v>401695</v>
+        <v>337451</v>
       </c>
       <c r="AL59" s="16" t="n">
-        <v>337451</v>
+        <v>553679</v>
       </c>
       <c r="AM59" s="16" t="n">
-        <v>553679</v>
+        <v>465731</v>
       </c>
       <c r="AN59" s="16" t="n">
-        <v>465731</v>
+        <v>373403</v>
       </c>
       <c r="AO59" s="16" t="n">
-        <v>373403</v>
+        <v>392994</v>
       </c>
       <c r="AP59" s="16" t="n">
-        <v>392994</v>
+        <v>260081</v>
       </c>
       <c r="AQ59" s="16" t="n">
-        <v>260081</v>
+        <v>351058</v>
       </c>
       <c r="AR59" s="16" t="n">
-        <v>351058</v>
+        <v>625947</v>
       </c>
       <c r="AS59" s="16" t="n">
-        <v>625947</v>
+        <v>618125</v>
       </c>
       <c r="AT59" s="16" t="n">
-        <v>618125</v>
+        <v>451057</v>
       </c>
       <c r="AU59" s="16" t="n">
-        <v>451057</v>
+        <v>451524</v>
       </c>
       <c r="AV59" s="16" t="n">
-        <v>451524</v>
+        <v>471217</v>
       </c>
       <c r="AW59" s="16" t="n">
-        <v>471217</v>
+        <v>651015</v>
       </c>
       <c r="AX59" s="16" t="n">
-        <v>651015</v>
+        <v>665998</v>
       </c>
       <c r="AY59" s="16" t="n">
-        <v>665998</v>
+        <v>576648</v>
       </c>
       <c r="AZ59" s="16" t="n">
-        <v>576648</v>
+        <v>556085</v>
       </c>
       <c r="BA59" s="16" t="n">
-        <v>556085</v>
+        <v>589290</v>
       </c>
       <c r="BB59" s="16" t="n">
-        <v>589290</v>
+        <v>392506</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9551,107 +9551,107 @@
       <c r="T60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U60" s="13" t="s">
-        <v>58</v>
+      <c r="U60" s="13" t="n">
+        <v>445823</v>
       </c>
       <c r="V60" s="13" t="n">
-        <v>445823</v>
+        <v>499079</v>
       </c>
       <c r="W60" s="13" t="n">
-        <v>499079</v>
+        <v>521093</v>
       </c>
       <c r="X60" s="13" t="n">
-        <v>521093</v>
+        <v>566884</v>
       </c>
       <c r="Y60" s="13" t="n">
-        <v>566884</v>
+        <v>427186</v>
       </c>
       <c r="Z60" s="13" t="n">
-        <v>427186</v>
+        <v>1043736</v>
       </c>
       <c r="AA60" s="13" t="n">
-        <v>1043736</v>
+        <v>896744</v>
       </c>
       <c r="AB60" s="13" t="n">
-        <v>896744</v>
+        <v>847281</v>
       </c>
       <c r="AC60" s="13" t="n">
-        <v>847281</v>
+        <v>838259</v>
       </c>
       <c r="AD60" s="13" t="n">
-        <v>838259</v>
+        <v>679098</v>
       </c>
       <c r="AE60" s="13" t="n">
-        <v>679098</v>
+        <v>782577</v>
       </c>
       <c r="AF60" s="13" t="n">
-        <v>782577</v>
+        <v>826557</v>
       </c>
       <c r="AG60" s="13" t="n">
-        <v>826557</v>
+        <v>692990</v>
       </c>
       <c r="AH60" s="13" t="n">
-        <v>692990</v>
+        <v>679345</v>
       </c>
       <c r="AI60" s="13" t="n">
-        <v>679345</v>
+        <v>884001</v>
       </c>
       <c r="AJ60" s="13" t="n">
-        <v>884001</v>
+        <v>826583</v>
       </c>
       <c r="AK60" s="13" t="n">
-        <v>826583</v>
+        <v>712590</v>
       </c>
       <c r="AL60" s="13" t="n">
-        <v>712590</v>
+        <v>1030769</v>
       </c>
       <c r="AM60" s="13" t="n">
-        <v>1030769</v>
+        <v>851125</v>
       </c>
       <c r="AN60" s="13" t="n">
-        <v>851125</v>
+        <v>824421</v>
       </c>
       <c r="AO60" s="13" t="n">
-        <v>824421</v>
+        <v>896406</v>
       </c>
       <c r="AP60" s="13" t="n">
-        <v>896406</v>
+        <v>809499</v>
       </c>
       <c r="AQ60" s="13" t="n">
-        <v>809499</v>
+        <v>931871</v>
       </c>
       <c r="AR60" s="13" t="n">
-        <v>931871</v>
+        <v>990253</v>
       </c>
       <c r="AS60" s="13" t="n">
-        <v>990253</v>
+        <v>1121762</v>
       </c>
       <c r="AT60" s="13" t="n">
-        <v>1121762</v>
+        <v>1094689</v>
       </c>
       <c r="AU60" s="13" t="n">
-        <v>1094689</v>
+        <v>1212489</v>
       </c>
       <c r="AV60" s="13" t="n">
-        <v>1212489</v>
+        <v>1268138</v>
       </c>
       <c r="AW60" s="13" t="n">
-        <v>1268138</v>
+        <v>1154199</v>
       </c>
       <c r="AX60" s="13" t="n">
-        <v>1154199</v>
+        <v>1355117</v>
       </c>
       <c r="AY60" s="13" t="n">
-        <v>1355117</v>
+        <v>1313129</v>
       </c>
       <c r="AZ60" s="13" t="n">
-        <v>1313129</v>
+        <v>1286404</v>
       </c>
       <c r="BA60" s="13" t="n">
-        <v>1286404</v>
+        <v>1205063</v>
       </c>
       <c r="BB60" s="13" t="n">
-        <v>1205063</v>
+        <v>1346287</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9710,107 +9710,107 @@
       <c r="T61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U61" s="16" t="s">
-        <v>58</v>
+      <c r="U61" s="16" t="n">
+        <v>4102</v>
       </c>
       <c r="V61" s="16" t="n">
-        <v>4102</v>
+        <v>6168</v>
       </c>
       <c r="W61" s="16" t="n">
-        <v>6168</v>
+        <v>6542</v>
       </c>
       <c r="X61" s="16" t="n">
-        <v>6542</v>
+        <v>6184</v>
       </c>
       <c r="Y61" s="16" t="n">
-        <v>6184</v>
+        <v>4305</v>
       </c>
       <c r="Z61" s="16" t="n">
-        <v>4305</v>
+        <v>4870</v>
       </c>
       <c r="AA61" s="16" t="n">
-        <v>4870</v>
+        <v>5905</v>
       </c>
       <c r="AB61" s="16" t="n">
-        <v>5905</v>
+        <v>7361</v>
       </c>
       <c r="AC61" s="16" t="n">
-        <v>7361</v>
+        <v>5002</v>
       </c>
       <c r="AD61" s="16" t="n">
-        <v>5002</v>
+        <v>3731</v>
       </c>
       <c r="AE61" s="16" t="n">
-        <v>3731</v>
+        <v>6360</v>
       </c>
       <c r="AF61" s="16" t="n">
-        <v>6360</v>
+        <v>5181</v>
       </c>
       <c r="AG61" s="16" t="n">
-        <v>5181</v>
+        <v>3295</v>
       </c>
       <c r="AH61" s="16" t="n">
-        <v>3295</v>
+        <v>3642</v>
       </c>
       <c r="AI61" s="16" t="n">
-        <v>3642</v>
+        <v>3514</v>
       </c>
       <c r="AJ61" s="16" t="n">
-        <v>3514</v>
+        <v>5312</v>
       </c>
       <c r="AK61" s="16" t="n">
-        <v>5312</v>
+        <v>3940</v>
       </c>
       <c r="AL61" s="16" t="n">
-        <v>3940</v>
+        <v>4417</v>
       </c>
       <c r="AM61" s="16" t="n">
-        <v>4417</v>
+        <v>2799</v>
       </c>
       <c r="AN61" s="16" t="n">
-        <v>2799</v>
+        <v>2837</v>
       </c>
       <c r="AO61" s="16" t="n">
-        <v>2837</v>
+        <v>4250</v>
       </c>
       <c r="AP61" s="16" t="n">
-        <v>4250</v>
+        <v>4902</v>
       </c>
       <c r="AQ61" s="16" t="n">
-        <v>4902</v>
+        <v>6260</v>
       </c>
       <c r="AR61" s="16" t="n">
-        <v>6260</v>
+        <v>5436</v>
       </c>
       <c r="AS61" s="16" t="n">
-        <v>5436</v>
+        <v>5384</v>
       </c>
       <c r="AT61" s="16" t="n">
-        <v>5384</v>
+        <v>5597</v>
       </c>
       <c r="AU61" s="16" t="n">
-        <v>5597</v>
+        <v>5910</v>
       </c>
       <c r="AV61" s="16" t="n">
-        <v>5910</v>
+        <v>12013</v>
       </c>
       <c r="AW61" s="16" t="n">
-        <v>12013</v>
+        <v>17643</v>
       </c>
       <c r="AX61" s="16" t="n">
-        <v>17643</v>
+        <v>13735</v>
       </c>
       <c r="AY61" s="16" t="n">
-        <v>13735</v>
+        <v>16375</v>
       </c>
       <c r="AZ61" s="16" t="n">
-        <v>16375</v>
+        <v>15121</v>
       </c>
       <c r="BA61" s="16" t="n">
-        <v>15121</v>
+        <v>14232</v>
       </c>
       <c r="BB61" s="16" t="n">
-        <v>14232</v>
+        <v>11435</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9868,106 +9868,106 @@
         <v>0</v>
       </c>
       <c r="U62" s="18" t="n">
-        <v>0</v>
+        <v>737890</v>
       </c>
       <c r="V62" s="18" t="n">
-        <v>737890</v>
+        <v>872821</v>
       </c>
       <c r="W62" s="18" t="n">
-        <v>872821</v>
+        <v>1002815</v>
       </c>
       <c r="X62" s="18" t="n">
-        <v>1002815</v>
+        <v>1022669</v>
       </c>
       <c r="Y62" s="18" t="n">
-        <v>1022669</v>
+        <v>744313</v>
       </c>
       <c r="Z62" s="18" t="n">
-        <v>744313</v>
+        <v>1247321</v>
       </c>
       <c r="AA62" s="18" t="n">
-        <v>1247321</v>
+        <v>1576900</v>
       </c>
       <c r="AB62" s="18" t="n">
-        <v>1576900</v>
+        <v>1282170</v>
       </c>
       <c r="AC62" s="18" t="n">
-        <v>1282170</v>
+        <v>1294514</v>
       </c>
       <c r="AD62" s="18" t="n">
-        <v>1294514</v>
+        <v>974335</v>
       </c>
       <c r="AE62" s="18" t="n">
-        <v>974335</v>
+        <v>1244721</v>
       </c>
       <c r="AF62" s="18" t="n">
-        <v>1244721</v>
+        <v>1167992</v>
       </c>
       <c r="AG62" s="18" t="n">
-        <v>1167992</v>
+        <v>1035520</v>
       </c>
       <c r="AH62" s="18" t="n">
-        <v>1035520</v>
+        <v>1013068</v>
       </c>
       <c r="AI62" s="18" t="n">
-        <v>1013068</v>
+        <v>1399888</v>
       </c>
       <c r="AJ62" s="18" t="n">
-        <v>1399888</v>
+        <v>1233590</v>
       </c>
       <c r="AK62" s="18" t="n">
-        <v>1233590</v>
+        <v>1053981</v>
       </c>
       <c r="AL62" s="18" t="n">
-        <v>1053981</v>
+        <v>1588865</v>
       </c>
       <c r="AM62" s="18" t="n">
-        <v>1588865</v>
+        <v>1319655</v>
       </c>
       <c r="AN62" s="18" t="n">
-        <v>1319655</v>
+        <v>1200661</v>
       </c>
       <c r="AO62" s="18" t="n">
-        <v>1200661</v>
+        <v>1293650</v>
       </c>
       <c r="AP62" s="18" t="n">
-        <v>1293650</v>
+        <v>1074482</v>
       </c>
       <c r="AQ62" s="18" t="n">
-        <v>1074482</v>
+        <v>1289189</v>
       </c>
       <c r="AR62" s="18" t="n">
-        <v>1289189</v>
+        <v>1621636</v>
       </c>
       <c r="AS62" s="18" t="n">
-        <v>1621636</v>
+        <v>1745271</v>
       </c>
       <c r="AT62" s="18" t="n">
-        <v>1745271</v>
+        <v>1551343</v>
       </c>
       <c r="AU62" s="18" t="n">
-        <v>1551343</v>
+        <v>1669923</v>
       </c>
       <c r="AV62" s="18" t="n">
-        <v>1669923</v>
+        <v>1751368</v>
       </c>
       <c r="AW62" s="18" t="n">
-        <v>1751368</v>
+        <v>1822857</v>
       </c>
       <c r="AX62" s="18" t="n">
-        <v>1822857</v>
+        <v>2034850</v>
       </c>
       <c r="AY62" s="18" t="n">
-        <v>2034850</v>
+        <v>1906152</v>
       </c>
       <c r="AZ62" s="18" t="n">
-        <v>1906152</v>
+        <v>1857610</v>
       </c>
       <c r="BA62" s="18" t="n">
-        <v>1857610</v>
+        <v>1808585</v>
       </c>
       <c r="BB62" s="18" t="n">
-        <v>1808585</v>
+        <v>1750228</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10167,8 +10167,8 @@
       <c r="AV64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW64" s="13" t="s">
-        <v>58</v>
+      <c r="AW64" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AX64" s="13" t="n">
         <v>0</v>
@@ -10180,10 +10180,10 @@
         <v>0</v>
       </c>
       <c r="BA64" s="13" t="n">
-        <v>0</v>
+        <v>1947</v>
       </c>
       <c r="BB64" s="13" t="n">
-        <v>1947</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10245,8 +10245,8 @@
       <c r="U65" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="V65" s="16" t="s">
-        <v>58</v>
+      <c r="V65" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="W65" s="16" t="n">
         <v>0</v>
@@ -10269,8 +10269,8 @@
       <c r="AC65" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD65" s="16" t="n">
-        <v>0</v>
+      <c r="AD65" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE65" s="16" t="s">
         <v>58</v>
@@ -10461,47 +10461,47 @@
       <c r="AN66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP66" s="13" t="n">
+      <c r="AO66" s="13" t="n">
         <v>44795</v>
       </c>
+      <c r="AP66" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR66" s="13" t="s">
-        <v>58</v>
+      <c r="AR66" s="13" t="n">
+        <v>16574</v>
       </c>
       <c r="AS66" s="13" t="n">
-        <v>16574</v>
+        <v>0</v>
       </c>
       <c r="AT66" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AU66" s="13" t="n">
-        <v>0</v>
+        <v>22425</v>
       </c>
       <c r="AV66" s="13" t="n">
-        <v>22425</v>
+        <v>0</v>
       </c>
       <c r="AW66" s="13" t="n">
-        <v>0</v>
+        <v>19525</v>
       </c>
       <c r="AX66" s="13" t="n">
-        <v>19525</v>
+        <v>39747</v>
       </c>
       <c r="AY66" s="13" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="AZ66" s="13" t="n">
-        <v>0</v>
+        <v>37121</v>
       </c>
       <c r="BA66" s="13" t="n">
-        <v>37121</v>
+        <v>27156</v>
       </c>
       <c r="BB66" s="13" t="n">
-        <v>27156</v>
+        <v>9863</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10620,47 +10620,47 @@
       <c r="AN67" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO67" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP67" s="16" t="n">
+      <c r="AO67" s="16" t="n">
         <v>35434</v>
       </c>
+      <c r="AP67" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ67" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR67" s="16" t="s">
-        <v>58</v>
+      <c r="AR67" s="16" t="n">
+        <v>34615</v>
       </c>
       <c r="AS67" s="16" t="n">
-        <v>34615</v>
+        <v>0</v>
       </c>
       <c r="AT67" s="16" t="n">
-        <v>0</v>
+        <v>10035</v>
       </c>
       <c r="AU67" s="16" t="n">
-        <v>10035</v>
+        <v>51152</v>
       </c>
       <c r="AV67" s="16" t="n">
-        <v>51152</v>
+        <v>0</v>
       </c>
       <c r="AW67" s="16" t="n">
-        <v>0</v>
+        <v>36670</v>
       </c>
       <c r="AX67" s="16" t="n">
-        <v>36670</v>
+        <v>4765</v>
       </c>
       <c r="AY67" s="16" t="n">
-        <v>4765</v>
+        <v>0</v>
       </c>
       <c r="AZ67" s="16" t="n">
-        <v>0</v>
+        <v>10273</v>
       </c>
       <c r="BA67" s="16" t="n">
-        <v>10273</v>
+        <v>33294</v>
       </c>
       <c r="BB67" s="16" t="n">
-        <v>33294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10778,46 +10778,46 @@
         <v>0</v>
       </c>
       <c r="AO68" s="18" t="n">
-        <v>0</v>
+        <v>80229</v>
       </c>
       <c r="AP68" s="18" t="n">
-        <v>80229</v>
+        <v>0</v>
       </c>
       <c r="AQ68" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AR68" s="18" t="n">
-        <v>0</v>
+        <v>51189</v>
       </c>
       <c r="AS68" s="18" t="n">
-        <v>51189</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="18" t="n">
-        <v>0</v>
+        <v>10035</v>
       </c>
       <c r="AU68" s="18" t="n">
-        <v>10035</v>
+        <v>73577</v>
       </c>
       <c r="AV68" s="18" t="n">
-        <v>73577</v>
+        <v>0</v>
       </c>
       <c r="AW68" s="18" t="n">
-        <v>0</v>
+        <v>56195</v>
       </c>
       <c r="AX68" s="18" t="n">
-        <v>56195</v>
+        <v>44512</v>
       </c>
       <c r="AY68" s="18" t="n">
-        <v>44512</v>
+        <v>0</v>
       </c>
       <c r="AZ68" s="18" t="n">
-        <v>0</v>
+        <v>47394</v>
       </c>
       <c r="BA68" s="18" t="n">
-        <v>47394</v>
+        <v>62397</v>
       </c>
       <c r="BB68" s="18" t="n">
-        <v>62397</v>
+        <v>11313</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10936,8 +10936,8 @@
       <c r="U70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V70" s="13" t="s">
-        <v>58</v>
+      <c r="V70" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W70" s="13" t="n">
         <v>0</v>
@@ -10960,8 +10960,8 @@
       <c r="AC70" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD70" s="13" t="n">
-        <v>0</v>
+      <c r="AD70" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE70" s="13" t="s">
         <v>58</v>
@@ -11092,8 +11092,8 @@
       <c r="T71" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U71" s="20" t="s">
-        <v>58</v>
+      <c r="U71" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="V71" s="21" t="n">
         <v>0</v>
@@ -11311,8 +11311,8 @@
       <c r="U73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V73" s="13" t="s">
-        <v>58</v>
+      <c r="V73" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W73" s="13" t="n">
         <v>0</v>
@@ -11335,8 +11335,8 @@
       <c r="AC73" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD73" s="13" t="n">
-        <v>0</v>
+      <c r="AD73" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE73" s="13" t="s">
         <v>58</v>
@@ -11467,17 +11467,17 @@
       <c r="T74" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U74" s="16" t="s">
-        <v>58</v>
+      <c r="U74" s="16" t="n">
+        <v>-556</v>
       </c>
       <c r="V74" s="16" t="n">
-        <v>-556</v>
+        <v>0</v>
       </c>
       <c r="W74" s="16" t="n">
-        <v>0</v>
+        <v>-188</v>
       </c>
       <c r="X74" s="16" t="n">
-        <v>-188</v>
+        <v>0</v>
       </c>
       <c r="Y74" s="16" t="n">
         <v>0</v>
@@ -11486,34 +11486,34 @@
         <v>0</v>
       </c>
       <c r="AA74" s="16" t="n">
-        <v>0</v>
+        <v>-3542</v>
       </c>
       <c r="AB74" s="16" t="n">
-        <v>-3542</v>
+        <v>0</v>
       </c>
       <c r="AC74" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD74" s="16" t="n">
         <v>-524</v>
       </c>
+      <c r="AD74" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE74" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AF74" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AG74" s="16" t="s">
-        <v>58</v>
+      <c r="AG74" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AH74" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AI74" s="16" t="n">
-        <v>0</v>
+        <v>-7527</v>
       </c>
       <c r="AJ74" s="16" t="n">
-        <v>-7527</v>
+        <v>0</v>
       </c>
       <c r="AK74" s="16" t="n">
         <v>0</v>
@@ -11530,8 +11530,8 @@
       <c r="AO74" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP74" s="16" t="n">
-        <v>0</v>
+      <c r="AP74" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ74" s="16" t="s">
         <v>58</v>
@@ -11632,8 +11632,8 @@
       <c r="V75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W75" s="13" t="s">
-        <v>58</v>
+      <c r="W75" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="X75" s="13" t="n">
         <v>0</v>
@@ -11653,8 +11653,8 @@
       <c r="AC75" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD75" s="13" t="n">
-        <v>0</v>
+      <c r="AD75" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE75" s="13" t="s">
         <v>58</v>
@@ -11785,17 +11785,17 @@
       <c r="T76" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U76" s="20" t="s">
-        <v>58</v>
+      <c r="U76" s="21" t="n">
+        <v>-556</v>
       </c>
       <c r="V76" s="21" t="n">
-        <v>-556</v>
+        <v>0</v>
       </c>
       <c r="W76" s="21" t="n">
-        <v>0</v>
+        <v>-188</v>
       </c>
       <c r="X76" s="21" t="n">
-        <v>-188</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="21" t="n">
         <v>0</v>
@@ -11804,16 +11804,16 @@
         <v>0</v>
       </c>
       <c r="AA76" s="21" t="n">
-        <v>0</v>
+        <v>-3542</v>
       </c>
       <c r="AB76" s="21" t="n">
-        <v>-3542</v>
+        <v>0</v>
       </c>
       <c r="AC76" s="21" t="n">
-        <v>0</v>
+        <v>-524</v>
       </c>
       <c r="AD76" s="21" t="n">
-        <v>-524</v>
+        <v>0</v>
       </c>
       <c r="AE76" s="21" t="n">
         <v>0</v>
@@ -11828,10 +11828,10 @@
         <v>0</v>
       </c>
       <c r="AI76" s="21" t="n">
-        <v>0</v>
+        <v>-7527</v>
       </c>
       <c r="AJ76" s="21" t="n">
-        <v>-7527</v>
+        <v>0</v>
       </c>
       <c r="AK76" s="21" t="n">
         <v>0</v>
@@ -12001,71 +12001,71 @@
       <c r="T78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U78" s="13" t="s">
-        <v>58</v>
+      <c r="U78" s="13" t="n">
+        <v>-8479</v>
       </c>
       <c r="V78" s="13" t="n">
-        <v>-8479</v>
+        <v>-8791</v>
       </c>
       <c r="W78" s="13" t="n">
-        <v>-8791</v>
+        <v>-15677</v>
       </c>
       <c r="X78" s="13" t="n">
-        <v>-15677</v>
+        <v>-12200</v>
       </c>
       <c r="Y78" s="13" t="n">
-        <v>-12200</v>
+        <v>-10759</v>
       </c>
       <c r="Z78" s="13" t="n">
-        <v>-10759</v>
+        <v>-11848</v>
       </c>
       <c r="AA78" s="13" t="n">
-        <v>-11848</v>
+        <v>-12664</v>
       </c>
       <c r="AB78" s="13" t="n">
-        <v>-12664</v>
+        <v>-12159</v>
       </c>
       <c r="AC78" s="13" t="n">
-        <v>-12159</v>
+        <v>-16690</v>
       </c>
       <c r="AD78" s="13" t="n">
-        <v>-16690</v>
+        <v>-8015</v>
       </c>
       <c r="AE78" s="13" t="n">
-        <v>-8015</v>
+        <v>-10431</v>
       </c>
       <c r="AF78" s="13" t="n">
-        <v>-10431</v>
+        <v>-9973</v>
       </c>
       <c r="AG78" s="13" t="n">
-        <v>-9973</v>
+        <v>-10506</v>
       </c>
       <c r="AH78" s="13" t="n">
-        <v>-10506</v>
+        <v>-9808</v>
       </c>
       <c r="AI78" s="13" t="n">
-        <v>-9808</v>
+        <v>-12001</v>
       </c>
       <c r="AJ78" s="13" t="n">
-        <v>-12001</v>
+        <v>-6868</v>
       </c>
       <c r="AK78" s="13" t="n">
-        <v>-6868</v>
+        <v>-16758</v>
       </c>
       <c r="AL78" s="13" t="n">
-        <v>-16758</v>
+        <v>-17320</v>
       </c>
       <c r="AM78" s="13" t="n">
-        <v>-17320</v>
+        <v>-12115</v>
       </c>
       <c r="AN78" s="13" t="n">
-        <v>-12115</v>
+        <v>-10594</v>
       </c>
       <c r="AO78" s="13" t="n">
-        <v>-10594</v>
+        <v>-16008</v>
       </c>
       <c r="AP78" s="13" t="n">
-        <v>-16008</v>
+        <v>0</v>
       </c>
       <c r="AQ78" s="13" t="n">
         <v>0</v>
@@ -12159,106 +12159,106 @@
         <v>0</v>
       </c>
       <c r="U79" s="21" t="n">
-        <v>0</v>
+        <v>728855</v>
       </c>
       <c r="V79" s="21" t="n">
-        <v>728855</v>
+        <v>864030</v>
       </c>
       <c r="W79" s="21" t="n">
-        <v>864030</v>
+        <v>986950</v>
       </c>
       <c r="X79" s="21" t="n">
-        <v>986950</v>
+        <v>1010469</v>
       </c>
       <c r="Y79" s="21" t="n">
-        <v>1010469</v>
+        <v>733554</v>
       </c>
       <c r="Z79" s="21" t="n">
-        <v>733554</v>
+        <v>1235473</v>
       </c>
       <c r="AA79" s="21" t="n">
-        <v>1235473</v>
+        <v>1560694</v>
       </c>
       <c r="AB79" s="21" t="n">
-        <v>1560694</v>
+        <v>1270011</v>
       </c>
       <c r="AC79" s="21" t="n">
-        <v>1270011</v>
+        <v>1277300</v>
       </c>
       <c r="AD79" s="21" t="n">
-        <v>1277300</v>
+        <v>966320</v>
       </c>
       <c r="AE79" s="21" t="n">
-        <v>966320</v>
+        <v>1234290</v>
       </c>
       <c r="AF79" s="21" t="n">
-        <v>1234290</v>
+        <v>1158019</v>
       </c>
       <c r="AG79" s="21" t="n">
-        <v>1158019</v>
+        <v>1025014</v>
       </c>
       <c r="AH79" s="21" t="n">
-        <v>1025014</v>
+        <v>1003260</v>
       </c>
       <c r="AI79" s="21" t="n">
-        <v>1003260</v>
+        <v>1380360</v>
       </c>
       <c r="AJ79" s="21" t="n">
-        <v>1380360</v>
+        <v>1226722</v>
       </c>
       <c r="AK79" s="21" t="n">
-        <v>1226722</v>
+        <v>1037223</v>
       </c>
       <c r="AL79" s="21" t="n">
-        <v>1037223</v>
+        <v>1571545</v>
       </c>
       <c r="AM79" s="21" t="n">
-        <v>1571545</v>
+        <v>1307540</v>
       </c>
       <c r="AN79" s="21" t="n">
-        <v>1307540</v>
+        <v>1190067</v>
       </c>
       <c r="AO79" s="21" t="n">
-        <v>1190067</v>
+        <v>1357871</v>
       </c>
       <c r="AP79" s="21" t="n">
-        <v>1357871</v>
+        <v>1074482</v>
       </c>
       <c r="AQ79" s="21" t="n">
-        <v>1074482</v>
+        <v>1289189</v>
       </c>
       <c r="AR79" s="21" t="n">
-        <v>1289189</v>
+        <v>1672825</v>
       </c>
       <c r="AS79" s="21" t="n">
-        <v>1672825</v>
+        <v>1745271</v>
       </c>
       <c r="AT79" s="21" t="n">
-        <v>1745271</v>
+        <v>1561378</v>
       </c>
       <c r="AU79" s="21" t="n">
-        <v>1561378</v>
+        <v>1743500</v>
       </c>
       <c r="AV79" s="21" t="n">
-        <v>1743500</v>
+        <v>1751368</v>
       </c>
       <c r="AW79" s="21" t="n">
-        <v>1751368</v>
+        <v>1879052</v>
       </c>
       <c r="AX79" s="21" t="n">
-        <v>1879052</v>
+        <v>2079362</v>
       </c>
       <c r="AY79" s="21" t="n">
-        <v>2079362</v>
+        <v>1906152</v>
       </c>
       <c r="AZ79" s="21" t="n">
-        <v>1906152</v>
+        <v>1905004</v>
       </c>
       <c r="BA79" s="21" t="n">
-        <v>1905004</v>
+        <v>1870982</v>
       </c>
       <c r="BB79" s="21" t="n">
-        <v>1870982</v>
+        <v>1761541</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12751,107 +12751,107 @@
       <c r="T86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U86" s="13" t="s">
-        <v>58</v>
+      <c r="U86" s="13" t="n">
+        <v>336407710</v>
       </c>
       <c r="V86" s="13" t="n">
-        <v>336407710</v>
+        <v>404371837</v>
       </c>
       <c r="W86" s="13" t="n">
-        <v>404371837</v>
+        <v>447860509</v>
       </c>
       <c r="X86" s="13" t="n">
-        <v>447860509</v>
+        <v>450953862</v>
       </c>
       <c r="Y86" s="13" t="n">
-        <v>450953862</v>
+        <v>444981508</v>
       </c>
       <c r="Z86" s="13" t="n">
-        <v>444981508</v>
+        <v>435778509</v>
       </c>
       <c r="AA86" s="13" t="n">
-        <v>435778509</v>
+        <v>602009821</v>
       </c>
       <c r="AB86" s="13" t="n">
-        <v>602009821</v>
+        <v>567766268</v>
       </c>
       <c r="AC86" s="13" t="n">
-        <v>567766268</v>
+        <v>566900754</v>
       </c>
       <c r="AD86" s="13" t="n">
-        <v>566900754</v>
+        <v>566031068</v>
       </c>
       <c r="AE86" s="13" t="n">
-        <v>566031068</v>
+        <v>561310345</v>
       </c>
       <c r="AF86" s="13" t="n">
-        <v>561310345</v>
+        <v>570889643</v>
       </c>
       <c r="AG86" s="13" t="n">
-        <v>570889643</v>
+        <v>570142857</v>
       </c>
       <c r="AH86" s="13" t="n">
-        <v>570142857</v>
+        <v>571074394</v>
       </c>
       <c r="AI86" s="13" t="n">
-        <v>571074394</v>
+        <v>569303333</v>
       </c>
       <c r="AJ86" s="13" t="n">
-        <v>569303333</v>
+        <v>568168317</v>
       </c>
       <c r="AK86" s="13" t="n">
-        <v>568168317</v>
+        <v>636700000</v>
       </c>
       <c r="AL86" s="13" t="n">
-        <v>636700000</v>
+        <v>659927294</v>
       </c>
       <c r="AM86" s="13" t="n">
-        <v>659927294</v>
+        <v>682890029</v>
       </c>
       <c r="AN86" s="13" t="n">
-        <v>682890029</v>
+        <v>682638026</v>
       </c>
       <c r="AO86" s="13" t="n">
-        <v>682638026</v>
+        <v>675247423</v>
       </c>
       <c r="AP86" s="13" t="n">
-        <v>675247423</v>
+        <v>650202500</v>
       </c>
       <c r="AQ86" s="13" t="n">
-        <v>650202500</v>
+        <v>664882576</v>
       </c>
       <c r="AR86" s="13" t="n">
-        <v>664882576</v>
+        <v>744288942</v>
       </c>
       <c r="AS86" s="13" t="n">
-        <v>744288942</v>
+        <v>740269461</v>
       </c>
       <c r="AT86" s="13" t="n">
-        <v>740269461</v>
+        <v>734620521</v>
       </c>
       <c r="AU86" s="13" t="n">
-        <v>734620521</v>
+        <v>815025271</v>
       </c>
       <c r="AV86" s="13" t="n">
-        <v>815025271</v>
+        <v>801389456</v>
       </c>
       <c r="AW86" s="13" t="n">
-        <v>801389456</v>
+        <v>818886792</v>
       </c>
       <c r="AX86" s="13" t="n">
-        <v>818886792</v>
+        <v>845175127</v>
       </c>
       <c r="AY86" s="13" t="n">
-        <v>845175127</v>
+        <v>849260677</v>
       </c>
       <c r="AZ86" s="13" t="n">
-        <v>849260677</v>
+        <v>875724409</v>
       </c>
       <c r="BA86" s="13" t="n">
-        <v>875724409</v>
+        <v>922206573</v>
       </c>
       <c r="BB86" s="13" t="n">
-        <v>922206573</v>
+        <v>1016854922</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12910,107 +12910,107 @@
       <c r="T87" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U87" s="16" t="s">
-        <v>58</v>
+      <c r="U87" s="16" t="n">
+        <v>294856481</v>
       </c>
       <c r="V87" s="16" t="n">
-        <v>294856481</v>
+        <v>343481762</v>
       </c>
       <c r="W87" s="16" t="n">
-        <v>343481762</v>
+        <v>366450774</v>
       </c>
       <c r="X87" s="16" t="n">
-        <v>366450774</v>
+        <v>370512418</v>
       </c>
       <c r="Y87" s="16" t="n">
-        <v>370512418</v>
+        <v>371466087</v>
       </c>
       <c r="Z87" s="16" t="n">
-        <v>371466087</v>
+        <v>568793460</v>
       </c>
       <c r="AA87" s="16" t="n">
-        <v>568793460</v>
+        <v>605908108</v>
       </c>
       <c r="AB87" s="16" t="n">
-        <v>605908108</v>
+        <v>557788677</v>
       </c>
       <c r="AC87" s="16" t="n">
-        <v>557788677</v>
+        <v>551123603</v>
       </c>
       <c r="AD87" s="16" t="n">
-        <v>551123603</v>
+        <v>552112195</v>
       </c>
       <c r="AE87" s="16" t="n">
-        <v>552112195</v>
+        <v>556202559</v>
       </c>
       <c r="AF87" s="16" t="n">
-        <v>556202559</v>
+        <v>548114721</v>
       </c>
       <c r="AG87" s="16" t="n">
-        <v>548114721</v>
+        <v>546953433</v>
       </c>
       <c r="AH87" s="16" t="n">
-        <v>546953433</v>
+        <v>548743942</v>
       </c>
       <c r="AI87" s="16" t="n">
-        <v>548743942</v>
+        <v>546016677</v>
       </c>
       <c r="AJ87" s="16" t="n">
-        <v>546016677</v>
+        <v>545959709</v>
       </c>
       <c r="AK87" s="16" t="n">
-        <v>545959709</v>
+        <v>548568129</v>
       </c>
       <c r="AL87" s="16" t="n">
-        <v>548568129</v>
+        <v>550624466</v>
       </c>
       <c r="AM87" s="16" t="n">
-        <v>550624466</v>
+        <v>557018979</v>
       </c>
       <c r="AN87" s="16" t="n">
-        <v>557018979</v>
+        <v>551821285</v>
       </c>
       <c r="AO87" s="16" t="n">
-        <v>551821285</v>
+        <v>552654747</v>
       </c>
       <c r="AP87" s="16" t="n">
-        <v>552654747</v>
+        <v>554451370</v>
       </c>
       <c r="AQ87" s="16" t="n">
-        <v>554451370</v>
+        <v>556340896</v>
       </c>
       <c r="AR87" s="16" t="n">
-        <v>556340896</v>
+        <v>630734395</v>
       </c>
       <c r="AS87" s="16" t="n">
-        <v>630734395</v>
+        <v>705954688</v>
       </c>
       <c r="AT87" s="16" t="n">
-        <v>705954688</v>
+        <v>725440027</v>
       </c>
       <c r="AU87" s="16" t="n">
-        <v>725440027</v>
+        <v>727784514</v>
       </c>
       <c r="AV87" s="16" t="n">
-        <v>727784514</v>
+        <v>745963529</v>
       </c>
       <c r="AW87" s="16" t="n">
-        <v>745963529</v>
+        <v>754378431</v>
       </c>
       <c r="AX87" s="16" t="n">
-        <v>754378431</v>
+        <v>752424764</v>
       </c>
       <c r="AY87" s="16" t="n">
-        <v>752424764</v>
+        <v>770615610</v>
       </c>
       <c r="AZ87" s="16" t="n">
-        <v>770615610</v>
+        <v>771225420</v>
       </c>
       <c r="BA87" s="16" t="n">
-        <v>771225420</v>
+        <v>855261178</v>
       </c>
       <c r="BB87" s="16" t="n">
-        <v>855261178</v>
+        <v>934921528</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13069,107 +13069,107 @@
       <c r="T88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U88" s="13" t="s">
-        <v>58</v>
+      <c r="U88" s="13" t="n">
+        <v>273466667</v>
       </c>
       <c r="V88" s="13" t="n">
-        <v>273466667</v>
+        <v>324631579</v>
       </c>
       <c r="W88" s="13" t="n">
-        <v>324631579</v>
+        <v>363444444</v>
       </c>
       <c r="X88" s="13" t="n">
-        <v>363444444</v>
+        <v>386500000</v>
       </c>
       <c r="Y88" s="13" t="n">
-        <v>386500000</v>
+        <v>358750000</v>
       </c>
       <c r="Z88" s="13" t="n">
-        <v>358750000</v>
+        <v>347857143</v>
       </c>
       <c r="AA88" s="13" t="n">
-        <v>347857143</v>
+        <v>454230769</v>
       </c>
       <c r="AB88" s="13" t="n">
-        <v>454230769</v>
+        <v>387421053</v>
       </c>
       <c r="AC88" s="13" t="n">
-        <v>387421053</v>
+        <v>357285714</v>
       </c>
       <c r="AD88" s="13" t="n">
-        <v>357285714</v>
+        <v>339181818</v>
       </c>
       <c r="AE88" s="13" t="n">
-        <v>339181818</v>
+        <v>334736842</v>
       </c>
       <c r="AF88" s="13" t="n">
-        <v>334736842</v>
+        <v>345400000</v>
       </c>
       <c r="AG88" s="13" t="n">
-        <v>345400000</v>
+        <v>329500000</v>
       </c>
       <c r="AH88" s="13" t="n">
-        <v>329500000</v>
+        <v>331090909</v>
       </c>
       <c r="AI88" s="13" t="n">
-        <v>331090909</v>
+        <v>319454545</v>
       </c>
       <c r="AJ88" s="13" t="n">
-        <v>319454545</v>
+        <v>332000000</v>
       </c>
       <c r="AK88" s="13" t="n">
-        <v>332000000</v>
+        <v>328333333</v>
       </c>
       <c r="AL88" s="13" t="n">
-        <v>328333333</v>
+        <v>339769231</v>
       </c>
       <c r="AM88" s="13" t="n">
-        <v>339769231</v>
+        <v>349875000</v>
       </c>
       <c r="AN88" s="13" t="n">
-        <v>349875000</v>
+        <v>354625000</v>
       </c>
       <c r="AO88" s="13" t="n">
-        <v>354625000</v>
+        <v>326923077</v>
       </c>
       <c r="AP88" s="13" t="n">
-        <v>326923077</v>
+        <v>408500000</v>
       </c>
       <c r="AQ88" s="13" t="n">
-        <v>408500000</v>
+        <v>569090909</v>
       </c>
       <c r="AR88" s="13" t="n">
-        <v>569090909</v>
+        <v>543600000</v>
       </c>
       <c r="AS88" s="13" t="n">
-        <v>543600000</v>
+        <v>598222222</v>
       </c>
       <c r="AT88" s="13" t="n">
-        <v>598222222</v>
+        <v>621888889</v>
       </c>
       <c r="AU88" s="13" t="n">
-        <v>621888889</v>
+        <v>844285714</v>
       </c>
       <c r="AV88" s="13" t="n">
-        <v>844285714</v>
+        <v>750812500</v>
       </c>
       <c r="AW88" s="13" t="n">
-        <v>750812500</v>
+        <v>735125000</v>
       </c>
       <c r="AX88" s="13" t="n">
-        <v>735125000</v>
+        <v>722894737</v>
       </c>
       <c r="AY88" s="13" t="n">
-        <v>722894737</v>
+        <v>744318182</v>
       </c>
       <c r="AZ88" s="13" t="n">
-        <v>744318182</v>
+        <v>687318182</v>
       </c>
       <c r="BA88" s="13" t="n">
-        <v>687318182</v>
+        <v>711600000</v>
       </c>
       <c r="BB88" s="13" t="n">
-        <v>711600000</v>
+        <v>762333333</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13381,11 +13381,11 @@
       <c r="AZ90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA90" s="13" t="s">
-        <v>58</v>
+      <c r="BA90" s="13" t="n">
+        <v>1947000000</v>
       </c>
       <c r="BB90" s="13" t="n">
-        <v>1947000000</v>
+        <v>1450000000</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13504,47 +13504,47 @@
       <c r="AN91" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO91" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP91" s="16" t="n">
+      <c r="AO91" s="16" t="n">
         <v>658750000</v>
       </c>
+      <c r="AP91" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ91" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR91" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS91" s="16" t="n">
+      <c r="AR91" s="16" t="n">
         <v>690583333</v>
       </c>
+      <c r="AS91" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AT91" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU91" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV91" s="16" t="n">
+      <c r="AU91" s="16" t="n">
         <v>800892857</v>
       </c>
-      <c r="AW91" s="16" t="s">
-        <v>58</v>
+      <c r="AV91" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW91" s="16" t="n">
+        <v>781000000</v>
       </c>
       <c r="AX91" s="16" t="n">
-        <v>781000000</v>
-      </c>
-      <c r="AY91" s="16" t="n">
         <v>1074243243</v>
       </c>
-      <c r="AZ91" s="16" t="s">
-        <v>58</v>
+      <c r="AY91" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ91" s="16" t="n">
+        <v>928025000</v>
       </c>
       <c r="BA91" s="16" t="n">
-        <v>928025000</v>
+        <v>1234363636</v>
       </c>
       <c r="BB91" s="16" t="n">
-        <v>1234363636</v>
+        <v>1232875000</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13663,47 +13663,47 @@
       <c r="AN92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO92" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP92" s="13" t="n">
+      <c r="AO92" s="13" t="n">
         <v>644254545</v>
       </c>
+      <c r="AP92" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR92" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS92" s="13" t="n">
+      <c r="AR92" s="13" t="n">
         <v>692300000</v>
       </c>
-      <c r="AT92" s="13" t="s">
-        <v>58</v>
+      <c r="AS92" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT92" s="13" t="n">
+        <v>771923077</v>
       </c>
       <c r="AU92" s="13" t="n">
-        <v>771923077</v>
-      </c>
-      <c r="AV92" s="13" t="n">
         <v>799250000</v>
       </c>
-      <c r="AW92" s="13" t="s">
-        <v>58</v>
+      <c r="AV92" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW92" s="13" t="n">
+        <v>797173913</v>
       </c>
       <c r="AX92" s="13" t="n">
-        <v>797173913</v>
-      </c>
-      <c r="AY92" s="13" t="n">
         <v>794166667</v>
       </c>
-      <c r="AZ92" s="13" t="s">
-        <v>58</v>
+      <c r="AY92" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ92" s="13" t="n">
+        <v>733785714</v>
       </c>
       <c r="BA92" s="13" t="n">
-        <v>733785714</v>
-      </c>
-      <c r="BB92" s="13" t="n">
         <v>924833333</v>
+      </c>
+      <c r="BB92" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13822,8 +13822,8 @@
       <c r="U94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V94" s="13" t="s">
-        <v>58</v>
+      <c r="V94" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W94" s="13" t="n">
         <v>0</v>
@@ -13846,8 +13846,8 @@
       <c r="AC94" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD94" s="13" t="n">
-        <v>0</v>
+      <c r="AD94" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE94" s="13" t="s">
         <v>58</v>
